--- a/public/local/fixtures/calculator/Техническая экспертиза калькуляторы.xlsx
+++ b/public/local/fixtures/calculator/Техническая экспертиза калькуляторы.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Моя ФИРМА\Сайт\Калькуляторы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uzhne/project-extras/imarket/expert/src/public/local/fixtures/calculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="920" yWindow="460" windowWidth="37580" windowHeight="21140" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Экспертиза одно здания" sheetId="4" r:id="rId1"/>
+    <sheet name="Экспертиза одного здания" sheetId="4" r:id="rId1"/>
     <sheet name="Экспертиза нескольких зданий" sheetId="7" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="527">
   <si>
     <t>Местонахождение</t>
   </si>
@@ -1656,17 +1661,125 @@
   <si>
     <t>Определение влажности строительных материалов</t>
   </si>
+  <si>
+    <t>Стоимость</t>
+  </si>
+  <si>
+    <t>Старая стоимость</t>
+  </si>
+  <si>
+    <t>Единица измерения</t>
+  </si>
+  <si>
+    <t>10-20 замеров</t>
+  </si>
+  <si>
+    <t>Сроки, раб. дн.</t>
+  </si>
+  <si>
+    <t>Цель работ</t>
+  </si>
+  <si>
+    <t>Определение коэффициента уплотнения грунтов основания, с целью установления соответствия параметров плотности требованиям нормативной, проектной, договорной документации и пр.</t>
+  </si>
+  <si>
+    <t>Коэффициенты</t>
+  </si>
+  <si>
+    <t>Ручная или механизированная откопка фундаментов до подошвы в объёме достаточном для обеспечения доступа к фундаменту и выполнения работ по экспертизе или обследованию</t>
+  </si>
+  <si>
+    <t>Тахиометрическая съёмка с целью выявления кренов смещений и пр.</t>
+  </si>
+  <si>
+    <t>Определение физико-механических характеристик грунтов</t>
+  </si>
+  <si>
+    <t>Определение типа, конструктивной схемы и особенности обследуемых строительных конструкций. Выявление дефектов и недостатков. Определение технического состояния и соответствия требованиям нормативной документации</t>
+  </si>
+  <si>
+    <t>Установление прочности бетона (класса и марки), определение глубины трещин</t>
+  </si>
+  <si>
+    <t>Установление толщины защитного слоя бетона в железобетонных конструкциях. Определение наличия, расположения и диаметраарматуры в железобетонных конструкциях</t>
+  </si>
+  <si>
+    <t>Установление прочности бетона (класса и марки)</t>
+  </si>
+  <si>
+    <t>Установление прочности бетона (класса и марки), кирпича и раствора (марки). Установление соответствия состава, толщины, прочности и других показателей асфальтобетона требованиям нормативной документации</t>
+  </si>
+  <si>
+    <t>Определение марки стали</t>
+  </si>
+  <si>
+    <t>Графическое отображение точного местонахождения выявленных дефектов, повреждений и недостатков строительных конструкций</t>
+  </si>
+  <si>
+    <t>Графическое отображение фактических объемно-планировочных решений, расположения конструкций</t>
+  </si>
+  <si>
+    <t>Графическое отображеие фактического исполнения и конструктивных особенностей узлов и деталей</t>
+  </si>
+  <si>
+    <t>Определение текущей и (или) максимальной несущей способности с учетом фактического технического состояния строительных конструкций</t>
+  </si>
+  <si>
+    <t>Установление состояния и качества выполнения сварных швов</t>
+  </si>
+  <si>
+    <t>Установление качества выполнения болтовых соединений</t>
+  </si>
+  <si>
+    <t>Выявление источников теплопопотерь</t>
+  </si>
+  <si>
+    <t>Установление соответствия термического сопротивления материалов и конструкций требованиям нормативной документации</t>
+  </si>
+  <si>
+    <t>Установление соответствия уровня шума в помещениях требованиям нормативной документации. Установление причин превышения нормативного уровня шума</t>
+  </si>
+  <si>
+    <t>Установление причин и выявление участков возникновения протечек, образования грибка и плесени</t>
+  </si>
+  <si>
+    <t>Установление соответствия вляжности строительных материалов требованиям нормативной документации</t>
+  </si>
+  <si>
+    <t>30-50 замеров</t>
+  </si>
+  <si>
+    <t>5-10 замеров</t>
+  </si>
+  <si>
+    <t>5-10 образцов</t>
+  </si>
+  <si>
+    <t>до 10-и швов длиной по 500 мм</t>
+  </si>
+  <si>
+    <t>до 100 гаек</t>
+  </si>
+  <si>
+    <t>до 50 шт. конструкций или до 3000 кв.м. поверхности конструкций</t>
+  </si>
+  <si>
+    <t>Не более 3-х расчетов</t>
+  </si>
+  <si>
+    <t>Не более 10 помещений</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1926,6 +2039,24 @@
     <font>
       <sz val="11"/>
       <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -2248,36 +2379,36 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -2285,11 +2416,11 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -2298,7 +2429,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -2306,17 +2437,17 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -2326,7 +2457,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -2334,12 +2465,12 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2348,23 +2479,23 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2407,9 +2538,13 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2447,20 +2582,20 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2487,47 +2622,47 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="28" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="28" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -2535,14 +2670,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2558,57 +2693,86 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="43">
-    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Акцент4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Акцент5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Акцент6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ввод " xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Вывод" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Вычисление" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Заголовок 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Заголовок 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Заголовок 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Заголовок 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Итог" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Контрольная ячейка" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Название" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Нейтральный" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Плохой" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Примечание" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Связанная ячейка" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Финансовый" xfId="42" builtinId="3"/>
-    <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
+  <cellStyles count="47">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="42" builtinId="3"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -2891,46 +3055,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE614"/>
   <sheetViews>
-    <sheetView topLeftCell="A463" workbookViewId="0">
-      <selection activeCell="B512" sqref="B512"/>
+    <sheetView topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="B149" sqref="B149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="16" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="16" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="16" customWidth="1"/>
-    <col min="11" max="28" width="9.140625" style="16"/>
-    <col min="29" max="31" width="9.140625" style="13"/>
+    <col min="1" max="1" width="53.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="16" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="16" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="16" customWidth="1"/>
+    <col min="11" max="28" width="8.83203125" style="16"/>
+    <col min="29" max="31" width="8.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B1" s="15"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B2" s="15"/>
     </row>
-    <row r="3" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="15"/>
     </row>
-    <row r="4" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B4" s="15"/>
     </row>
-    <row r="5" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="15"/>
     </row>
-    <row r="6" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>146</v>
       </c>
@@ -2938,7 +3102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>147</v>
       </c>
@@ -2946,17 +3110,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="15"/>
     </row>
-    <row r="9" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B9" s="15"/>
     </row>
-    <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -2964,13 +3128,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B11" s="15"/>
     </row>
-    <row r="12" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>150</v>
       </c>
@@ -2978,7 +3142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>151</v>
       </c>
@@ -2986,14 +3150,14 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="14" spans="1:31" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="15"/>
       <c r="AC14" s="13"/>
       <c r="AD14" s="13"/>
       <c r="AE14" s="13"/>
     </row>
-    <row r="15" spans="1:31" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -3002,7 +3166,7 @@
       <c r="AD15" s="13"/>
       <c r="AE15" s="13"/>
     </row>
-    <row r="16" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
@@ -3013,7 +3177,7 @@
       <c r="AD16" s="13"/>
       <c r="AE16" s="13"/>
     </row>
-    <row r="17" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>8</v>
       </c>
@@ -3024,7 +3188,7 @@
       <c r="AD17" s="13"/>
       <c r="AE17" s="13"/>
     </row>
-    <row r="18" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>9</v>
       </c>
@@ -3035,7 +3199,7 @@
       <c r="AD18" s="13"/>
       <c r="AE18" s="13"/>
     </row>
-    <row r="19" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>10</v>
       </c>
@@ -3046,7 +3210,7 @@
       <c r="AD19" s="13"/>
       <c r="AE19" s="13"/>
     </row>
-    <row r="20" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>11</v>
       </c>
@@ -3057,7 +3221,7 @@
       <c r="AD20" s="13"/>
       <c r="AE20" s="13"/>
     </row>
-    <row r="21" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>12</v>
       </c>
@@ -3068,7 +3232,7 @@
       <c r="AD21" s="13"/>
       <c r="AE21" s="13"/>
     </row>
-    <row r="22" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -3079,7 +3243,7 @@
       <c r="AD22" s="13"/>
       <c r="AE22" s="13"/>
     </row>
-    <row r="23" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -3090,7 +3254,7 @@
       <c r="AD23" s="13"/>
       <c r="AE23" s="13"/>
     </row>
-    <row r="24" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>15</v>
       </c>
@@ -3101,7 +3265,7 @@
       <c r="AD24" s="13"/>
       <c r="AE24" s="13"/>
     </row>
-    <row r="25" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>16</v>
       </c>
@@ -3112,7 +3276,7 @@
       <c r="AD25" s="13"/>
       <c r="AE25" s="13"/>
     </row>
-    <row r="26" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>17</v>
       </c>
@@ -3123,7 +3287,7 @@
       <c r="AD26" s="13"/>
       <c r="AE26" s="13"/>
     </row>
-    <row r="27" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>18</v>
       </c>
@@ -3134,7 +3298,7 @@
       <c r="AD27" s="13"/>
       <c r="AE27" s="13"/>
     </row>
-    <row r="28" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>19</v>
       </c>
@@ -3145,7 +3309,7 @@
       <c r="AD28" s="13"/>
       <c r="AE28" s="13"/>
     </row>
-    <row r="29" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>20</v>
       </c>
@@ -3156,7 +3320,7 @@
       <c r="AD29" s="13"/>
       <c r="AE29" s="13"/>
     </row>
-    <row r="30" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>21</v>
       </c>
@@ -3167,7 +3331,7 @@
       <c r="AD30" s="13"/>
       <c r="AE30" s="13"/>
     </row>
-    <row r="31" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>22</v>
       </c>
@@ -3178,7 +3342,7 @@
       <c r="AD31" s="13"/>
       <c r="AE31" s="13"/>
     </row>
-    <row r="32" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>23</v>
       </c>
@@ -3189,7 +3353,7 @@
       <c r="AD32" s="13"/>
       <c r="AE32" s="13"/>
     </row>
-    <row r="33" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>24</v>
       </c>
@@ -3200,7 +3364,7 @@
       <c r="AD33" s="13"/>
       <c r="AE33" s="13"/>
     </row>
-    <row r="34" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>25</v>
       </c>
@@ -3211,7 +3375,7 @@
       <c r="AD34" s="13"/>
       <c r="AE34" s="13"/>
     </row>
-    <row r="35" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>26</v>
       </c>
@@ -3222,7 +3386,7 @@
       <c r="AD35" s="13"/>
       <c r="AE35" s="13"/>
     </row>
-    <row r="36" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>27</v>
       </c>
@@ -3233,7 +3397,7 @@
       <c r="AD36" s="13"/>
       <c r="AE36" s="13"/>
     </row>
-    <row r="37" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>28</v>
       </c>
@@ -3244,7 +3408,7 @@
       <c r="AD37" s="13"/>
       <c r="AE37" s="13"/>
     </row>
-    <row r="38" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>29</v>
       </c>
@@ -3255,7 +3419,7 @@
       <c r="AD38" s="13"/>
       <c r="AE38" s="13"/>
     </row>
-    <row r="39" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>30</v>
       </c>
@@ -3266,7 +3430,7 @@
       <c r="AD39" s="13"/>
       <c r="AE39" s="13"/>
     </row>
-    <row r="40" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>31</v>
       </c>
@@ -3277,7 +3441,7 @@
       <c r="AD40" s="13"/>
       <c r="AE40" s="13"/>
     </row>
-    <row r="41" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>32</v>
       </c>
@@ -3288,7 +3452,7 @@
       <c r="AD41" s="13"/>
       <c r="AE41" s="13"/>
     </row>
-    <row r="42" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>33</v>
       </c>
@@ -3299,7 +3463,7 @@
       <c r="AD42" s="13"/>
       <c r="AE42" s="13"/>
     </row>
-    <row r="43" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>34</v>
       </c>
@@ -3310,7 +3474,7 @@
       <c r="AD43" s="13"/>
       <c r="AE43" s="13"/>
     </row>
-    <row r="44" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>35</v>
       </c>
@@ -3321,7 +3485,7 @@
       <c r="AD44" s="13"/>
       <c r="AE44" s="13"/>
     </row>
-    <row r="45" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>36</v>
       </c>
@@ -3332,7 +3496,7 @@
       <c r="AD45" s="13"/>
       <c r="AE45" s="13"/>
     </row>
-    <row r="46" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>37</v>
       </c>
@@ -3343,7 +3507,7 @@
       <c r="AD46" s="13"/>
       <c r="AE46" s="13"/>
     </row>
-    <row r="47" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>38</v>
       </c>
@@ -3354,7 +3518,7 @@
       <c r="AD47" s="13"/>
       <c r="AE47" s="13"/>
     </row>
-    <row r="48" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>39</v>
       </c>
@@ -3365,7 +3529,7 @@
       <c r="AD48" s="13"/>
       <c r="AE48" s="13"/>
     </row>
-    <row r="49" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>40</v>
       </c>
@@ -3376,7 +3540,7 @@
       <c r="AD49" s="13"/>
       <c r="AE49" s="13"/>
     </row>
-    <row r="50" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>41</v>
       </c>
@@ -3387,7 +3551,7 @@
       <c r="AD50" s="13"/>
       <c r="AE50" s="13"/>
     </row>
-    <row r="51" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>42</v>
       </c>
@@ -3398,7 +3562,7 @@
       <c r="AD51" s="13"/>
       <c r="AE51" s="13"/>
     </row>
-    <row r="52" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>43</v>
       </c>
@@ -3409,7 +3573,7 @@
       <c r="AD52" s="13"/>
       <c r="AE52" s="13"/>
     </row>
-    <row r="53" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>44</v>
       </c>
@@ -3420,7 +3584,7 @@
       <c r="AD53" s="13"/>
       <c r="AE53" s="13"/>
     </row>
-    <row r="54" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>45</v>
       </c>
@@ -3431,7 +3595,7 @@
       <c r="AD54" s="13"/>
       <c r="AE54" s="13"/>
     </row>
-    <row r="55" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>46</v>
       </c>
@@ -3442,7 +3606,7 @@
       <c r="AD55" s="13"/>
       <c r="AE55" s="13"/>
     </row>
-    <row r="56" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>47</v>
       </c>
@@ -3453,7 +3617,7 @@
       <c r="AD56" s="13"/>
       <c r="AE56" s="13"/>
     </row>
-    <row r="57" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>48</v>
       </c>
@@ -3464,7 +3628,7 @@
       <c r="AD57" s="13"/>
       <c r="AE57" s="13"/>
     </row>
-    <row r="58" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>49</v>
       </c>
@@ -3475,7 +3639,7 @@
       <c r="AD58" s="13"/>
       <c r="AE58" s="13"/>
     </row>
-    <row r="59" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>50</v>
       </c>
@@ -3486,7 +3650,7 @@
       <c r="AD59" s="13"/>
       <c r="AE59" s="13"/>
     </row>
-    <row r="60" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>119</v>
       </c>
@@ -3497,7 +3661,7 @@
       <c r="AD60" s="13"/>
       <c r="AE60" s="13"/>
     </row>
-    <row r="61" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>51</v>
       </c>
@@ -3508,7 +3672,7 @@
       <c r="AD61" s="13"/>
       <c r="AE61" s="13"/>
     </row>
-    <row r="62" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>52</v>
       </c>
@@ -3519,7 +3683,7 @@
       <c r="AD62" s="13"/>
       <c r="AE62" s="13"/>
     </row>
-    <row r="63" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>53</v>
       </c>
@@ -3530,7 +3694,7 @@
       <c r="AD63" s="13"/>
       <c r="AE63" s="13"/>
     </row>
-    <row r="64" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>54</v>
       </c>
@@ -3541,7 +3705,7 @@
       <c r="AD64" s="13"/>
       <c r="AE64" s="13"/>
     </row>
-    <row r="65" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>55</v>
       </c>
@@ -3552,7 +3716,7 @@
       <c r="AD65" s="13"/>
       <c r="AE65" s="13"/>
     </row>
-    <row r="66" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>56</v>
       </c>
@@ -3563,7 +3727,7 @@
       <c r="AD66" s="13"/>
       <c r="AE66" s="13"/>
     </row>
-    <row r="67" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>57</v>
       </c>
@@ -3574,7 +3738,7 @@
       <c r="AD67" s="13"/>
       <c r="AE67" s="13"/>
     </row>
-    <row r="68" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>58</v>
       </c>
@@ -3585,7 +3749,7 @@
       <c r="AD68" s="13"/>
       <c r="AE68" s="13"/>
     </row>
-    <row r="69" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>59</v>
       </c>
@@ -3596,7 +3760,7 @@
       <c r="AD69" s="13"/>
       <c r="AE69" s="13"/>
     </row>
-    <row r="70" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>60</v>
       </c>
@@ -3607,7 +3771,7 @@
       <c r="AD70" s="13"/>
       <c r="AE70" s="13"/>
     </row>
-    <row r="71" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>120</v>
       </c>
@@ -3618,7 +3782,7 @@
       <c r="AD71" s="13"/>
       <c r="AE71" s="13"/>
     </row>
-    <row r="72" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>61</v>
       </c>
@@ -3629,7 +3793,7 @@
       <c r="AD72" s="13"/>
       <c r="AE72" s="13"/>
     </row>
-    <row r="73" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>62</v>
       </c>
@@ -3640,7 +3804,7 @@
       <c r="AD73" s="13"/>
       <c r="AE73" s="13"/>
     </row>
-    <row r="74" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>63</v>
       </c>
@@ -3651,7 +3815,7 @@
       <c r="AD74" s="13"/>
       <c r="AE74" s="13"/>
     </row>
-    <row r="75" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>64</v>
       </c>
@@ -3662,7 +3826,7 @@
       <c r="AD75" s="13"/>
       <c r="AE75" s="13"/>
     </row>
-    <row r="76" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>65</v>
       </c>
@@ -3673,7 +3837,7 @@
       <c r="AD76" s="13"/>
       <c r="AE76" s="13"/>
     </row>
-    <row r="77" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>66</v>
       </c>
@@ -3684,7 +3848,7 @@
       <c r="AD77" s="13"/>
       <c r="AE77" s="13"/>
     </row>
-    <row r="78" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>67</v>
       </c>
@@ -3695,7 +3859,7 @@
       <c r="AD78" s="13"/>
       <c r="AE78" s="13"/>
     </row>
-    <row r="79" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>68</v>
       </c>
@@ -3706,7 +3870,7 @@
       <c r="AD79" s="13"/>
       <c r="AE79" s="13"/>
     </row>
-    <row r="80" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>69</v>
       </c>
@@ -3717,7 +3881,7 @@
       <c r="AD80" s="13"/>
       <c r="AE80" s="13"/>
     </row>
-    <row r="81" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>70</v>
       </c>
@@ -3728,7 +3892,7 @@
       <c r="AD81" s="13"/>
       <c r="AE81" s="13"/>
     </row>
-    <row r="82" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>71</v>
       </c>
@@ -3739,7 +3903,7 @@
       <c r="AD82" s="13"/>
       <c r="AE82" s="13"/>
     </row>
-    <row r="83" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>72</v>
       </c>
@@ -3750,7 +3914,7 @@
       <c r="AD83" s="13"/>
       <c r="AE83" s="13"/>
     </row>
-    <row r="84" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>73</v>
       </c>
@@ -3761,7 +3925,7 @@
       <c r="AD84" s="13"/>
       <c r="AE84" s="13"/>
     </row>
-    <row r="85" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>75</v>
       </c>
@@ -3772,7 +3936,7 @@
       <c r="AD85" s="13"/>
       <c r="AE85" s="13"/>
     </row>
-    <row r="86" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>74</v>
       </c>
@@ -3783,7 +3947,7 @@
       <c r="AD86" s="13"/>
       <c r="AE86" s="13"/>
     </row>
-    <row r="87" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>76</v>
       </c>
@@ -3794,7 +3958,7 @@
       <c r="AD87" s="13"/>
       <c r="AE87" s="13"/>
     </row>
-    <row r="88" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>77</v>
       </c>
@@ -3805,7 +3969,7 @@
       <c r="AD88" s="13"/>
       <c r="AE88" s="13"/>
     </row>
-    <row r="89" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>78</v>
       </c>
@@ -3816,7 +3980,7 @@
       <c r="AD89" s="13"/>
       <c r="AE89" s="13"/>
     </row>
-    <row r="90" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>79</v>
       </c>
@@ -3827,7 +3991,7 @@
       <c r="AD90" s="13"/>
       <c r="AE90" s="13"/>
     </row>
-    <row r="91" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>80</v>
       </c>
@@ -3838,7 +4002,7 @@
       <c r="AD91" s="13"/>
       <c r="AE91" s="13"/>
     </row>
-    <row r="92" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>81</v>
       </c>
@@ -3849,7 +4013,7 @@
       <c r="AD92" s="13"/>
       <c r="AE92" s="13"/>
     </row>
-    <row r="93" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>82</v>
       </c>
@@ -3860,7 +4024,7 @@
       <c r="AD93" s="13"/>
       <c r="AE93" s="13"/>
     </row>
-    <row r="94" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>83</v>
       </c>
@@ -3871,7 +4035,7 @@
       <c r="AD94" s="13"/>
       <c r="AE94" s="13"/>
     </row>
-    <row r="95" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>84</v>
       </c>
@@ -3882,7 +4046,7 @@
       <c r="AD95" s="13"/>
       <c r="AE95" s="13"/>
     </row>
-    <row r="96" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>85</v>
       </c>
@@ -3893,7 +4057,7 @@
       <c r="AD96" s="13"/>
       <c r="AE96" s="13"/>
     </row>
-    <row r="97" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>86</v>
       </c>
@@ -3904,7 +4068,7 @@
       <c r="AD97" s="13"/>
       <c r="AE97" s="13"/>
     </row>
-    <row r="98" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>87</v>
       </c>
@@ -3915,7 +4079,7 @@
       <c r="AD98" s="13"/>
       <c r="AE98" s="13"/>
     </row>
-    <row r="99" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>88</v>
       </c>
@@ -3926,14 +4090,14 @@
       <c r="AD99" s="13"/>
       <c r="AE99" s="13"/>
     </row>
-    <row r="100" spans="1:31" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:31" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="15"/>
       <c r="AC100" s="13"/>
       <c r="AD100" s="13"/>
       <c r="AE100" s="13"/>
     </row>
-    <row r="101" spans="1:31" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:31" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>1</v>
       </c>
@@ -3942,14 +4106,14 @@
       <c r="AD101" s="13"/>
       <c r="AE101" s="13"/>
     </row>
-    <row r="102" spans="1:31" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:31" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="15"/>
       <c r="AC102" s="13"/>
       <c r="AD102" s="13"/>
       <c r="AE102" s="13"/>
     </row>
-    <row r="103" spans="1:31" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:31" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>431</v>
       </c>
@@ -3958,7 +4122,7 @@
       <c r="AD103" s="13"/>
       <c r="AE103" s="13"/>
     </row>
-    <row r="104" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>432</v>
       </c>
@@ -3969,7 +4133,7 @@
       <c r="AD104" s="13"/>
       <c r="AE104" s="13"/>
     </row>
-    <row r="105" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>113</v>
       </c>
@@ -3980,7 +4144,7 @@
       <c r="AD105" s="13"/>
       <c r="AE105" s="13"/>
     </row>
-    <row r="106" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>430</v>
       </c>
@@ -3991,14 +4155,14 @@
       <c r="AD106" s="13"/>
       <c r="AE106" s="13"/>
     </row>
-    <row r="107" spans="1:31" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:31" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="15"/>
       <c r="AC107" s="13"/>
       <c r="AD107" s="13"/>
       <c r="AE107" s="13"/>
     </row>
-    <row r="108" spans="1:31" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:31" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="25" t="s">
         <v>152</v>
       </c>
@@ -4007,7 +4171,7 @@
       <c r="AD108" s="13"/>
       <c r="AE108" s="13"/>
     </row>
-    <row r="109" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
         <v>123</v>
       </c>
@@ -4019,7 +4183,7 @@
       <c r="AD109" s="13"/>
       <c r="AE109" s="13"/>
     </row>
-    <row r="110" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
         <v>124</v>
       </c>
@@ -4031,7 +4195,7 @@
       <c r="AD110" s="13"/>
       <c r="AE110" s="13"/>
     </row>
-    <row r="111" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
         <v>125</v>
       </c>
@@ -4043,7 +4207,7 @@
       <c r="AD111" s="13"/>
       <c r="AE111" s="13"/>
     </row>
-    <row r="112" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
         <v>126</v>
       </c>
@@ -4055,7 +4219,7 @@
       <c r="AD112" s="13"/>
       <c r="AE112" s="13"/>
     </row>
-    <row r="113" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
         <v>127</v>
       </c>
@@ -4067,7 +4231,7 @@
       <c r="AD113" s="13"/>
       <c r="AE113" s="13"/>
     </row>
-    <row r="114" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
         <v>128</v>
       </c>
@@ -4079,7 +4243,7 @@
       <c r="AD114" s="13"/>
       <c r="AE114" s="13"/>
     </row>
-    <row r="115" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
         <v>129</v>
       </c>
@@ -4091,7 +4255,7 @@
       <c r="AD115" s="13"/>
       <c r="AE115" s="13"/>
     </row>
-    <row r="116" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
         <v>89</v>
       </c>
@@ -4103,7 +4267,7 @@
       <c r="AD116" s="13"/>
       <c r="AE116" s="13"/>
     </row>
-    <row r="117" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
         <v>90</v>
       </c>
@@ -4115,7 +4279,7 @@
       <c r="AD117" s="13"/>
       <c r="AE117" s="13"/>
     </row>
-    <row r="118" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
         <v>91</v>
       </c>
@@ -4127,7 +4291,7 @@
       <c r="AD118" s="13"/>
       <c r="AE118" s="13"/>
     </row>
-    <row r="119" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
         <v>92</v>
       </c>
@@ -4139,7 +4303,7 @@
       <c r="AD119" s="13"/>
       <c r="AE119" s="13"/>
     </row>
-    <row r="120" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
         <v>93</v>
       </c>
@@ -4151,7 +4315,7 @@
       <c r="AD120" s="13"/>
       <c r="AE120" s="13"/>
     </row>
-    <row r="121" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
         <v>94</v>
       </c>
@@ -4163,7 +4327,7 @@
       <c r="AD121" s="13"/>
       <c r="AE121" s="13"/>
     </row>
-    <row r="122" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
         <v>95</v>
       </c>
@@ -4175,7 +4339,7 @@
       <c r="AD122" s="13"/>
       <c r="AE122" s="13"/>
     </row>
-    <row r="123" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
         <v>96</v>
       </c>
@@ -4187,7 +4351,7 @@
       <c r="AD123" s="13"/>
       <c r="AE123" s="13"/>
     </row>
-    <row r="124" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
         <v>97</v>
       </c>
@@ -4199,7 +4363,7 @@
       <c r="AD124" s="13"/>
       <c r="AE124" s="13"/>
     </row>
-    <row r="125" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
         <v>121</v>
       </c>
@@ -4211,7 +4375,7 @@
       <c r="AD125" s="13"/>
       <c r="AE125" s="13"/>
     </row>
-    <row r="126" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
         <v>98</v>
       </c>
@@ -4223,7 +4387,7 @@
       <c r="AD126" s="13"/>
       <c r="AE126" s="13"/>
     </row>
-    <row r="127" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
         <v>99</v>
       </c>
@@ -4235,7 +4399,7 @@
       <c r="AD127" s="13"/>
       <c r="AE127" s="13"/>
     </row>
-    <row r="128" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
         <v>130</v>
       </c>
@@ -4247,7 +4411,7 @@
       <c r="AD128" s="13"/>
       <c r="AE128" s="13"/>
     </row>
-    <row r="129" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
         <v>433</v>
       </c>
@@ -4259,7 +4423,7 @@
       <c r="AD129" s="13"/>
       <c r="AE129" s="13"/>
     </row>
-    <row r="130" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="61" t="s">
         <v>358</v>
       </c>
@@ -4269,14 +4433,14 @@
       <c r="AD130" s="13"/>
       <c r="AE130" s="13"/>
     </row>
-    <row r="131" spans="1:31" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:31" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6"/>
       <c r="B131" s="15"/>
       <c r="AC131" s="13"/>
       <c r="AD131" s="13"/>
       <c r="AE131" s="13"/>
     </row>
-    <row r="132" spans="1:31" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:31" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>153</v>
       </c>
@@ -4285,7 +4449,7 @@
       <c r="AD132" s="13"/>
       <c r="AE132" s="13"/>
     </row>
-    <row r="133" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="26" t="s">
         <v>154</v>
       </c>
@@ -4294,7 +4458,7 @@
       <c r="AD133" s="13"/>
       <c r="AE133" s="13"/>
     </row>
-    <row r="134" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="28" t="s">
         <v>161</v>
       </c>
@@ -4303,7 +4467,7 @@
       <c r="AD134" s="13"/>
       <c r="AE134" s="13"/>
     </row>
-    <row r="135" spans="1:31" s="16" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:31" s="16" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
         <v>162</v>
       </c>
@@ -4314,7 +4478,7 @@
       <c r="AD135" s="13"/>
       <c r="AE135" s="13"/>
     </row>
-    <row r="136" spans="1:31" s="16" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:31" s="16" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
         <v>163</v>
       </c>
@@ -4325,7 +4489,7 @@
       <c r="AD136" s="13"/>
       <c r="AE136" s="13"/>
     </row>
-    <row r="137" spans="1:31" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
         <v>164</v>
       </c>
@@ -4336,7 +4500,7 @@
       <c r="AD137" s="13"/>
       <c r="AE137" s="13"/>
     </row>
-    <row r="138" spans="1:31" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:31" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
         <v>165</v>
       </c>
@@ -4347,7 +4511,7 @@
       <c r="AD138" s="13"/>
       <c r="AE138" s="13"/>
     </row>
-    <row r="139" spans="1:31" s="16" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:31" s="16" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
         <v>166</v>
       </c>
@@ -4358,7 +4522,7 @@
       <c r="AD139" s="13"/>
       <c r="AE139" s="13"/>
     </row>
-    <row r="140" spans="1:31" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:31" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
         <v>167</v>
       </c>
@@ -4369,7 +4533,7 @@
       <c r="AD140" s="13"/>
       <c r="AE140" s="13"/>
     </row>
-    <row r="141" spans="1:31" s="16" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:31" s="16" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
         <v>168</v>
       </c>
@@ -4380,7 +4544,7 @@
       <c r="AD141" s="13"/>
       <c r="AE141" s="13"/>
     </row>
-    <row r="142" spans="1:31" s="16" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:31" s="16" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
         <v>169</v>
       </c>
@@ -4391,7 +4555,7 @@
       <c r="AD142" s="13"/>
       <c r="AE142" s="13"/>
     </row>
-    <row r="143" spans="1:31" s="16" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:31" s="16" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
         <v>170</v>
       </c>
@@ -4402,7 +4566,7 @@
       <c r="AD143" s="13"/>
       <c r="AE143" s="13"/>
     </row>
-    <row r="144" spans="1:31" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:31" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
         <v>171</v>
       </c>
@@ -4413,7 +4577,7 @@
       <c r="AD144" s="13"/>
       <c r="AE144" s="13"/>
     </row>
-    <row r="145" spans="1:31" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:31" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
         <v>172</v>
       </c>
@@ -4424,7 +4588,7 @@
       <c r="AD145" s="13"/>
       <c r="AE145" s="13"/>
     </row>
-    <row r="146" spans="1:31" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:31" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
         <v>173</v>
       </c>
@@ -4435,7 +4599,7 @@
       <c r="AD146" s="13"/>
       <c r="AE146" s="13"/>
     </row>
-    <row r="147" spans="1:31" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:31" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
         <v>174</v>
       </c>
@@ -4446,7 +4610,7 @@
       <c r="AD147" s="13"/>
       <c r="AE147" s="13"/>
     </row>
-    <row r="148" spans="1:31" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:31" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="28" t="s">
         <v>175</v>
       </c>
@@ -4455,7 +4619,7 @@
       <c r="AD148" s="13"/>
       <c r="AE148" s="13"/>
     </row>
-    <row r="149" spans="1:31" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:31" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="27" t="s">
         <v>195</v>
       </c>
@@ -4492,7 +4656,7 @@
       <c r="AD149" s="13"/>
       <c r="AE149" s="13"/>
     </row>
-    <row r="150" spans="1:31" s="16" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:31" s="16" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
         <v>176</v>
       </c>
@@ -4532,7 +4696,7 @@
       <c r="AD150" s="13"/>
       <c r="AE150" s="13"/>
     </row>
-    <row r="151" spans="1:31" s="16" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:31" s="16" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
         <v>177</v>
       </c>
@@ -4572,7 +4736,7 @@
       <c r="AD151" s="13"/>
       <c r="AE151" s="13"/>
     </row>
-    <row r="152" spans="1:31" s="16" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:31" s="16" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
         <v>178</v>
       </c>
@@ -4612,7 +4776,7 @@
       <c r="AD152" s="13"/>
       <c r="AE152" s="13"/>
     </row>
-    <row r="153" spans="1:31" s="16" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:31" s="16" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
         <v>179</v>
       </c>
@@ -4652,7 +4816,7 @@
       <c r="AD153" s="13"/>
       <c r="AE153" s="13"/>
     </row>
-    <row r="154" spans="1:31" s="16" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:31" s="16" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
         <v>180</v>
       </c>
@@ -4692,7 +4856,7 @@
       <c r="AD154" s="13"/>
       <c r="AE154" s="13"/>
     </row>
-    <row r="155" spans="1:31" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:31" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
         <v>181</v>
       </c>
@@ -4732,7 +4896,7 @@
       <c r="AD155" s="13"/>
       <c r="AE155" s="13"/>
     </row>
-    <row r="156" spans="1:31" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:31" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="6" t="s">
         <v>182</v>
       </c>
@@ -4772,7 +4936,7 @@
       <c r="AD156" s="13"/>
       <c r="AE156" s="13"/>
     </row>
-    <row r="157" spans="1:31" s="16" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:31" s="16" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="6" t="s">
         <v>183</v>
       </c>
@@ -4812,7 +4976,7 @@
       <c r="AD157" s="13"/>
       <c r="AE157" s="13"/>
     </row>
-    <row r="158" spans="1:31" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:31" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="6" t="s">
         <v>184</v>
       </c>
@@ -4852,7 +5016,7 @@
       <c r="AD158" s="13"/>
       <c r="AE158" s="13"/>
     </row>
-    <row r="159" spans="1:31" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:31" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="6" t="s">
         <v>185</v>
       </c>
@@ -4892,7 +5056,7 @@
       <c r="AD159" s="13"/>
       <c r="AE159" s="13"/>
     </row>
-    <row r="160" spans="1:31" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:31" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
         <v>186</v>
       </c>
@@ -4931,7 +5095,7 @@
       <c r="AD160" s="13"/>
       <c r="AE160" s="13"/>
     </row>
-    <row r="161" spans="1:31" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:31" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="6" t="s">
         <v>187</v>
       </c>
@@ -4970,7 +5134,7 @@
       <c r="AD161" s="13"/>
       <c r="AE161" s="13"/>
     </row>
-    <row r="162" spans="1:31" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:31" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
         <v>188</v>
       </c>
@@ -5009,7 +5173,7 @@
       <c r="AD162" s="13"/>
       <c r="AE162" s="13"/>
     </row>
-    <row r="163" spans="1:31" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:31" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
         <v>189</v>
       </c>
@@ -5048,7 +5212,7 @@
       <c r="AD163" s="13"/>
       <c r="AE163" s="13"/>
     </row>
-    <row r="164" spans="1:31" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:31" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="6" t="s">
         <v>190</v>
       </c>
@@ -5087,7 +5251,7 @@
       <c r="AD164" s="13"/>
       <c r="AE164" s="13"/>
     </row>
-    <row r="165" spans="1:31" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:31" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="6" t="s">
         <v>191</v>
       </c>
@@ -5126,7 +5290,7 @@
       <c r="AD165" s="13"/>
       <c r="AE165" s="13"/>
     </row>
-    <row r="166" spans="1:31" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:31" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="6" t="s">
         <v>192</v>
       </c>
@@ -5165,7 +5329,7 @@
       <c r="AD166" s="13"/>
       <c r="AE166" s="13"/>
     </row>
-    <row r="167" spans="1:31" s="16" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:31" s="16" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
         <v>193</v>
       </c>
@@ -5204,7 +5368,7 @@
       <c r="AD167" s="13"/>
       <c r="AE167" s="13"/>
     </row>
-    <row r="168" spans="1:31" s="16" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:31" s="16" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="27" t="s">
         <v>194</v>
       </c>
@@ -5237,7 +5401,7 @@
       <c r="AD168" s="13"/>
       <c r="AE168" s="13"/>
     </row>
-    <row r="169" spans="1:31" s="16" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:31" s="16" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="6" t="s">
         <v>196</v>
       </c>
@@ -5276,7 +5440,7 @@
       <c r="AD169" s="13"/>
       <c r="AE169" s="13"/>
     </row>
-    <row r="170" spans="1:31" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:31" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
         <v>197</v>
       </c>
@@ -5315,7 +5479,7 @@
       <c r="AD170" s="13"/>
       <c r="AE170" s="13"/>
     </row>
-    <row r="171" spans="1:31" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:31" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="6" t="s">
         <v>198</v>
       </c>
@@ -5354,7 +5518,7 @@
       <c r="AD171" s="13"/>
       <c r="AE171" s="13"/>
     </row>
-    <row r="172" spans="1:31" s="16" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:31" s="16" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="6" t="s">
         <v>199</v>
       </c>
@@ -5393,7 +5557,7 @@
       <c r="AD172" s="13"/>
       <c r="AE172" s="13"/>
     </row>
-    <row r="173" spans="1:31" s="16" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:31" s="16" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
         <v>200</v>
       </c>
@@ -5432,7 +5596,7 @@
       <c r="AD173" s="13"/>
       <c r="AE173" s="13"/>
     </row>
-    <row r="174" spans="1:31" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:31" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="6" t="s">
         <v>201</v>
       </c>
@@ -5471,7 +5635,7 @@
       <c r="AD174" s="13"/>
       <c r="AE174" s="13"/>
     </row>
-    <row r="175" spans="1:31" s="16" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:31" s="16" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="6" t="s">
         <v>202</v>
       </c>
@@ -5510,7 +5674,7 @@
       <c r="AD175" s="13"/>
       <c r="AE175" s="13"/>
     </row>
-    <row r="176" spans="1:31" s="16" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:31" s="16" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="6" t="s">
         <v>203</v>
       </c>
@@ -5549,7 +5713,7 @@
       <c r="AD176" s="13"/>
       <c r="AE176" s="13"/>
     </row>
-    <row r="177" spans="1:31" s="16" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:31" s="16" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
         <v>204</v>
       </c>
@@ -5588,7 +5752,7 @@
       <c r="AD177" s="13"/>
       <c r="AE177" s="13"/>
     </row>
-    <row r="178" spans="1:31" s="16" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:31" s="16" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="28" t="s">
         <v>205</v>
       </c>
@@ -5597,7 +5761,7 @@
       <c r="AD178" s="13"/>
       <c r="AE178" s="13"/>
     </row>
-    <row r="179" spans="1:31" s="16" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:31" s="16" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="6" t="s">
         <v>206</v>
       </c>
@@ -5608,7 +5772,7 @@
       <c r="AD179" s="13"/>
       <c r="AE179" s="13"/>
     </row>
-    <row r="180" spans="1:31" s="16" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:31" s="16" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="6" t="s">
         <v>207</v>
       </c>
@@ -5619,14 +5783,14 @@
       <c r="AD180" s="13"/>
       <c r="AE180" s="13"/>
     </row>
-    <row r="181" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="6"/>
       <c r="B181" s="15"/>
       <c r="AC181" s="13"/>
       <c r="AD181" s="13"/>
       <c r="AE181" s="13"/>
     </row>
-    <row r="182" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="26" t="s">
         <v>155</v>
       </c>
@@ -5635,7 +5799,7 @@
       <c r="AD182" s="13"/>
       <c r="AE182" s="13"/>
     </row>
-    <row r="183" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="28" t="s">
         <v>161</v>
       </c>
@@ -5644,7 +5808,7 @@
       <c r="AD183" s="13"/>
       <c r="AE183" s="13"/>
     </row>
-    <row r="184" spans="1:31" s="16" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:31" s="16" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="6" t="s">
         <v>208</v>
       </c>
@@ -5655,7 +5819,7 @@
       <c r="AD184" s="13"/>
       <c r="AE184" s="13"/>
     </row>
-    <row r="185" spans="1:31" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:31" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="6" t="s">
         <v>209</v>
       </c>
@@ -5666,7 +5830,7 @@
       <c r="AD185" s="13"/>
       <c r="AE185" s="13"/>
     </row>
-    <row r="186" spans="1:31" s="16" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:31" s="16" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="6" t="s">
         <v>210</v>
       </c>
@@ -5677,7 +5841,7 @@
       <c r="AD186" s="13"/>
       <c r="AE186" s="13"/>
     </row>
-    <row r="187" spans="1:31" s="16" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:31" s="16" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="6" t="s">
         <v>211</v>
       </c>
@@ -5688,7 +5852,7 @@
       <c r="AD187" s="13"/>
       <c r="AE187" s="13"/>
     </row>
-    <row r="188" spans="1:31" s="16" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:31" s="16" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="6" t="s">
         <v>212</v>
       </c>
@@ -5699,7 +5863,7 @@
       <c r="AD188" s="13"/>
       <c r="AE188" s="13"/>
     </row>
-    <row r="189" spans="1:31" s="16" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:31" s="16" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="6" t="s">
         <v>213</v>
       </c>
@@ -5710,7 +5874,7 @@
       <c r="AD189" s="13"/>
       <c r="AE189" s="13"/>
     </row>
-    <row r="190" spans="1:31" s="16" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:31" s="16" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="6" t="s">
         <v>214</v>
       </c>
@@ -5721,7 +5885,7 @@
       <c r="AD190" s="13"/>
       <c r="AE190" s="13"/>
     </row>
-    <row r="191" spans="1:31" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:31" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="6" t="s">
         <v>215</v>
       </c>
@@ -5732,7 +5896,7 @@
       <c r="AD191" s="13"/>
       <c r="AE191" s="13"/>
     </row>
-    <row r="192" spans="1:31" s="16" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:31" s="16" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="6" t="s">
         <v>216</v>
       </c>
@@ -5743,7 +5907,7 @@
       <c r="AD192" s="13"/>
       <c r="AE192" s="13"/>
     </row>
-    <row r="193" spans="1:31" s="16" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:31" s="16" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="6" t="s">
         <v>217</v>
       </c>
@@ -5754,7 +5918,7 @@
       <c r="AD193" s="13"/>
       <c r="AE193" s="13"/>
     </row>
-    <row r="194" spans="1:31" s="16" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:31" s="16" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="6" t="s">
         <v>218</v>
       </c>
@@ -5765,7 +5929,7 @@
       <c r="AD194" s="13"/>
       <c r="AE194" s="13"/>
     </row>
-    <row r="195" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="28" t="s">
         <v>175</v>
       </c>
@@ -5774,7 +5938,7 @@
       <c r="AD195" s="13"/>
       <c r="AE195" s="13"/>
     </row>
-    <row r="196" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="28" t="s">
         <v>219</v>
       </c>
@@ -5803,7 +5967,7 @@
       <c r="AD196" s="13"/>
       <c r="AE196" s="13"/>
     </row>
-    <row r="197" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A197" s="6" t="s">
         <v>221</v>
       </c>
@@ -5838,7 +6002,7 @@
       <c r="AD197" s="13"/>
       <c r="AE197" s="13"/>
     </row>
-    <row r="198" spans="1:31" s="16" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:31" s="16" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="6" t="s">
         <v>222</v>
       </c>
@@ -5873,7 +6037,7 @@
       <c r="AD198" s="13"/>
       <c r="AE198" s="13"/>
     </row>
-    <row r="199" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="s">
         <v>223</v>
       </c>
@@ -5908,7 +6072,7 @@
       <c r="AD199" s="13"/>
       <c r="AE199" s="13"/>
     </row>
-    <row r="200" spans="1:31" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:31" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A200" s="6" t="s">
         <v>220</v>
       </c>
@@ -5943,7 +6107,7 @@
       <c r="AD200" s="13"/>
       <c r="AE200" s="13"/>
     </row>
-    <row r="201" spans="1:31" s="16" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:31" s="16" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="6" t="s">
         <v>224</v>
       </c>
@@ -5978,7 +6142,7 @@
       <c r="AD201" s="13"/>
       <c r="AE201" s="13"/>
     </row>
-    <row r="202" spans="1:31" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A202" s="6" t="s">
         <v>225</v>
       </c>
@@ -6013,7 +6177,7 @@
       <c r="AD202" s="13"/>
       <c r="AE202" s="13"/>
     </row>
-    <row r="203" spans="1:31" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A203" s="6" t="s">
         <v>226</v>
       </c>
@@ -6048,7 +6212,7 @@
       <c r="AD203" s="13"/>
       <c r="AE203" s="13"/>
     </row>
-    <row r="204" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A204" s="6" t="s">
         <v>227</v>
       </c>
@@ -6083,7 +6247,7 @@
       <c r="AD204" s="13"/>
       <c r="AE204" s="13"/>
     </row>
-    <row r="205" spans="1:31" s="16" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:31" s="16" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="6" t="s">
         <v>228</v>
       </c>
@@ -6118,7 +6282,7 @@
       <c r="AD205" s="13"/>
       <c r="AE205" s="13"/>
     </row>
-    <row r="206" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A206" s="6" t="s">
         <v>229</v>
       </c>
@@ -6153,7 +6317,7 @@
       <c r="AD206" s="13"/>
       <c r="AE206" s="13"/>
     </row>
-    <row r="207" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A207" s="6" t="s">
         <v>230</v>
       </c>
@@ -6188,7 +6352,7 @@
       <c r="AD207" s="13"/>
       <c r="AE207" s="13"/>
     </row>
-    <row r="208" spans="1:31" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A208" s="6" t="s">
         <v>231</v>
       </c>
@@ -6223,7 +6387,7 @@
       <c r="AD208" s="13"/>
       <c r="AE208" s="13"/>
     </row>
-    <row r="209" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A209" s="6" t="s">
         <v>232</v>
       </c>
@@ -6258,7 +6422,7 @@
       <c r="AD209" s="13"/>
       <c r="AE209" s="13"/>
     </row>
-    <row r="210" spans="1:31" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A210" s="6" t="s">
         <v>233</v>
       </c>
@@ -6293,7 +6457,7 @@
       <c r="AD210" s="13"/>
       <c r="AE210" s="13"/>
     </row>
-    <row r="211" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A211" s="6" t="s">
         <v>234</v>
       </c>
@@ -6328,7 +6492,7 @@
       <c r="AD211" s="13"/>
       <c r="AE211" s="13"/>
     </row>
-    <row r="212" spans="1:31" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A212" s="6" t="s">
         <v>235</v>
       </c>
@@ -6363,7 +6527,7 @@
       <c r="AD212" s="13"/>
       <c r="AE212" s="13"/>
     </row>
-    <row r="213" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A213" s="6" t="s">
         <v>236</v>
       </c>
@@ -6398,7 +6562,7 @@
       <c r="AD213" s="13"/>
       <c r="AE213" s="13"/>
     </row>
-    <row r="214" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A214" s="6" t="s">
         <v>237</v>
       </c>
@@ -6433,7 +6597,7 @@
       <c r="AD214" s="13"/>
       <c r="AE214" s="13"/>
     </row>
-    <row r="215" spans="1:31" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:31" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A215" s="28" t="s">
         <v>247</v>
       </c>
@@ -6462,7 +6626,7 @@
       <c r="AD215" s="13"/>
       <c r="AE215" s="13"/>
     </row>
-    <row r="216" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A216" s="6" t="s">
         <v>238</v>
       </c>
@@ -6497,7 +6661,7 @@
       <c r="AD216" s="13"/>
       <c r="AE216" s="13"/>
     </row>
-    <row r="217" spans="1:31" s="16" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:31" s="16" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="6" t="s">
         <v>239</v>
       </c>
@@ -6532,7 +6696,7 @@
       <c r="AD217" s="13"/>
       <c r="AE217" s="13"/>
     </row>
-    <row r="218" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A218" s="6" t="s">
         <v>240</v>
       </c>
@@ -6567,7 +6731,7 @@
       <c r="AD218" s="13"/>
       <c r="AE218" s="13"/>
     </row>
-    <row r="219" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A219" s="6" t="s">
         <v>241</v>
       </c>
@@ -6602,7 +6766,7 @@
       <c r="AD219" s="13"/>
       <c r="AE219" s="13"/>
     </row>
-    <row r="220" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A220" s="6" t="s">
         <v>242</v>
       </c>
@@ -6637,7 +6801,7 @@
       <c r="AD220" s="13"/>
       <c r="AE220" s="13"/>
     </row>
-    <row r="221" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A221" s="6" t="s">
         <v>243</v>
       </c>
@@ -6672,7 +6836,7 @@
       <c r="AD221" s="13"/>
       <c r="AE221" s="13"/>
     </row>
-    <row r="222" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A222" s="6" t="s">
         <v>244</v>
       </c>
@@ -6707,7 +6871,7 @@
       <c r="AD222" s="13"/>
       <c r="AE222" s="13"/>
     </row>
-    <row r="223" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A223" s="6" t="s">
         <v>245</v>
       </c>
@@ -6742,7 +6906,7 @@
       <c r="AD223" s="13"/>
       <c r="AE223" s="13"/>
     </row>
-    <row r="224" spans="1:31" s="16" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:31" s="16" customFormat="1" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
         <v>246</v>
       </c>
@@ -6777,7 +6941,7 @@
       <c r="AD224" s="13"/>
       <c r="AE224" s="13"/>
     </row>
-    <row r="225" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A225" s="28" t="s">
         <v>248</v>
       </c>
@@ -6786,7 +6950,7 @@
       <c r="AD225" s="13"/>
       <c r="AE225" s="13"/>
     </row>
-    <row r="226" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A226" s="6" t="s">
         <v>249</v>
       </c>
@@ -6797,7 +6961,7 @@
       <c r="AD226" s="13"/>
       <c r="AE226" s="13"/>
     </row>
-    <row r="227" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="6" t="s">
         <v>250</v>
       </c>
@@ -6808,14 +6972,14 @@
       <c r="AD227" s="13"/>
       <c r="AE227" s="13"/>
     </row>
-    <row r="228" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A228" s="6"/>
       <c r="B228" s="15"/>
       <c r="AC228" s="13"/>
       <c r="AD228" s="13"/>
       <c r="AE228" s="13"/>
     </row>
-    <row r="229" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A229" s="26" t="s">
         <v>156</v>
       </c>
@@ -6824,7 +6988,7 @@
       <c r="AD229" s="13"/>
       <c r="AE229" s="13"/>
     </row>
-    <row r="230" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A230" s="28" t="s">
         <v>161</v>
       </c>
@@ -6833,7 +6997,7 @@
       <c r="AD230" s="13"/>
       <c r="AE230" s="13"/>
     </row>
-    <row r="231" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A231" s="6" t="s">
         <v>251</v>
       </c>
@@ -6844,7 +7008,7 @@
       <c r="AD231" s="13"/>
       <c r="AE231" s="13"/>
     </row>
-    <row r="232" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A232" s="6" t="s">
         <v>252</v>
       </c>
@@ -6855,7 +7019,7 @@
       <c r="AD232" s="13"/>
       <c r="AE232" s="13"/>
     </row>
-    <row r="233" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A233" s="6" t="s">
         <v>253</v>
       </c>
@@ -6866,7 +7030,7 @@
       <c r="AD233" s="13"/>
       <c r="AE233" s="13"/>
     </row>
-    <row r="234" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A234" s="28" t="s">
         <v>254</v>
       </c>
@@ -6911,7 +7075,7 @@
       <c r="AD234" s="13"/>
       <c r="AE234" s="13"/>
     </row>
-    <row r="235" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A235" s="6" t="s">
         <v>256</v>
       </c>
@@ -6965,7 +7129,7 @@
       <c r="AD235" s="13"/>
       <c r="AE235" s="13"/>
     </row>
-    <row r="236" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A236" s="6" t="s">
         <v>257</v>
       </c>
@@ -7019,7 +7183,7 @@
       <c r="AD236" s="13"/>
       <c r="AE236" s="13"/>
     </row>
-    <row r="237" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A237" s="6" t="s">
         <v>258</v>
       </c>
@@ -7073,7 +7237,7 @@
       <c r="AD237" s="13"/>
       <c r="AE237" s="13"/>
     </row>
-    <row r="238" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A238" s="6" t="s">
         <v>259</v>
       </c>
@@ -7127,7 +7291,7 @@
       <c r="AD238" s="13"/>
       <c r="AE238" s="13"/>
     </row>
-    <row r="239" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A239" s="6" t="s">
         <v>260</v>
       </c>
@@ -7181,7 +7345,7 @@
       <c r="AD239" s="13"/>
       <c r="AE239" s="13"/>
     </row>
-    <row r="240" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A240" s="6" t="s">
         <v>261</v>
       </c>
@@ -7235,7 +7399,7 @@
       <c r="AD240" s="13"/>
       <c r="AE240" s="13"/>
     </row>
-    <row r="241" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A241" s="6" t="s">
         <v>262</v>
       </c>
@@ -7289,7 +7453,7 @@
       <c r="AD241" s="13"/>
       <c r="AE241" s="13"/>
     </row>
-    <row r="242" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A242" s="6" t="s">
         <v>263</v>
       </c>
@@ -7343,7 +7507,7 @@
       <c r="AD242" s="13"/>
       <c r="AE242" s="13"/>
     </row>
-    <row r="243" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A243" s="6" t="s">
         <v>264</v>
       </c>
@@ -7397,7 +7561,7 @@
       <c r="AD243" s="13"/>
       <c r="AE243" s="13"/>
     </row>
-    <row r="244" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A244" s="6" t="s">
         <v>265</v>
       </c>
@@ -7451,7 +7615,7 @@
       <c r="AD244" s="13"/>
       <c r="AE244" s="13"/>
     </row>
-    <row r="245" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A245" s="6" t="s">
         <v>266</v>
       </c>
@@ -7505,7 +7669,7 @@
       <c r="AD245" s="13"/>
       <c r="AE245" s="13"/>
     </row>
-    <row r="246" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A246" s="6" t="s">
         <v>267</v>
       </c>
@@ -7559,7 +7723,7 @@
       <c r="AD246" s="13"/>
       <c r="AE246" s="13"/>
     </row>
-    <row r="247" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A247" s="6" t="s">
         <v>268</v>
       </c>
@@ -7613,7 +7777,7 @@
       <c r="AD247" s="13"/>
       <c r="AE247" s="13"/>
     </row>
-    <row r="248" spans="1:31" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:31" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="6" t="s">
         <v>269</v>
       </c>
@@ -7667,7 +7831,7 @@
       <c r="AD248" s="13"/>
       <c r="AE248" s="13"/>
     </row>
-    <row r="249" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A249" s="6" t="s">
         <v>270</v>
       </c>
@@ -7721,7 +7885,7 @@
       <c r="AD249" s="13"/>
       <c r="AE249" s="13"/>
     </row>
-    <row r="250" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A250" s="6" t="s">
         <v>271</v>
       </c>
@@ -7775,7 +7939,7 @@
       <c r="AD250" s="13"/>
       <c r="AE250" s="13"/>
     </row>
-    <row r="251" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A251" s="6" t="s">
         <v>272</v>
       </c>
@@ -7829,7 +7993,7 @@
       <c r="AD251" s="13"/>
       <c r="AE251" s="13"/>
     </row>
-    <row r="252" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A252" s="6" t="s">
         <v>273</v>
       </c>
@@ -7883,7 +8047,7 @@
       <c r="AD252" s="13"/>
       <c r="AE252" s="13"/>
     </row>
-    <row r="253" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A253" s="6" t="s">
         <v>274</v>
       </c>
@@ -7937,7 +8101,7 @@
       <c r="AD253" s="13"/>
       <c r="AE253" s="13"/>
     </row>
-    <row r="254" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A254" s="6" t="s">
         <v>275</v>
       </c>
@@ -7994,7 +8158,7 @@
       <c r="AD254" s="13"/>
       <c r="AE254" s="13"/>
     </row>
-    <row r="255" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A255" s="6" t="s">
         <v>276</v>
       </c>
@@ -8048,7 +8212,7 @@
       <c r="AD255" s="13"/>
       <c r="AE255" s="13"/>
     </row>
-    <row r="256" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A256" s="6" t="s">
         <v>277</v>
       </c>
@@ -8102,7 +8266,7 @@
       <c r="AD256" s="13"/>
       <c r="AE256" s="13"/>
     </row>
-    <row r="257" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A257" s="28" t="s">
         <v>255</v>
       </c>
@@ -8150,7 +8314,7 @@
       <c r="AD257" s="13"/>
       <c r="AE257" s="13"/>
     </row>
-    <row r="258" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A258" s="6" t="s">
         <v>256</v>
       </c>
@@ -8205,7 +8369,7 @@
       <c r="AD258" s="13"/>
       <c r="AE258" s="13"/>
     </row>
-    <row r="259" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A259" s="6" t="s">
         <v>278</v>
       </c>
@@ -8260,7 +8424,7 @@
       <c r="AD259" s="13"/>
       <c r="AE259" s="13"/>
     </row>
-    <row r="260" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A260" s="6" t="s">
         <v>258</v>
       </c>
@@ -8315,7 +8479,7 @@
       <c r="AD260" s="13"/>
       <c r="AE260" s="13"/>
     </row>
-    <row r="261" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A261" s="6" t="s">
         <v>259</v>
       </c>
@@ -8370,7 +8534,7 @@
       <c r="AD261" s="13"/>
       <c r="AE261" s="13"/>
     </row>
-    <row r="262" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A262" s="6" t="s">
         <v>260</v>
       </c>
@@ -8425,7 +8589,7 @@
       <c r="AD262" s="13"/>
       <c r="AE262" s="13"/>
     </row>
-    <row r="263" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A263" s="6" t="s">
         <v>261</v>
       </c>
@@ -8480,7 +8644,7 @@
       <c r="AD263" s="13"/>
       <c r="AE263" s="13"/>
     </row>
-    <row r="264" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A264" s="6" t="s">
         <v>262</v>
       </c>
@@ -8535,7 +8699,7 @@
       <c r="AD264" s="13"/>
       <c r="AE264" s="13"/>
     </row>
-    <row r="265" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A265" s="6" t="s">
         <v>263</v>
       </c>
@@ -8590,7 +8754,7 @@
       <c r="AD265" s="13"/>
       <c r="AE265" s="13"/>
     </row>
-    <row r="266" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A266" s="6" t="s">
         <v>264</v>
       </c>
@@ -8645,7 +8809,7 @@
       <c r="AD266" s="13"/>
       <c r="AE266" s="13"/>
     </row>
-    <row r="267" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A267" s="6" t="s">
         <v>265</v>
       </c>
@@ -8700,7 +8864,7 @@
       <c r="AD267" s="13"/>
       <c r="AE267" s="13"/>
     </row>
-    <row r="268" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A268" s="6" t="s">
         <v>266</v>
       </c>
@@ -8755,7 +8919,7 @@
       <c r="AD268" s="13"/>
       <c r="AE268" s="13"/>
     </row>
-    <row r="269" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A269" s="6" t="s">
         <v>267</v>
       </c>
@@ -8810,7 +8974,7 @@
       <c r="AD269" s="13"/>
       <c r="AE269" s="13"/>
     </row>
-    <row r="270" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A270" s="6" t="s">
         <v>268</v>
       </c>
@@ -8865,7 +9029,7 @@
       <c r="AD270" s="13"/>
       <c r="AE270" s="13"/>
     </row>
-    <row r="271" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A271" s="6" t="s">
         <v>269</v>
       </c>
@@ -8920,7 +9084,7 @@
       <c r="AD271" s="13"/>
       <c r="AE271" s="13"/>
     </row>
-    <row r="272" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A272" s="6" t="s">
         <v>270</v>
       </c>
@@ -8975,7 +9139,7 @@
       <c r="AD272" s="13"/>
       <c r="AE272" s="13"/>
     </row>
-    <row r="273" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A273" s="6" t="s">
         <v>271</v>
       </c>
@@ -9030,7 +9194,7 @@
       <c r="AD273" s="13"/>
       <c r="AE273" s="13"/>
     </row>
-    <row r="274" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A274" s="6" t="s">
         <v>272</v>
       </c>
@@ -9085,7 +9249,7 @@
       <c r="AD274" s="13"/>
       <c r="AE274" s="13"/>
     </row>
-    <row r="275" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A275" s="6" t="s">
         <v>273</v>
       </c>
@@ -9140,7 +9304,7 @@
       <c r="AD275" s="13"/>
       <c r="AE275" s="13"/>
     </row>
-    <row r="276" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A276" s="6" t="s">
         <v>274</v>
       </c>
@@ -9195,7 +9359,7 @@
       <c r="AD276" s="13"/>
       <c r="AE276" s="13"/>
     </row>
-    <row r="277" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A277" s="6" t="s">
         <v>275</v>
       </c>
@@ -9254,7 +9418,7 @@
       <c r="AD277" s="13"/>
       <c r="AE277" s="13"/>
     </row>
-    <row r="278" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A278" s="6" t="s">
         <v>276</v>
       </c>
@@ -9309,7 +9473,7 @@
       <c r="AD278" s="13"/>
       <c r="AE278" s="13"/>
     </row>
-    <row r="279" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A279" s="6" t="s">
         <v>277</v>
       </c>
@@ -9364,7 +9528,7 @@
       <c r="AD279" s="13"/>
       <c r="AE279" s="13"/>
     </row>
-    <row r="280" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" s="28" t="s">
         <v>279</v>
       </c>
@@ -9388,7 +9552,7 @@
       <c r="AD280" s="13"/>
       <c r="AE280" s="13"/>
     </row>
-    <row r="281" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A281" s="6" t="s">
         <v>280</v>
       </c>
@@ -9423,7 +9587,7 @@
       <c r="AD281" s="13"/>
       <c r="AE281" s="13"/>
     </row>
-    <row r="282" spans="1:31" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A282" s="6" t="s">
         <v>281</v>
       </c>
@@ -9458,7 +9622,7 @@
       <c r="AD282" s="13"/>
       <c r="AE282" s="13"/>
     </row>
-    <row r="283" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A283" s="6" t="s">
         <v>282</v>
       </c>
@@ -9493,7 +9657,7 @@
       <c r="AD283" s="13"/>
       <c r="AE283" s="13"/>
     </row>
-    <row r="284" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A284" s="6" t="s">
         <v>283</v>
       </c>
@@ -9528,7 +9692,7 @@
       <c r="AD284" s="13"/>
       <c r="AE284" s="13"/>
     </row>
-    <row r="285" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A285" s="6" t="s">
         <v>284</v>
       </c>
@@ -9563,7 +9727,7 @@
       <c r="AD285" s="13"/>
       <c r="AE285" s="13"/>
     </row>
-    <row r="286" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A286" s="6" t="s">
         <v>285</v>
       </c>
@@ -9598,7 +9762,7 @@
       <c r="AD286" s="13"/>
       <c r="AE286" s="13"/>
     </row>
-    <row r="287" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A287" s="6" t="s">
         <v>286</v>
       </c>
@@ -9633,7 +9797,7 @@
       <c r="AD287" s="13"/>
       <c r="AE287" s="13"/>
     </row>
-    <row r="288" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A288" s="6" t="s">
         <v>287</v>
       </c>
@@ -9668,7 +9832,7 @@
       <c r="AD288" s="13"/>
       <c r="AE288" s="13"/>
     </row>
-    <row r="289" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A289" s="6" t="s">
         <v>288</v>
       </c>
@@ -9703,7 +9867,7 @@
       <c r="AD289" s="13"/>
       <c r="AE289" s="13"/>
     </row>
-    <row r="290" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A290" s="6" t="s">
         <v>290</v>
       </c>
@@ -9738,7 +9902,7 @@
       <c r="AD290" s="13"/>
       <c r="AE290" s="13"/>
     </row>
-    <row r="291" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A291" s="6" t="s">
         <v>289</v>
       </c>
@@ -9773,7 +9937,7 @@
       <c r="AD291" s="13"/>
       <c r="AE291" s="13"/>
     </row>
-    <row r="292" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A292" s="6" t="s">
         <v>291</v>
       </c>
@@ -9808,7 +9972,7 @@
       <c r="AD292" s="13"/>
       <c r="AE292" s="13"/>
     </row>
-    <row r="293" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A293" s="6" t="s">
         <v>292</v>
       </c>
@@ -9843,7 +10007,7 @@
       <c r="AD293" s="13"/>
       <c r="AE293" s="13"/>
     </row>
-    <row r="294" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A294" s="6" t="s">
         <v>293</v>
       </c>
@@ -9878,7 +10042,7 @@
       <c r="AD294" s="13"/>
       <c r="AE294" s="13"/>
     </row>
-    <row r="295" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A295" s="6" t="s">
         <v>294</v>
       </c>
@@ -9913,7 +10077,7 @@
       <c r="AD295" s="13"/>
       <c r="AE295" s="13"/>
     </row>
-    <row r="296" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A296" s="6" t="s">
         <v>295</v>
       </c>
@@ -9948,7 +10112,7 @@
       <c r="AD296" s="13"/>
       <c r="AE296" s="13"/>
     </row>
-    <row r="297" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A297" s="6" t="s">
         <v>296</v>
       </c>
@@ -9983,7 +10147,7 @@
       <c r="AD297" s="13"/>
       <c r="AE297" s="13"/>
     </row>
-    <row r="298" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A298" s="6" t="s">
         <v>297</v>
       </c>
@@ -10018,7 +10182,7 @@
       <c r="AD298" s="13"/>
       <c r="AE298" s="13"/>
     </row>
-    <row r="299" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A299" s="6" t="s">
         <v>298</v>
       </c>
@@ -10053,7 +10217,7 @@
       <c r="AD299" s="13"/>
       <c r="AE299" s="13"/>
     </row>
-    <row r="300" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A300" s="6"/>
       <c r="B300" s="47"/>
       <c r="C300" s="43"/>
@@ -10076,7 +10240,7 @@
       <c r="AD300" s="13"/>
       <c r="AE300" s="13"/>
     </row>
-    <row r="301" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A301" s="26" t="s">
         <v>157</v>
       </c>
@@ -10085,7 +10249,7 @@
       <c r="AD301" s="13"/>
       <c r="AE301" s="13"/>
     </row>
-    <row r="302" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A302" s="28" t="s">
         <v>161</v>
       </c>
@@ -10094,7 +10258,7 @@
       <c r="AD302" s="13"/>
       <c r="AE302" s="13"/>
     </row>
-    <row r="303" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A303" s="6" t="s">
         <v>299</v>
       </c>
@@ -10105,7 +10269,7 @@
       <c r="AD303" s="13"/>
       <c r="AE303" s="13"/>
     </row>
-    <row r="304" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A304" s="6" t="s">
         <v>300</v>
       </c>
@@ -10116,7 +10280,7 @@
       <c r="AD304" s="13"/>
       <c r="AE304" s="13"/>
     </row>
-    <row r="305" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A305" s="6" t="s">
         <v>301</v>
       </c>
@@ -10127,7 +10291,7 @@
       <c r="AD305" s="13"/>
       <c r="AE305" s="13"/>
     </row>
-    <row r="306" spans="1:31" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A306" s="6" t="s">
         <v>302</v>
       </c>
@@ -10138,7 +10302,7 @@
       <c r="AD306" s="13"/>
       <c r="AE306" s="13"/>
     </row>
-    <row r="307" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A307" s="6" t="s">
         <v>303</v>
       </c>
@@ -10149,7 +10313,7 @@
       <c r="AD307" s="13"/>
       <c r="AE307" s="13"/>
     </row>
-    <row r="308" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A308" s="28" t="s">
         <v>175</v>
       </c>
@@ -10158,7 +10322,7 @@
       <c r="AD308" s="13"/>
       <c r="AE308" s="13"/>
     </row>
-    <row r="309" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A309" s="28" t="s">
         <v>304</v>
       </c>
@@ -10198,7 +10362,7 @@
       <c r="AD309" s="13"/>
       <c r="AE309" s="13"/>
     </row>
-    <row r="310" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A310" s="6" t="s">
         <v>305</v>
       </c>
@@ -10231,7 +10395,7 @@
       <c r="AD310" s="13"/>
       <c r="AE310" s="13"/>
     </row>
-    <row r="311" spans="1:31" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A311" s="6" t="s">
         <v>306</v>
       </c>
@@ -10264,7 +10428,7 @@
       <c r="AD311" s="13"/>
       <c r="AE311" s="13"/>
     </row>
-    <row r="312" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A312" s="6" t="s">
         <v>307</v>
       </c>
@@ -10297,7 +10461,7 @@
       <c r="AD312" s="13"/>
       <c r="AE312" s="13"/>
     </row>
-    <row r="313" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A313" s="6" t="s">
         <v>308</v>
       </c>
@@ -10330,7 +10494,7 @@
       <c r="AD313" s="13"/>
       <c r="AE313" s="13"/>
     </row>
-    <row r="314" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A314" s="6" t="s">
         <v>309</v>
       </c>
@@ -10363,7 +10527,7 @@
       <c r="AD314" s="13"/>
       <c r="AE314" s="13"/>
     </row>
-    <row r="315" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A315" s="6" t="s">
         <v>310</v>
       </c>
@@ -10396,7 +10560,7 @@
       <c r="AD315" s="13"/>
       <c r="AE315" s="13"/>
     </row>
-    <row r="316" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A316" s="6" t="s">
         <v>311</v>
       </c>
@@ -10429,7 +10593,7 @@
       <c r="AD316" s="13"/>
       <c r="AE316" s="13"/>
     </row>
-    <row r="317" spans="1:31" s="16" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:31" s="16" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="6" t="s">
         <v>312</v>
       </c>
@@ -10462,7 +10626,7 @@
       <c r="AD317" s="13"/>
       <c r="AE317" s="13"/>
     </row>
-    <row r="318" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A318" s="6" t="s">
         <v>313</v>
       </c>
@@ -10495,7 +10659,7 @@
       <c r="AD318" s="13"/>
       <c r="AE318" s="13"/>
     </row>
-    <row r="319" spans="1:31" s="16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:31" s="16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="6" t="s">
         <v>314</v>
       </c>
@@ -10528,7 +10692,7 @@
       <c r="AD319" s="13"/>
       <c r="AE319" s="13"/>
     </row>
-    <row r="320" spans="1:31" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:31" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A320" s="6" t="s">
         <v>315</v>
       </c>
@@ -10555,7 +10719,7 @@
       <c r="AD320" s="13"/>
       <c r="AE320" s="13"/>
     </row>
-    <row r="321" spans="1:31" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:31" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="6" t="s">
         <v>316</v>
       </c>
@@ -10587,7 +10751,7 @@
       <c r="AD321" s="13"/>
       <c r="AE321" s="13"/>
     </row>
-    <row r="322" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A322" s="6" t="s">
         <v>317</v>
       </c>
@@ -10619,7 +10783,7 @@
       <c r="AD322" s="13"/>
       <c r="AE322" s="13"/>
     </row>
-    <row r="323" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A323" s="6" t="s">
         <v>318</v>
       </c>
@@ -10651,7 +10815,7 @@
       <c r="AD323" s="13"/>
       <c r="AE323" s="13"/>
     </row>
-    <row r="324" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A324" s="6" t="s">
         <v>319</v>
       </c>
@@ -10683,7 +10847,7 @@
       <c r="AD324" s="13"/>
       <c r="AE324" s="13"/>
     </row>
-    <row r="325" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A325" s="6" t="s">
         <v>320</v>
       </c>
@@ -10715,7 +10879,7 @@
       <c r="AD325" s="13"/>
       <c r="AE325" s="13"/>
     </row>
-    <row r="326" spans="1:31" s="16" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:31" s="16" customFormat="1" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A326" s="6" t="s">
         <v>321</v>
       </c>
@@ -10747,7 +10911,7 @@
       <c r="AD326" s="13"/>
       <c r="AE326" s="13"/>
     </row>
-    <row r="327" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A327" s="6"/>
       <c r="B327" s="15"/>
       <c r="D327" s="16">
@@ -10762,7 +10926,7 @@
       <c r="AD327" s="13"/>
       <c r="AE327" s="13"/>
     </row>
-    <row r="328" spans="1:31" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:31" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="26" t="s">
         <v>158</v>
       </c>
@@ -10771,7 +10935,7 @@
       <c r="AD328" s="13"/>
       <c r="AE328" s="13"/>
     </row>
-    <row r="329" spans="1:31" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:31" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="6" t="s">
         <v>322</v>
       </c>
@@ -10782,7 +10946,7 @@
       <c r="AD329" s="13"/>
       <c r="AE329" s="13"/>
     </row>
-    <row r="330" spans="1:31" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:31" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="6" t="s">
         <v>323</v>
       </c>
@@ -10793,7 +10957,7 @@
       <c r="AD330" s="13"/>
       <c r="AE330" s="13"/>
     </row>
-    <row r="331" spans="1:31" s="16" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:31" s="16" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="6" t="s">
         <v>324</v>
       </c>
@@ -10804,7 +10968,7 @@
       <c r="AD331" s="13"/>
       <c r="AE331" s="13"/>
     </row>
-    <row r="332" spans="1:31" s="16" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:31" s="16" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="6" t="s">
         <v>325</v>
       </c>
@@ -10815,7 +10979,7 @@
       <c r="AD332" s="13"/>
       <c r="AE332" s="13"/>
     </row>
-    <row r="333" spans="1:31" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:31" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="6" t="s">
         <v>326</v>
       </c>
@@ -10826,7 +10990,7 @@
       <c r="AD333" s="13"/>
       <c r="AE333" s="13"/>
     </row>
-    <row r="334" spans="1:31" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:31" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="6" t="s">
         <v>327</v>
       </c>
@@ -10837,14 +11001,14 @@
       <c r="AD334" s="13"/>
       <c r="AE334" s="13"/>
     </row>
-    <row r="335" spans="1:31" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:31" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="6"/>
       <c r="B335" s="15"/>
       <c r="AC335" s="13"/>
       <c r="AD335" s="13"/>
       <c r="AE335" s="13"/>
     </row>
-    <row r="336" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A336" s="26" t="s">
         <v>159</v>
       </c>
@@ -10853,7 +11017,7 @@
       <c r="AD336" s="13"/>
       <c r="AE336" s="13"/>
     </row>
-    <row r="337" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A337" s="28" t="s">
         <v>161</v>
       </c>
@@ -10862,7 +11026,7 @@
       <c r="AD337" s="13"/>
       <c r="AE337" s="13"/>
     </row>
-    <row r="338" spans="1:31" s="16" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:31" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A338" s="6" t="s">
         <v>328</v>
       </c>
@@ -10873,7 +11037,7 @@
       <c r="AD338" s="13"/>
       <c r="AE338" s="13"/>
     </row>
-    <row r="339" spans="1:31" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A339" s="6" t="s">
         <v>329</v>
       </c>
@@ -10884,7 +11048,7 @@
       <c r="AD339" s="13"/>
       <c r="AE339" s="13"/>
     </row>
-    <row r="340" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A340" s="6" t="s">
         <v>330</v>
       </c>
@@ -10895,7 +11059,7 @@
       <c r="AD340" s="13"/>
       <c r="AE340" s="13"/>
     </row>
-    <row r="341" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A341" s="6" t="s">
         <v>331</v>
       </c>
@@ -10906,7 +11070,7 @@
       <c r="AD341" s="13"/>
       <c r="AE341" s="13"/>
     </row>
-    <row r="342" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A342" s="6" t="s">
         <v>332</v>
       </c>
@@ -10917,7 +11081,7 @@
       <c r="AD342" s="13"/>
       <c r="AE342" s="13"/>
     </row>
-    <row r="343" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A343" s="6" t="s">
         <v>333</v>
       </c>
@@ -10928,7 +11092,7 @@
       <c r="AD343" s="13"/>
       <c r="AE343" s="13"/>
     </row>
-    <row r="344" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A344" s="6" t="s">
         <v>334</v>
       </c>
@@ -10939,7 +11103,7 @@
       <c r="AD344" s="13"/>
       <c r="AE344" s="13"/>
     </row>
-    <row r="345" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A345" s="6" t="s">
         <v>335</v>
       </c>
@@ -10950,7 +11114,7 @@
       <c r="AD345" s="13"/>
       <c r="AE345" s="13"/>
     </row>
-    <row r="346" spans="1:31" s="16" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:31" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A346" s="6" t="s">
         <v>336</v>
       </c>
@@ -10961,7 +11125,7 @@
       <c r="AD346" s="13"/>
       <c r="AE346" s="13"/>
     </row>
-    <row r="347" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A347" s="6" t="s">
         <v>337</v>
       </c>
@@ -10972,7 +11136,7 @@
       <c r="AD347" s="13"/>
       <c r="AE347" s="13"/>
     </row>
-    <row r="348" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A348" s="28" t="s">
         <v>175</v>
       </c>
@@ -10981,7 +11145,7 @@
       <c r="AD348" s="13"/>
       <c r="AE348" s="13"/>
     </row>
-    <row r="349" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A349" s="29" t="s">
         <v>338</v>
       </c>
@@ -10990,7 +11154,7 @@
       <c r="AD349" s="13"/>
       <c r="AE349" s="13"/>
     </row>
-    <row r="350" spans="1:31" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:31" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A350" s="29" t="s">
         <v>424</v>
       </c>
@@ -11052,7 +11216,7 @@
       <c r="AD350" s="13"/>
       <c r="AE350" s="13"/>
     </row>
-    <row r="351" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A351" s="6" t="s">
         <v>341</v>
       </c>
@@ -11131,7 +11295,7 @@
       <c r="AD351" s="13"/>
       <c r="AE351" s="13"/>
     </row>
-    <row r="352" spans="1:31" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:31" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A352" s="6" t="s">
         <v>342</v>
       </c>
@@ -11210,7 +11374,7 @@
       <c r="AD352" s="13"/>
       <c r="AE352" s="13"/>
     </row>
-    <row r="353" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A353" s="6" t="s">
         <v>343</v>
       </c>
@@ -11289,7 +11453,7 @@
       <c r="AD353" s="13"/>
       <c r="AE353" s="13"/>
     </row>
-    <row r="354" spans="1:31" s="16" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:31" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A354" s="6" t="s">
         <v>344</v>
       </c>
@@ -11368,7 +11532,7 @@
       <c r="AD354" s="13"/>
       <c r="AE354" s="13"/>
     </row>
-    <row r="355" spans="1:31" s="16" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:31" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A355" s="6" t="s">
         <v>345</v>
       </c>
@@ -11447,7 +11611,7 @@
       <c r="AD355" s="13"/>
       <c r="AE355" s="13"/>
     </row>
-    <row r="356" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A356" s="6" t="s">
         <v>346</v>
       </c>
@@ -11526,7 +11690,7 @@
       <c r="AD356" s="13"/>
       <c r="AE356" s="13"/>
     </row>
-    <row r="357" spans="1:31" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A357" s="6" t="s">
         <v>347</v>
       </c>
@@ -11605,7 +11769,7 @@
       <c r="AD357" s="13"/>
       <c r="AE357" s="13"/>
     </row>
-    <row r="358" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A358" s="6" t="s">
         <v>348</v>
       </c>
@@ -11684,7 +11848,7 @@
       <c r="AD358" s="13"/>
       <c r="AE358" s="13"/>
     </row>
-    <row r="359" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A359" s="6" t="s">
         <v>339</v>
       </c>
@@ -11763,7 +11927,7 @@
       <c r="AD359" s="13"/>
       <c r="AE359" s="13"/>
     </row>
-    <row r="360" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A360" s="6" t="s">
         <v>349</v>
       </c>
@@ -11842,7 +12006,7 @@
       <c r="AD360" s="13"/>
       <c r="AE360" s="13"/>
     </row>
-    <row r="361" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A361" s="6" t="s">
         <v>350</v>
       </c>
@@ -11921,7 +12085,7 @@
       <c r="AD361" s="13"/>
       <c r="AE361" s="13"/>
     </row>
-    <row r="362" spans="1:31" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:31" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A362" s="6" t="s">
         <v>351</v>
       </c>
@@ -12000,7 +12164,7 @@
       <c r="AD362" s="13"/>
       <c r="AE362" s="13"/>
     </row>
-    <row r="363" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A363" s="6" t="s">
         <v>352</v>
       </c>
@@ -12079,7 +12243,7 @@
       <c r="AD363" s="13"/>
       <c r="AE363" s="13"/>
     </row>
-    <row r="364" spans="1:31" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A364" s="6" t="s">
         <v>353</v>
       </c>
@@ -12158,7 +12322,7 @@
       <c r="AD364" s="13"/>
       <c r="AE364" s="13"/>
     </row>
-    <row r="365" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A365" s="6" t="s">
         <v>354</v>
       </c>
@@ -12237,7 +12401,7 @@
       <c r="AD365" s="13"/>
       <c r="AE365" s="13"/>
     </row>
-    <row r="366" spans="1:31" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:31" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A366" s="6" t="s">
         <v>355</v>
       </c>
@@ -12316,7 +12480,7 @@
       <c r="AD366" s="13"/>
       <c r="AE366" s="13"/>
     </row>
-    <row r="367" spans="1:31" s="16" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:31" s="16" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="6" t="s">
         <v>356</v>
       </c>
@@ -12395,7 +12559,7 @@
       <c r="AD367" s="13"/>
       <c r="AE367" s="13"/>
     </row>
-    <row r="368" spans="1:31" s="16" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:31" s="16" customFormat="1" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A368" s="6" t="s">
         <v>357</v>
       </c>
@@ -12474,7 +12638,7 @@
       <c r="AD368" s="13"/>
       <c r="AE368" s="13"/>
     </row>
-    <row r="369" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A369" s="6"/>
       <c r="B369" s="59"/>
       <c r="C369" s="38"/>
@@ -12502,7 +12666,7 @@
       <c r="AD369" s="13"/>
       <c r="AE369" s="13"/>
     </row>
-    <row r="370" spans="1:31" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:31" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A370" s="29" t="s">
         <v>340</v>
       </c>
@@ -12535,7 +12699,7 @@
       <c r="AD370" s="13"/>
       <c r="AE370" s="13"/>
     </row>
-    <row r="371" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A371" s="6" t="s">
         <v>359</v>
       </c>
@@ -12614,7 +12778,7 @@
       <c r="AD371" s="13"/>
       <c r="AE371" s="13"/>
     </row>
-    <row r="372" spans="1:31" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A372" s="6" t="s">
         <v>360</v>
       </c>
@@ -12693,7 +12857,7 @@
       <c r="AD372" s="13"/>
       <c r="AE372" s="13"/>
     </row>
-    <row r="373" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A373" s="6" t="s">
         <v>361</v>
       </c>
@@ -12772,7 +12936,7 @@
       <c r="AD373" s="13"/>
       <c r="AE373" s="13"/>
     </row>
-    <row r="374" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A374" s="6" t="s">
         <v>362</v>
       </c>
@@ -12851,7 +13015,7 @@
       <c r="AD374" s="13"/>
       <c r="AE374" s="13"/>
     </row>
-    <row r="375" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A375" s="6" t="s">
         <v>363</v>
       </c>
@@ -12930,7 +13094,7 @@
       <c r="AD375" s="13"/>
       <c r="AE375" s="13"/>
     </row>
-    <row r="376" spans="1:31" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A376" s="6" t="s">
         <v>364</v>
       </c>
@@ -13009,7 +13173,7 @@
       <c r="AD376" s="13"/>
       <c r="AE376" s="13"/>
     </row>
-    <row r="377" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A377" s="6" t="s">
         <v>365</v>
       </c>
@@ -13088,7 +13252,7 @@
       <c r="AD377" s="13"/>
       <c r="AE377" s="13"/>
     </row>
-    <row r="378" spans="1:31" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:31" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="6" t="s">
         <v>366</v>
       </c>
@@ -13167,7 +13331,7 @@
       <c r="AD378" s="13"/>
       <c r="AE378" s="13"/>
     </row>
-    <row r="379" spans="1:31" s="16" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:31" s="16" customFormat="1" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A379" s="6" t="s">
         <v>367</v>
       </c>
@@ -13246,7 +13410,7 @@
       <c r="AD379" s="13"/>
       <c r="AE379" s="13"/>
     </row>
-    <row r="380" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A380" s="29" t="s">
         <v>132</v>
       </c>
@@ -13276,7 +13440,7 @@
       <c r="AD380" s="13"/>
       <c r="AE380" s="13"/>
     </row>
-    <row r="381" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A381" s="6" t="s">
         <v>369</v>
       </c>
@@ -13300,7 +13464,7 @@
       <c r="AD381" s="13"/>
       <c r="AE381" s="13"/>
     </row>
-    <row r="382" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A382" s="6" t="s">
         <v>370</v>
       </c>
@@ -13324,7 +13488,7 @@
       <c r="AD382" s="13"/>
       <c r="AE382" s="13"/>
     </row>
-    <row r="383" spans="1:31" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:31" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A383" s="29" t="s">
         <v>368</v>
       </c>
@@ -13363,7 +13527,7 @@
       <c r="AD383" s="13"/>
       <c r="AE383" s="13"/>
     </row>
-    <row r="384" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A384" s="6" t="s">
         <v>372</v>
       </c>
@@ -13442,7 +13606,7 @@
       <c r="AD384" s="13"/>
       <c r="AE384" s="13"/>
     </row>
-    <row r="385" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A385" s="6" t="s">
         <v>393</v>
       </c>
@@ -13521,7 +13685,7 @@
       <c r="AD385" s="13"/>
       <c r="AE385" s="13"/>
     </row>
-    <row r="386" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A386" s="6" t="s">
         <v>373</v>
       </c>
@@ -13600,7 +13764,7 @@
       <c r="AD386" s="13"/>
       <c r="AE386" s="13"/>
     </row>
-    <row r="387" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A387" s="6" t="s">
         <v>374</v>
       </c>
@@ -13679,7 +13843,7 @@
       <c r="AD387" s="13"/>
       <c r="AE387" s="13"/>
     </row>
-    <row r="388" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A388" s="6" t="s">
         <v>375</v>
       </c>
@@ -13758,7 +13922,7 @@
       <c r="AD388" s="13"/>
       <c r="AE388" s="13"/>
     </row>
-    <row r="389" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A389" s="6" t="s">
         <v>376</v>
       </c>
@@ -13837,7 +14001,7 @@
       <c r="AD389" s="13"/>
       <c r="AE389" s="13"/>
     </row>
-    <row r="390" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A390" s="6" t="s">
         <v>377</v>
       </c>
@@ -13916,7 +14080,7 @@
       <c r="AD390" s="13"/>
       <c r="AE390" s="13"/>
     </row>
-    <row r="391" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A391" s="6" t="s">
         <v>378</v>
       </c>
@@ -13995,7 +14159,7 @@
       <c r="AD391" s="13"/>
       <c r="AE391" s="13"/>
     </row>
-    <row r="392" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A392" s="6" t="s">
         <v>379</v>
       </c>
@@ -14074,7 +14238,7 @@
       <c r="AD392" s="13"/>
       <c r="AE392" s="13"/>
     </row>
-    <row r="393" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A393" s="6" t="s">
         <v>380</v>
       </c>
@@ -14153,7 +14317,7 @@
       <c r="AD393" s="13"/>
       <c r="AE393" s="13"/>
     </row>
-    <row r="394" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A394" s="6" t="s">
         <v>381</v>
       </c>
@@ -14232,7 +14396,7 @@
       <c r="AD394" s="13"/>
       <c r="AE394" s="13"/>
     </row>
-    <row r="395" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A395" s="6" t="s">
         <v>382</v>
       </c>
@@ -14311,7 +14475,7 @@
       <c r="AD395" s="13"/>
       <c r="AE395" s="13"/>
     </row>
-    <row r="396" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A396" s="6" t="s">
         <v>383</v>
       </c>
@@ -14390,7 +14554,7 @@
       <c r="AD396" s="13"/>
       <c r="AE396" s="13"/>
     </row>
-    <row r="397" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A397" s="6" t="s">
         <v>384</v>
       </c>
@@ -14469,7 +14633,7 @@
       <c r="AD397" s="13"/>
       <c r="AE397" s="13"/>
     </row>
-    <row r="398" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A398" s="6" t="s">
         <v>385</v>
       </c>
@@ -14548,7 +14712,7 @@
       <c r="AD398" s="13"/>
       <c r="AE398" s="13"/>
     </row>
-    <row r="399" spans="1:31" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:31" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="6" t="s">
         <v>386</v>
       </c>
@@ -14627,7 +14791,7 @@
       <c r="AD399" s="13"/>
       <c r="AE399" s="13"/>
     </row>
-    <row r="400" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A400" s="6" t="s">
         <v>387</v>
       </c>
@@ -14706,7 +14870,7 @@
       <c r="AD400" s="13"/>
       <c r="AE400" s="13"/>
     </row>
-    <row r="401" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A401" s="6" t="s">
         <v>388</v>
       </c>
@@ -14785,7 +14949,7 @@
       <c r="AD401" s="13"/>
       <c r="AE401" s="13"/>
     </row>
-    <row r="402" spans="1:31" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:31" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="6" t="s">
         <v>389</v>
       </c>
@@ -14864,7 +15028,7 @@
       <c r="AD402" s="13"/>
       <c r="AE402" s="13"/>
     </row>
-    <row r="403" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A403" s="6" t="s">
         <v>390</v>
       </c>
@@ -14943,7 +15107,7 @@
       <c r="AD403" s="13"/>
       <c r="AE403" s="13"/>
     </row>
-    <row r="404" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A404" s="6" t="s">
         <v>391</v>
       </c>
@@ -15022,7 +15186,7 @@
       <c r="AD404" s="13"/>
       <c r="AE404" s="13"/>
     </row>
-    <row r="405" spans="1:31" s="16" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:31" s="16" customFormat="1" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A405" s="6" t="s">
         <v>392</v>
       </c>
@@ -15101,7 +15265,7 @@
       <c r="AD405" s="13"/>
       <c r="AE405" s="13"/>
     </row>
-    <row r="406" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A406" s="6"/>
       <c r="B406" s="59"/>
       <c r="C406" s="38"/>
@@ -15129,7 +15293,7 @@
       <c r="AD406" s="13"/>
       <c r="AE406" s="13"/>
     </row>
-    <row r="407" spans="1:31" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:31" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A407" s="29" t="s">
         <v>371</v>
       </c>
@@ -15174,7 +15338,7 @@
       <c r="AD407" s="13"/>
       <c r="AE407" s="13"/>
     </row>
-    <row r="408" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A408" s="6" t="s">
         <v>372</v>
       </c>
@@ -15253,7 +15417,7 @@
       <c r="AD408" s="13"/>
       <c r="AE408" s="13"/>
     </row>
-    <row r="409" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A409" s="6" t="s">
         <v>394</v>
       </c>
@@ -15332,7 +15496,7 @@
       <c r="AD409" s="13"/>
       <c r="AE409" s="13"/>
     </row>
-    <row r="410" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A410" s="6" t="s">
         <v>373</v>
       </c>
@@ -15411,7 +15575,7 @@
       <c r="AD410" s="13"/>
       <c r="AE410" s="13"/>
     </row>
-    <row r="411" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A411" s="6" t="s">
         <v>374</v>
       </c>
@@ -15490,7 +15654,7 @@
       <c r="AD411" s="13"/>
       <c r="AE411" s="13"/>
     </row>
-    <row r="412" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A412" s="6" t="s">
         <v>395</v>
       </c>
@@ -15569,7 +15733,7 @@
       <c r="AD412" s="13"/>
       <c r="AE412" s="13"/>
     </row>
-    <row r="413" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A413" s="6" t="s">
         <v>376</v>
       </c>
@@ -15648,7 +15812,7 @@
       <c r="AD413" s="13"/>
       <c r="AE413" s="13"/>
     </row>
-    <row r="414" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A414" s="6" t="s">
         <v>377</v>
       </c>
@@ -15727,7 +15891,7 @@
       <c r="AD414" s="13"/>
       <c r="AE414" s="13"/>
     </row>
-    <row r="415" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A415" s="6" t="s">
         <v>378</v>
       </c>
@@ -15806,7 +15970,7 @@
       <c r="AD415" s="13"/>
       <c r="AE415" s="13"/>
     </row>
-    <row r="416" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A416" s="6" t="s">
         <v>379</v>
       </c>
@@ -15885,7 +16049,7 @@
       <c r="AD416" s="13"/>
       <c r="AE416" s="13"/>
     </row>
-    <row r="417" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A417" s="6" t="s">
         <v>380</v>
       </c>
@@ -15964,7 +16128,7 @@
       <c r="AD417" s="13"/>
       <c r="AE417" s="13"/>
     </row>
-    <row r="418" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A418" s="6" t="s">
         <v>381</v>
       </c>
@@ -16043,7 +16207,7 @@
       <c r="AD418" s="13"/>
       <c r="AE418" s="13"/>
     </row>
-    <row r="419" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A419" s="6" t="s">
         <v>382</v>
       </c>
@@ -16122,7 +16286,7 @@
       <c r="AD419" s="13"/>
       <c r="AE419" s="13"/>
     </row>
-    <row r="420" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A420" s="6" t="s">
         <v>383</v>
       </c>
@@ -16201,7 +16365,7 @@
       <c r="AD420" s="13"/>
       <c r="AE420" s="13"/>
     </row>
-    <row r="421" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A421" s="6" t="s">
         <v>384</v>
       </c>
@@ -16280,7 +16444,7 @@
       <c r="AD421" s="13"/>
       <c r="AE421" s="13"/>
     </row>
-    <row r="422" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A422" s="6" t="s">
         <v>385</v>
       </c>
@@ -16359,7 +16523,7 @@
       <c r="AD422" s="13"/>
       <c r="AE422" s="13"/>
     </row>
-    <row r="423" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A423" s="6" t="s">
         <v>386</v>
       </c>
@@ -16438,7 +16602,7 @@
       <c r="AD423" s="13"/>
       <c r="AE423" s="13"/>
     </row>
-    <row r="424" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A424" s="6" t="s">
         <v>396</v>
       </c>
@@ -16517,7 +16681,7 @@
       <c r="AD424" s="13"/>
       <c r="AE424" s="13"/>
     </row>
-    <row r="425" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A425" s="6" t="s">
         <v>388</v>
       </c>
@@ -16596,7 +16760,7 @@
       <c r="AD425" s="13"/>
       <c r="AE425" s="13"/>
     </row>
-    <row r="426" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A426" s="6" t="s">
         <v>389</v>
       </c>
@@ -16675,7 +16839,7 @@
       <c r="AD426" s="13"/>
       <c r="AE426" s="13"/>
     </row>
-    <row r="427" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A427" s="6" t="s">
         <v>390</v>
       </c>
@@ -16754,7 +16918,7 @@
       <c r="AD427" s="13"/>
       <c r="AE427" s="13"/>
     </row>
-    <row r="428" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A428" s="6" t="s">
         <v>391</v>
       </c>
@@ -16833,7 +16997,7 @@
       <c r="AD428" s="13"/>
       <c r="AE428" s="13"/>
     </row>
-    <row r="429" spans="1:31" s="16" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:31" s="16" customFormat="1" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A429" s="6" t="s">
         <v>392</v>
       </c>
@@ -16912,7 +17076,7 @@
       <c r="AD429" s="13"/>
       <c r="AE429" s="13"/>
     </row>
-    <row r="430" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A430" s="6"/>
       <c r="B430" s="52"/>
       <c r="C430" s="48"/>
@@ -16939,7 +17103,7 @@
       <c r="AD430" s="13"/>
       <c r="AE430" s="13"/>
     </row>
-    <row r="431" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A431" s="26" t="s">
         <v>160</v>
       </c>
@@ -16948,7 +17112,7 @@
       <c r="AD431" s="13"/>
       <c r="AE431" s="13"/>
     </row>
-    <row r="432" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A432" s="6" t="s">
         <v>397</v>
       </c>
@@ -16959,7 +17123,7 @@
       <c r="AD432" s="13"/>
       <c r="AE432" s="13"/>
     </row>
-    <row r="433" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A433" s="6" t="s">
         <v>398</v>
       </c>
@@ -16970,7 +17134,7 @@
       <c r="AD433" s="13"/>
       <c r="AE433" s="13"/>
     </row>
-    <row r="434" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A434" s="6" t="s">
         <v>399</v>
       </c>
@@ -16981,7 +17145,7 @@
       <c r="AD434" s="13"/>
       <c r="AE434" s="13"/>
     </row>
-    <row r="435" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A435" s="6" t="s">
         <v>400</v>
       </c>
@@ -16992,14 +17156,14 @@
       <c r="AD435" s="13"/>
       <c r="AE435" s="13"/>
     </row>
-    <row r="436" spans="1:31" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:31" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A436" s="2"/>
       <c r="B436" s="15"/>
       <c r="AC436" s="13"/>
       <c r="AD436" s="13"/>
       <c r="AE436" s="13"/>
     </row>
-    <row r="437" spans="1:31" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:31" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
         <v>2</v>
       </c>
@@ -17008,7 +17172,7 @@
       <c r="AD437" s="13"/>
       <c r="AE437" s="13"/>
     </row>
-    <row r="438" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A438" s="4" t="s">
         <v>100</v>
       </c>
@@ -17019,7 +17183,7 @@
       <c r="AD438" s="13"/>
       <c r="AE438" s="13"/>
     </row>
-    <row r="439" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A439" s="4" t="s">
         <v>101</v>
       </c>
@@ -17030,7 +17194,7 @@
       <c r="AD439" s="13"/>
       <c r="AE439" s="13"/>
     </row>
-    <row r="440" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A440" s="4" t="s">
         <v>102</v>
       </c>
@@ -17041,7 +17205,7 @@
       <c r="AD440" s="13"/>
       <c r="AE440" s="13"/>
     </row>
-    <row r="441" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A441" s="4" t="s">
         <v>103</v>
       </c>
@@ -17052,7 +17216,7 @@
       <c r="AD441" s="13"/>
       <c r="AE441" s="13"/>
     </row>
-    <row r="442" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A442" s="4" t="s">
         <v>104</v>
       </c>
@@ -17063,7 +17227,7 @@
       <c r="AD442" s="13"/>
       <c r="AE442" s="13"/>
     </row>
-    <row r="443" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A443" s="4" t="s">
         <v>105</v>
       </c>
@@ -17074,7 +17238,7 @@
       <c r="AD443" s="13"/>
       <c r="AE443" s="13"/>
     </row>
-    <row r="444" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A444" s="4" t="s">
         <v>106</v>
       </c>
@@ -17085,7 +17249,7 @@
       <c r="AD444" s="13"/>
       <c r="AE444" s="13"/>
     </row>
-    <row r="445" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A445" s="4" t="s">
         <v>107</v>
       </c>
@@ -17096,14 +17260,14 @@
       <c r="AD445" s="13"/>
       <c r="AE445" s="13"/>
     </row>
-    <row r="446" spans="1:31" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:31" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A446" s="2"/>
       <c r="B446" s="15"/>
       <c r="AC446" s="13"/>
       <c r="AD446" s="13"/>
       <c r="AE446" s="13"/>
     </row>
-    <row r="447" spans="1:31" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:31" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A447" s="8" t="s">
         <v>3</v>
       </c>
@@ -17112,7 +17276,7 @@
       <c r="AD447" s="13"/>
       <c r="AE447" s="13"/>
     </row>
-    <row r="448" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A448" s="3">
         <v>1</v>
       </c>
@@ -17123,7 +17287,7 @@
       <c r="AD448" s="13"/>
       <c r="AE448" s="13"/>
     </row>
-    <row r="449" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A449" s="3">
         <v>2</v>
       </c>
@@ -17134,7 +17298,7 @@
       <c r="AD449" s="13"/>
       <c r="AE449" s="13"/>
     </row>
-    <row r="450" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A450" s="3">
         <v>3</v>
       </c>
@@ -17145,7 +17309,7 @@
       <c r="AD450" s="13"/>
       <c r="AE450" s="13"/>
     </row>
-    <row r="451" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A451" s="3">
         <v>4</v>
       </c>
@@ -17156,7 +17320,7 @@
       <c r="AD451" s="13"/>
       <c r="AE451" s="13"/>
     </row>
-    <row r="452" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A452" s="3">
         <v>5</v>
       </c>
@@ -17167,7 +17331,7 @@
       <c r="AD452" s="13"/>
       <c r="AE452" s="13"/>
     </row>
-    <row r="453" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A453" s="3">
         <v>6</v>
       </c>
@@ -17178,7 +17342,7 @@
       <c r="AD453" s="13"/>
       <c r="AE453" s="13"/>
     </row>
-    <row r="454" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A454" s="3">
         <v>7</v>
       </c>
@@ -17189,7 +17353,7 @@
       <c r="AD454" s="13"/>
       <c r="AE454" s="13"/>
     </row>
-    <row r="455" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A455" s="3">
         <v>8</v>
       </c>
@@ -17200,7 +17364,7 @@
       <c r="AD455" s="13"/>
       <c r="AE455" s="13"/>
     </row>
-    <row r="456" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A456" s="3">
         <v>9</v>
       </c>
@@ -17211,7 +17375,7 @@
       <c r="AD456" s="13"/>
       <c r="AE456" s="13"/>
     </row>
-    <row r="457" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A457" s="3">
         <v>10</v>
       </c>
@@ -17222,7 +17386,7 @@
       <c r="AD457" s="13"/>
       <c r="AE457" s="13"/>
     </row>
-    <row r="458" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A458" s="3">
         <v>11</v>
       </c>
@@ -17233,7 +17397,7 @@
       <c r="AD458" s="13"/>
       <c r="AE458" s="13"/>
     </row>
-    <row r="459" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A459" s="3">
         <v>12</v>
       </c>
@@ -17244,7 +17408,7 @@
       <c r="AD459" s="13"/>
       <c r="AE459" s="13"/>
     </row>
-    <row r="460" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A460" s="3">
         <v>13</v>
       </c>
@@ -17255,7 +17419,7 @@
       <c r="AD460" s="13"/>
       <c r="AE460" s="13"/>
     </row>
-    <row r="461" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A461" s="3">
         <v>14</v>
       </c>
@@ -17266,7 +17430,7 @@
       <c r="AD461" s="13"/>
       <c r="AE461" s="13"/>
     </row>
-    <row r="462" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A462" s="3">
         <v>15</v>
       </c>
@@ -17277,7 +17441,7 @@
       <c r="AD462" s="13"/>
       <c r="AE462" s="13"/>
     </row>
-    <row r="463" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A463" s="3">
         <v>16</v>
       </c>
@@ -17288,7 +17452,7 @@
       <c r="AD463" s="13"/>
       <c r="AE463" s="13"/>
     </row>
-    <row r="464" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A464" s="3">
         <v>17</v>
       </c>
@@ -17299,7 +17463,7 @@
       <c r="AD464" s="13"/>
       <c r="AE464" s="13"/>
     </row>
-    <row r="465" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A465" s="3">
         <v>18</v>
       </c>
@@ -17310,7 +17474,7 @@
       <c r="AD465" s="13"/>
       <c r="AE465" s="13"/>
     </row>
-    <row r="466" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A466" s="3">
         <v>19</v>
       </c>
@@ -17321,7 +17485,7 @@
       <c r="AD466" s="13"/>
       <c r="AE466" s="13"/>
     </row>
-    <row r="467" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A467" s="3">
         <v>20</v>
       </c>
@@ -17332,7 +17496,7 @@
       <c r="AD467" s="13"/>
       <c r="AE467" s="13"/>
     </row>
-    <row r="468" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A468" s="3">
         <v>21</v>
       </c>
@@ -17343,7 +17507,7 @@
       <c r="AD468" s="13"/>
       <c r="AE468" s="13"/>
     </row>
-    <row r="469" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A469" s="3">
         <v>22</v>
       </c>
@@ -17354,7 +17518,7 @@
       <c r="AD469" s="13"/>
       <c r="AE469" s="13"/>
     </row>
-    <row r="470" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A470" s="3">
         <v>23</v>
       </c>
@@ -17365,7 +17529,7 @@
       <c r="AD470" s="13"/>
       <c r="AE470" s="13"/>
     </row>
-    <row r="471" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A471" s="3">
         <v>24</v>
       </c>
@@ -17376,7 +17540,7 @@
       <c r="AD471" s="13"/>
       <c r="AE471" s="13"/>
     </row>
-    <row r="472" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A472" s="3">
         <v>25</v>
       </c>
@@ -17387,7 +17551,7 @@
       <c r="AD472" s="13"/>
       <c r="AE472" s="13"/>
     </row>
-    <row r="473" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A473" s="3">
         <v>26</v>
       </c>
@@ -17398,7 +17562,7 @@
       <c r="AD473" s="13"/>
       <c r="AE473" s="13"/>
     </row>
-    <row r="474" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A474" s="3">
         <v>27</v>
       </c>
@@ -17409,7 +17573,7 @@
       <c r="AD474" s="13"/>
       <c r="AE474" s="13"/>
     </row>
-    <row r="475" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A475" s="3">
         <v>28</v>
       </c>
@@ -17420,7 +17584,7 @@
       <c r="AD475" s="13"/>
       <c r="AE475" s="13"/>
     </row>
-    <row r="476" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A476" s="3">
         <v>29</v>
       </c>
@@ -17431,7 +17595,7 @@
       <c r="AD476" s="13"/>
       <c r="AE476" s="13"/>
     </row>
-    <row r="477" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A477" s="3">
         <v>30</v>
       </c>
@@ -17442,7 +17606,7 @@
       <c r="AD477" s="13"/>
       <c r="AE477" s="13"/>
     </row>
-    <row r="478" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A478" s="3" t="s">
         <v>110</v>
       </c>
@@ -17453,14 +17617,14 @@
       <c r="AD478" s="13"/>
       <c r="AE478" s="13"/>
     </row>
-    <row r="479" spans="1:31" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:31" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A479" s="7"/>
       <c r="B479" s="15"/>
       <c r="AC479" s="13"/>
       <c r="AD479" s="13"/>
       <c r="AE479" s="13"/>
     </row>
-    <row r="480" spans="1:31" s="16" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:31" s="16" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A480" s="9" t="s">
         <v>4</v>
       </c>
@@ -17469,7 +17633,7 @@
       <c r="AD480" s="13"/>
       <c r="AE480" s="13"/>
     </row>
-    <row r="481" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A481" s="4" t="s">
         <v>108</v>
       </c>
@@ -17480,7 +17644,7 @@
       <c r="AD481" s="13"/>
       <c r="AE481" s="13"/>
     </row>
-    <row r="482" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A482" s="4" t="s">
         <v>109</v>
       </c>
@@ -17491,14 +17655,14 @@
       <c r="AD482" s="13"/>
       <c r="AE482" s="13"/>
     </row>
-    <row r="483" spans="1:31" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:31" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A483" s="2"/>
       <c r="B483" s="15"/>
       <c r="AC483" s="13"/>
       <c r="AD483" s="13"/>
       <c r="AE483" s="13"/>
     </row>
-    <row r="484" spans="1:31" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:31" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A484" s="9" t="s">
         <v>5</v>
       </c>
@@ -17507,7 +17671,7 @@
       <c r="AD484" s="13"/>
       <c r="AE484" s="13"/>
     </row>
-    <row r="485" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A485" s="5">
         <v>1</v>
       </c>
@@ -17518,7 +17682,7 @@
       <c r="AD485" s="13"/>
       <c r="AE485" s="13"/>
     </row>
-    <row r="486" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A486" s="5">
         <v>2</v>
       </c>
@@ -17529,7 +17693,7 @@
       <c r="AD486" s="13"/>
       <c r="AE486" s="13"/>
     </row>
-    <row r="487" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A487" s="5">
         <v>3</v>
       </c>
@@ -17540,7 +17704,7 @@
       <c r="AD487" s="13"/>
       <c r="AE487" s="13"/>
     </row>
-    <row r="488" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A488" s="5" t="s">
         <v>111</v>
       </c>
@@ -17551,14 +17715,14 @@
       <c r="AD488" s="13"/>
       <c r="AE488" s="13"/>
     </row>
-    <row r="489" spans="1:31" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:31" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A489" s="10"/>
       <c r="B489" s="15"/>
       <c r="AC489" s="13"/>
       <c r="AD489" s="13"/>
       <c r="AE489" s="13"/>
     </row>
-    <row r="490" spans="1:31" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:31" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A490" s="9" t="s">
         <v>116</v>
       </c>
@@ -17567,7 +17731,7 @@
       <c r="AD490" s="13"/>
       <c r="AE490" s="13"/>
     </row>
-    <row r="491" spans="1:31" s="16" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:31" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A491" s="4"/>
       <c r="B491" s="23">
         <v>500</v>
@@ -17603,14 +17767,14 @@
       <c r="AD491" s="13"/>
       <c r="AE491" s="13"/>
     </row>
-    <row r="492" spans="1:31" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:31" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A492" s="2"/>
       <c r="B492" s="15"/>
       <c r="AC492" s="13"/>
       <c r="AD492" s="13"/>
       <c r="AE492" s="13"/>
     </row>
-    <row r="493" spans="1:31" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:31" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A493" s="9" t="s">
         <v>117</v>
       </c>
@@ -17619,7 +17783,7 @@
       <c r="AD493" s="13"/>
       <c r="AE493" s="13"/>
     </row>
-    <row r="494" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A494" s="4"/>
       <c r="B494" s="15">
         <v>1</v>
@@ -17628,14 +17792,14 @@
       <c r="AD494" s="13"/>
       <c r="AE494" s="13"/>
     </row>
-    <row r="495" spans="1:31" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:31" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A495" s="2"/>
       <c r="B495" s="15"/>
       <c r="AC495" s="13"/>
       <c r="AD495" s="13"/>
       <c r="AE495" s="13"/>
     </row>
-    <row r="496" spans="1:31" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:31" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="9" t="s">
         <v>6</v>
       </c>
@@ -17644,7 +17808,7 @@
       <c r="AD496" s="13"/>
       <c r="AE496" s="13"/>
     </row>
-    <row r="497" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A497" s="11" t="s">
         <v>112</v>
       </c>
@@ -17653,7 +17817,7 @@
       <c r="AD497" s="13"/>
       <c r="AE497" s="13"/>
     </row>
-    <row r="498" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A498" s="11" t="s">
         <v>118</v>
       </c>
@@ -17664,14 +17828,14 @@
       <c r="AD498" s="13"/>
       <c r="AE498" s="13"/>
     </row>
-    <row r="499" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A499" s="11"/>
       <c r="B499" s="18"/>
       <c r="AC499" s="13"/>
       <c r="AD499" s="13"/>
       <c r="AE499" s="13"/>
     </row>
-    <row r="500" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A500" s="11" t="s">
         <v>113</v>
       </c>
@@ -17680,7 +17844,7 @@
       <c r="AD500" s="13"/>
       <c r="AE500" s="13"/>
     </row>
-    <row r="501" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A501" s="11" t="s">
         <v>118</v>
       </c>
@@ -17691,14 +17855,14 @@
       <c r="AD501" s="13"/>
       <c r="AE501" s="13"/>
     </row>
-    <row r="502" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A502" s="11"/>
       <c r="B502" s="18"/>
       <c r="AC502" s="13"/>
       <c r="AD502" s="13"/>
       <c r="AE502" s="13"/>
     </row>
-    <row r="503" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A503" s="11" t="s">
         <v>114</v>
       </c>
@@ -17707,7 +17871,7 @@
       <c r="AD503" s="13"/>
       <c r="AE503" s="13"/>
     </row>
-    <row r="504" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A504" s="11" t="s">
         <v>118</v>
       </c>
@@ -17718,14 +17882,14 @@
       <c r="AD504" s="13"/>
       <c r="AE504" s="13"/>
     </row>
-    <row r="505" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A505" s="11"/>
       <c r="B505" s="18"/>
       <c r="AC505" s="13"/>
       <c r="AD505" s="13"/>
       <c r="AE505" s="13"/>
     </row>
-    <row r="506" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A506" s="11" t="s">
         <v>115</v>
       </c>
@@ -17734,7 +17898,7 @@
       <c r="AD506" s="13"/>
       <c r="AE506" s="13"/>
     </row>
-    <row r="507" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A507" s="11" t="s">
         <v>118</v>
       </c>
@@ -17745,20 +17909,20 @@
       <c r="AD507" s="13"/>
       <c r="AE507" s="13"/>
     </row>
-    <row r="508" spans="1:31" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:31" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A508" s="12"/>
       <c r="B508" s="18"/>
       <c r="AC508" s="13"/>
       <c r="AD508" s="13"/>
       <c r="AE508" s="13"/>
     </row>
-    <row r="509" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C509" s="16">
         <f>B515*B13*B105*B117*B241*B453*B481*B486*D491</f>
         <v>143769.78000000003</v>
       </c>
     </row>
-    <row r="510" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A510"/>
       <c r="E510" s="19"/>
       <c r="F510" s="19"/>
@@ -17773,7 +17937,7 @@
       <c r="AD510" s="13"/>
       <c r="AE510" s="13"/>
     </row>
-    <row r="511" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A511"/>
       <c r="C511" s="58"/>
       <c r="E511" s="19"/>
@@ -17782,7 +17946,7 @@
       <c r="AD511" s="13"/>
       <c r="AE511" s="13"/>
     </row>
-    <row r="512" spans="1:31" s="16" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:31" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A512"/>
       <c r="B512" s="54"/>
       <c r="C512" s="54"/>
@@ -17800,13 +17964,13 @@
       <c r="AD512" s="13"/>
       <c r="AE512" s="13"/>
     </row>
-    <row r="514" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A514" s="24" t="s">
         <v>133</v>
       </c>
       <c r="B514" s="18"/>
     </row>
-    <row r="515" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A515" s="20" t="s">
         <v>131</v>
       </c>
@@ -17814,7 +17978,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="516" spans="1:31" s="16" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:31" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A516" s="20" t="s">
         <v>122</v>
       </c>
@@ -17825,18 +17989,18 @@
       <c r="AD516" s="13"/>
       <c r="AE516" s="13"/>
     </row>
-    <row r="517" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A517"/>
       <c r="AC517" s="13"/>
       <c r="AD517" s="13"/>
       <c r="AE517" s="13"/>
     </row>
-    <row r="518" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A518" s="24" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="519" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A519" s="20" t="s">
         <v>135</v>
       </c>
@@ -17844,7 +18008,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="520" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A520" s="20" t="s">
         <v>139</v>
       </c>
@@ -17852,7 +18016,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="521" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A521" s="20" t="s">
         <v>140</v>
       </c>
@@ -17860,7 +18024,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="522" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A522" s="20" t="s">
         <v>141</v>
       </c>
@@ -17868,7 +18032,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="523" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A523" s="20" t="s">
         <v>142</v>
       </c>
@@ -17876,7 +18040,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="527" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:31" ht="30" x14ac:dyDescent="0.2">
       <c r="A527" s="63" t="s">
         <v>397</v>
       </c>
@@ -17885,7 +18049,7 @@
         <v>43605</v>
       </c>
     </row>
-    <row r="528" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:31" ht="30" x14ac:dyDescent="0.2">
       <c r="A528" s="63" t="s">
         <v>398</v>
       </c>
@@ -17894,7 +18058,7 @@
         <v>38475</v>
       </c>
     </row>
-    <row r="529" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A529" s="63" t="s">
         <v>399</v>
       </c>
@@ -17903,7 +18067,7 @@
         <v>47025</v>
       </c>
     </row>
-    <row r="530" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A530" s="63" t="s">
         <v>400</v>
       </c>
@@ -17912,7 +18076,7 @@
         <v>49590</v>
       </c>
     </row>
-    <row r="600" spans="1:31" s="16" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:31" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A600" s="14"/>
       <c r="C600" s="19"/>
       <c r="D600" s="19"/>
@@ -17920,7 +18084,7 @@
       <c r="AD600" s="13"/>
       <c r="AE600" s="13"/>
     </row>
-    <row r="601" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A601"/>
       <c r="C601" s="19"/>
       <c r="D601" s="19"/>
@@ -17928,7 +18092,7 @@
       <c r="AD601" s="13"/>
       <c r="AE601" s="13"/>
     </row>
-    <row r="602" spans="1:31" s="16" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:31" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A602" s="14"/>
       <c r="C602" s="19"/>
       <c r="D602" s="19"/>
@@ -17936,61 +18100,61 @@
       <c r="AD602" s="13"/>
       <c r="AE602" s="13"/>
     </row>
-    <row r="605" spans="1:31" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:31" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A605" s="24"/>
       <c r="AC605" s="13"/>
       <c r="AD605" s="13"/>
       <c r="AE605" s="13"/>
     </row>
-    <row r="606" spans="1:31" s="16" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:31" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A606" s="20"/>
       <c r="B606" s="17"/>
       <c r="AC606" s="13"/>
       <c r="AD606" s="13"/>
       <c r="AE606" s="13"/>
     </row>
-    <row r="607" spans="1:31" s="16" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:31" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A607" s="20"/>
       <c r="B607" s="17"/>
       <c r="AC607" s="13"/>
       <c r="AD607" s="13"/>
       <c r="AE607" s="13"/>
     </row>
-    <row r="609" spans="1:31" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:31" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A609" s="24"/>
       <c r="AC609" s="13"/>
       <c r="AD609" s="13"/>
       <c r="AE609" s="13"/>
     </row>
-    <row r="610" spans="1:31" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:31" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A610" s="20"/>
       <c r="B610" s="20"/>
       <c r="AC610" s="13"/>
       <c r="AD610" s="13"/>
       <c r="AE610" s="13"/>
     </row>
-    <row r="611" spans="1:31" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:31" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A611" s="20"/>
       <c r="B611" s="20"/>
       <c r="AC611" s="13"/>
       <c r="AD611" s="13"/>
       <c r="AE611" s="13"/>
     </row>
-    <row r="612" spans="1:31" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:31" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A612" s="20"/>
       <c r="B612" s="20"/>
       <c r="AC612" s="13"/>
       <c r="AD612" s="13"/>
       <c r="AE612" s="13"/>
     </row>
-    <row r="613" spans="1:31" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:31" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A613" s="20"/>
       <c r="B613" s="20"/>
       <c r="AC613" s="13"/>
       <c r="AD613" s="13"/>
       <c r="AE613" s="13"/>
     </row>
-    <row r="614" spans="1:31" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:31" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A614" s="20"/>
       <c r="B614" s="20"/>
       <c r="AC614" s="13"/>
@@ -18029,53 +18193,80 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AE209"/>
+  <dimension ref="A2:AG209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="66.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="16" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="16" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="16" customWidth="1"/>
-    <col min="11" max="28" width="9.140625" style="16"/>
-    <col min="29" max="31" width="9.140625" style="13"/>
+    <col min="2" max="2" width="66.1640625" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" style="77" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="15" style="71" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" style="78" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" style="16" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="16" customWidth="1"/>
+    <col min="11" max="11" width="12.5" style="16" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" style="16" customWidth="1"/>
+    <col min="13" max="30" width="8.83203125" style="16"/>
+    <col min="31" max="33" width="8.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+    <row r="2" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="76" t="s">
+        <v>496</v>
+      </c>
+      <c r="D2" s="69" t="s">
+        <v>491</v>
+      </c>
+      <c r="E2" s="72" t="s">
+        <v>492</v>
+      </c>
+      <c r="F2" s="79" t="s">
+        <v>493</v>
+      </c>
+      <c r="G2" s="69" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B3" s="64" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="B4" s="69">
+      <c r="C4" s="77" t="s">
+        <v>499</v>
+      </c>
+      <c r="D4" s="68">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="B5" s="69">
+      <c r="C5" s="77" t="s">
+        <v>500</v>
+      </c>
+      <c r="D5" s="68">
         <v>1</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
       <c r="I5" s="33"/>
@@ -18089,1086 +18280,1404 @@
       <c r="Q5" s="33"/>
       <c r="R5" s="33"/>
       <c r="S5" s="33"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="B6" s="69">
+      <c r="C6" s="77" t="s">
+        <v>497</v>
+      </c>
+      <c r="D6" s="68">
         <v>40000</v>
       </c>
-      <c r="C6" s="68"/>
-    </row>
-    <row r="7" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="E6" s="70">
+        <v>35000</v>
+      </c>
+      <c r="F6" s="78" t="s">
+        <v>494</v>
+      </c>
+      <c r="G6" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="B7" s="69">
+      <c r="C7" s="77" t="s">
+        <v>497</v>
+      </c>
+      <c r="D7" s="68">
         <v>40000</v>
       </c>
-      <c r="C7" s="68"/>
-    </row>
-    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="E7" s="70"/>
+      <c r="F7" s="78" t="s">
+        <v>494</v>
+      </c>
+      <c r="G7" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="B8" s="69">
+      <c r="C8" s="77" t="s">
+        <v>501</v>
+      </c>
+      <c r="D8" s="68">
         <v>1</v>
       </c>
-      <c r="C8" s="68"/>
-    </row>
-    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="68"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="65" t="s">
+      <c r="E8" s="70"/>
+    </row>
+    <row r="9" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="7"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="70"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B10" s="65" t="s">
         <v>440</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="68"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="D10" s="68"/>
+      <c r="E10" s="70"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="B11" s="69">
+      <c r="C11" s="77" t="s">
+        <v>502</v>
+      </c>
+      <c r="D11" s="68">
         <v>1</v>
       </c>
-      <c r="C11" s="68"/>
-    </row>
-    <row r="12" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="E11" s="70"/>
+    </row>
+    <row r="12" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="B12" s="69">
+      <c r="C12" s="77" t="s">
+        <v>503</v>
+      </c>
+      <c r="D12" s="68">
         <v>35000</v>
       </c>
-      <c r="C12" s="68"/>
-    </row>
-    <row r="13" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="E12" s="70"/>
+      <c r="F12" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="G12" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="B13" s="69">
+      <c r="C13" s="77" t="s">
+        <v>504</v>
+      </c>
+      <c r="D13" s="68">
         <v>45000</v>
       </c>
-      <c r="C13" s="68"/>
-    </row>
-    <row r="14" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="E13" s="70"/>
+      <c r="F13" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="G13" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="B14" s="69">
+      <c r="C14" s="77" t="s">
+        <v>505</v>
+      </c>
+      <c r="D14" s="68">
         <v>65000</v>
       </c>
-      <c r="C14" s="68"/>
-    </row>
-    <row r="15" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="E14" s="70"/>
+      <c r="F14" s="78" t="s">
+        <v>520</v>
+      </c>
+      <c r="G14" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="B15" s="69">
+      <c r="C15" s="77" t="s">
+        <v>506</v>
+      </c>
+      <c r="D15" s="68">
         <v>65000</v>
       </c>
-      <c r="C15" s="68"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="E15" s="70"/>
+      <c r="F15" s="78" t="s">
+        <v>521</v>
+      </c>
+      <c r="G15" s="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="B16" s="69">
+      <c r="C16" s="77" t="s">
+        <v>507</v>
+      </c>
+      <c r="D16" s="68">
         <v>65000</v>
       </c>
-      <c r="C16" s="68"/>
-    </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="E16" s="70"/>
+      <c r="F16" s="78" t="s">
+        <v>521</v>
+      </c>
+      <c r="G16" s="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="B17" s="69">
+      <c r="C17" s="77" t="s">
+        <v>508</v>
+      </c>
+      <c r="D17" s="68">
         <v>1</v>
       </c>
-      <c r="C17" s="68"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="E17" s="70"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="B18" s="69">
+      <c r="C18" s="77" t="s">
+        <v>509</v>
+      </c>
+      <c r="D18" s="68">
         <v>1</v>
       </c>
-      <c r="C18" s="68"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="E18" s="70"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>14</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="B19" s="69">
+      <c r="C19" s="77" t="s">
+        <v>510</v>
+      </c>
+      <c r="D19" s="68">
         <v>1</v>
       </c>
-      <c r="C19" s="68"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="E19" s="70"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>15</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="B20" s="69">
+      <c r="C20" s="77" t="s">
+        <v>511</v>
+      </c>
+      <c r="D20" s="68">
         <v>1</v>
       </c>
-      <c r="C20" s="68"/>
-    </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="E20" s="70"/>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>16</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="B21" s="69">
+      <c r="C21" s="77" t="s">
+        <v>512</v>
+      </c>
+      <c r="D21" s="68">
         <v>55000</v>
       </c>
-      <c r="C21" s="68"/>
-    </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="E21" s="70"/>
+      <c r="F21" s="78" t="s">
+        <v>522</v>
+      </c>
+      <c r="G21" s="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>17</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="B22" s="69">
+      <c r="C22" s="77" t="s">
+        <v>513</v>
+      </c>
+      <c r="D22" s="68">
         <v>45000</v>
       </c>
-      <c r="C22" s="68"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="E22" s="70"/>
+      <c r="F22" s="78" t="s">
+        <v>523</v>
+      </c>
+      <c r="G22" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>18</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="B23" s="69">
+      <c r="C23" s="77" t="s">
+        <v>514</v>
+      </c>
+      <c r="D23" s="68">
         <v>65000</v>
       </c>
-      <c r="C23" s="68"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="E23" s="70"/>
+      <c r="F23" s="78" t="s">
+        <v>524</v>
+      </c>
+      <c r="G23" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>19</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="B24" s="69">
+      <c r="C24" s="77" t="s">
+        <v>515</v>
+      </c>
+      <c r="D24" s="68">
         <v>40000</v>
       </c>
-      <c r="C24" s="68"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="E24" s="70"/>
+      <c r="F24" s="78" t="s">
+        <v>525</v>
+      </c>
+      <c r="G24" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="B25" s="69">
+      <c r="C25" s="77" t="s">
+        <v>516</v>
+      </c>
+      <c r="D25" s="68">
         <v>50000</v>
       </c>
-      <c r="C25" s="68"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="E25" s="70"/>
+      <c r="F25" s="78" t="s">
+        <v>526</v>
+      </c>
+      <c r="G25" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>21</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="B26" s="69">
+      <c r="C26" s="77" t="s">
+        <v>517</v>
+      </c>
+      <c r="D26" s="68">
         <v>1</v>
       </c>
-      <c r="C26" s="68"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="E26" s="70"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>22</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="B27" s="69">
+      <c r="C27" s="77" t="s">
+        <v>518</v>
+      </c>
+      <c r="D27" s="68">
         <v>40000</v>
       </c>
-      <c r="C27" s="68"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="E27" s="70"/>
+      <c r="F27" s="78" t="s">
+        <v>494</v>
+      </c>
+      <c r="G27" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>23</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="B28" s="69">
+      <c r="D28" s="68">
         <v>25000</v>
       </c>
-      <c r="C28" s="68"/>
-    </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="E28" s="70"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>24</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="B29" s="69">
+      <c r="D29" s="68">
         <v>25000</v>
       </c>
-      <c r="C29" s="68"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="E29" s="70"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>25</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="B30" s="69">
+      <c r="D30" s="68">
         <v>25000</v>
       </c>
-      <c r="C30" s="68"/>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12"/>
-      <c r="B31" s="69"/>
-      <c r="C31" s="68"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="65" t="s">
+      <c r="E30" s="70"/>
+    </row>
+    <row r="31" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="12"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="70"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B32" s="65" t="s">
         <v>459</v>
       </c>
-      <c r="B32" s="69"/>
-      <c r="C32" s="68"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="66" t="s">
+      <c r="D32" s="68"/>
+      <c r="E32" s="70"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="66" t="s">
         <v>460</v>
       </c>
-      <c r="B33" s="69"/>
-      <c r="C33" s="68"/>
-    </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="D33" s="68"/>
+      <c r="E33" s="70"/>
+    </row>
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>26</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="B34" s="69">
+      <c r="D34" s="68">
         <v>1</v>
       </c>
-      <c r="C34" s="68"/>
-    </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="E34" s="70"/>
+    </row>
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>27</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="B35" s="69">
+      <c r="D35" s="68">
         <v>55000</v>
       </c>
-      <c r="C35" s="68"/>
-    </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="E35" s="70"/>
+    </row>
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>28</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="B36" s="69">
+      <c r="D36" s="68">
         <v>1</v>
       </c>
-      <c r="C36" s="68"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="E36" s="70"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>29</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="B37" s="69">
+      <c r="D37" s="68">
         <v>40000</v>
       </c>
-      <c r="C37" s="68"/>
-    </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="E37" s="70"/>
+    </row>
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>30</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="B38" s="69">
+      <c r="D38" s="68">
         <v>1</v>
       </c>
-      <c r="C38" s="68"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="E38" s="70"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>31</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="B39" s="69">
+      <c r="D39" s="68">
         <v>60000</v>
       </c>
-      <c r="C39" s="68"/>
-    </row>
-    <row r="40" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+      <c r="E39" s="70"/>
+    </row>
+    <row r="40" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>32</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="B40" s="69">
+      <c r="D40" s="68">
         <v>1</v>
       </c>
-      <c r="C40" s="68"/>
-    </row>
-    <row r="41" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="E40" s="70"/>
+    </row>
+    <row r="41" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>33</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="B41" s="69">
+      <c r="D41" s="68">
         <v>25000</v>
       </c>
-      <c r="C41" s="68"/>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="12"/>
-      <c r="B42" s="69"/>
-      <c r="C42" s="68"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="66" t="s">
+      <c r="E41" s="70"/>
+    </row>
+    <row r="42" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="12"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="70"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="66" t="s">
         <v>468</v>
       </c>
-      <c r="B43" s="69"/>
-      <c r="C43" s="68"/>
-    </row>
-    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+      <c r="D43" s="68"/>
+      <c r="E43" s="70"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>34</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="B44" s="69">
+      <c r="D44" s="68">
         <v>1</v>
       </c>
-      <c r="C44" s="68"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="E44" s="70"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>35</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="B45" s="69">
+      <c r="D45" s="68">
         <v>60000</v>
       </c>
-      <c r="C45" s="68"/>
-    </row>
-    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+      <c r="E45" s="70"/>
+    </row>
+    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>36</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="B46" s="69">
+      <c r="D46" s="68">
         <v>1</v>
       </c>
-      <c r="C46" s="68"/>
-    </row>
-    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+      <c r="E46" s="70"/>
+    </row>
+    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>37</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="B47" s="69">
+      <c r="D47" s="68">
         <v>25000</v>
       </c>
-      <c r="C47" s="68"/>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="6"/>
-      <c r="B48" s="69"/>
-      <c r="C48" s="68"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="65" t="s">
+      <c r="E47" s="70"/>
+    </row>
+    <row r="48" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="6"/>
+      <c r="D48" s="68"/>
+      <c r="E48" s="70"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="65" t="s">
         <v>473</v>
       </c>
-      <c r="B49" s="69"/>
-      <c r="C49" s="68"/>
-    </row>
-    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+      <c r="D49" s="68"/>
+      <c r="E49" s="70"/>
+    </row>
+    <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>38</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="B50" s="69">
+      <c r="D50" s="68">
         <v>1</v>
       </c>
-      <c r="C50" s="68"/>
-    </row>
-    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+      <c r="E50" s="70"/>
+    </row>
+    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>39</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="B51" s="69">
+      <c r="D51" s="68">
         <v>55000</v>
       </c>
-      <c r="C51" s="68"/>
-    </row>
-    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
+      <c r="E51" s="70"/>
+    </row>
+    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>40</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="B52" s="69">
+      <c r="D52" s="68">
         <v>1</v>
       </c>
-      <c r="C52" s="68"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
+      <c r="E52" s="70"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>41</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="B53" s="69">
+      <c r="D53" s="68">
         <v>40000</v>
       </c>
-      <c r="C53" s="68"/>
-    </row>
-    <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
+      <c r="E53" s="70"/>
+    </row>
+    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>42</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="B54" s="69">
+      <c r="D54" s="68">
         <v>1</v>
       </c>
-      <c r="C54" s="68"/>
-    </row>
-    <row r="55" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+      <c r="E54" s="70"/>
+    </row>
+    <row r="55" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>43</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="B55" s="69">
+      <c r="D55" s="68">
         <v>25000</v>
       </c>
-      <c r="C55" s="68"/>
-    </row>
-    <row r="56" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="12"/>
-      <c r="B56" s="69"/>
-      <c r="C56" s="68"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="66" t="s">
+      <c r="E55" s="70"/>
+    </row>
+    <row r="56" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="12"/>
+      <c r="D56" s="68"/>
+      <c r="E56" s="70"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B57" s="66" t="s">
         <v>479</v>
       </c>
-      <c r="B57" s="69"/>
-      <c r="C57" s="68"/>
-    </row>
-    <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
+      <c r="D57" s="68"/>
+      <c r="E57" s="70"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>44</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="B58" s="69">
+      <c r="D58" s="68">
         <v>1</v>
       </c>
-      <c r="C58" s="68"/>
-    </row>
-    <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+      <c r="E58" s="70"/>
+    </row>
+    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>45</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="B59" s="69">
+      <c r="D59" s="68">
         <v>1</v>
       </c>
-      <c r="C59" s="68"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
+      <c r="E59" s="70"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>46</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="B60" s="69">
+      <c r="D60" s="68">
         <v>1</v>
       </c>
-      <c r="C60" s="68"/>
-    </row>
-    <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
+      <c r="E60" s="70"/>
+    </row>
+    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>47</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="B61" s="69">
+      <c r="D61" s="68">
         <v>25000</v>
       </c>
-      <c r="C61" s="68"/>
-    </row>
-    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="12"/>
-      <c r="B62" s="69"/>
-      <c r="C62" s="68"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="66" t="s">
+      <c r="E61" s="70"/>
+    </row>
+    <row r="62" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="12"/>
+      <c r="D62" s="68"/>
+      <c r="E62" s="70"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B63" s="66" t="s">
         <v>484</v>
       </c>
-      <c r="B63" s="69"/>
-      <c r="C63" s="68"/>
-    </row>
-    <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
+      <c r="D63" s="68"/>
+      <c r="E63" s="70"/>
+    </row>
+    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>48</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="B64" s="69">
+      <c r="D64" s="68">
         <v>1</v>
       </c>
-      <c r="C64" s="68"/>
-    </row>
-    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
+      <c r="E64" s="70"/>
+    </row>
+    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>49</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="B65" s="69">
+      <c r="D65" s="68">
         <v>45000</v>
       </c>
-      <c r="C65" s="68"/>
-    </row>
-    <row r="66" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
+      <c r="E65" s="70"/>
+    </row>
+    <row r="66" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>50</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="B66" s="69">
+      <c r="D66" s="68">
         <v>1</v>
       </c>
-      <c r="C66" s="68"/>
-    </row>
-    <row r="67" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="7" t="s">
+      <c r="E66" s="70"/>
+    </row>
+    <row r="67" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>51</v>
+      </c>
+      <c r="B67" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="B67" s="69">
+      <c r="D67" s="68">
         <v>25000</v>
       </c>
-      <c r="C67" s="68"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="63"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="63"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="67"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="67">
+      <c r="E67" s="70"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B68" s="63"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B69" s="63"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B70" s="75" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B71" s="67">
         <v>2</v>
       </c>
-      <c r="B71" s="16">
+      <c r="C71" s="78">
         <v>0.86</v>
       </c>
-      <c r="D71" s="16">
-        <f>(B67+B61)*B71</f>
+      <c r="D71" s="71"/>
+      <c r="E71" s="16">
+        <f>(D67+D61)*C71</f>
         <v>43000</v>
       </c>
-      <c r="E71" s="16">
-        <f>(B65+B24)*B71</f>
+      <c r="F71" s="78">
+        <f>(D65+D24)*C71</f>
         <v>73100</v>
       </c>
-      <c r="F71" s="16">
-        <f>(B45+B23)*B71</f>
+      <c r="G71" s="16">
+        <f>(D45+D23)*C71</f>
         <v>107500</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="67">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B72" s="67">
         <v>3</v>
       </c>
-      <c r="B72" s="16">
+      <c r="C72" s="78">
         <v>0.66</v>
       </c>
-      <c r="D72" s="16">
-        <f>(B67+B55+B61)*B72</f>
+      <c r="D72" s="71"/>
+      <c r="E72" s="16">
+        <f>(D67+D55+D61)*C72</f>
         <v>49500</v>
       </c>
-      <c r="E72" s="16">
-        <f>(B65+B53+B37)*B72</f>
+      <c r="F72" s="78">
+        <f>(D65+D53+D37)*C72</f>
         <v>82500</v>
       </c>
-      <c r="F72" s="16">
-        <f>(B51+B45+B35)*B72</f>
+      <c r="G72" s="16">
+        <f>(D51+D45+D35)*C72</f>
         <v>112200</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="67">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B73" s="67">
         <v>4</v>
       </c>
-      <c r="B73" s="16">
+      <c r="C73" s="78">
         <v>0.59499999999999997</v>
       </c>
-      <c r="D73" s="16">
-        <f>(B67+B61+B55+B41)*B73</f>
+      <c r="D73" s="71"/>
+      <c r="E73" s="16">
+        <f>(D67+D61+D55+D41)*C73</f>
         <v>59500</v>
       </c>
-      <c r="E73" s="16">
-        <f>(B65+B53+B37+B27)*B73</f>
+      <c r="F73" s="78">
+        <f>(D65+D53+D37+D27)*C73</f>
         <v>98175</v>
       </c>
-      <c r="F73" s="16">
-        <f>(B39+B45+B51+B23)*B73</f>
+      <c r="G73" s="16">
+        <f>(D39+D45+D51+D23)*C73</f>
         <v>142800</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="67">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B74" s="67">
         <v>5</v>
       </c>
-      <c r="B74" s="16">
+      <c r="C74" s="78">
         <v>0.52</v>
       </c>
-      <c r="D74" s="16">
-        <f>(B67+B61+B55+B47+B41)*B74</f>
+      <c r="D74" s="71"/>
+      <c r="E74" s="16">
+        <f>(D67+D61+D55+D47+D41)*C74</f>
         <v>65000</v>
       </c>
-      <c r="E74" s="16">
-        <f>(B65+B53+B37+B27+B24)*B74</f>
+      <c r="F74" s="78">
+        <f>(D65+D53+D37+D27+D24)*C74</f>
         <v>106600</v>
       </c>
-      <c r="F74" s="16">
-        <f>(B51+B45+B39+B23+B15)*B74</f>
+      <c r="G74" s="16">
+        <f>(D51+D45+D39+D23+D15)*C74</f>
         <v>158600</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="67">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B75" s="67">
         <v>6</v>
       </c>
-      <c r="B75" s="16">
+      <c r="C75" s="78">
         <v>0.49</v>
       </c>
-      <c r="D75" s="16">
-        <f>(B67+B61+B55+B47+B41+B29)*B75</f>
+      <c r="D75" s="71"/>
+      <c r="E75" s="16">
+        <f>(D67+D61+D55+D47+D41+D29)*C75</f>
         <v>73500</v>
       </c>
-      <c r="E75" s="16">
-        <f>(B65+B53+B37+B27+B24+B7)*B75</f>
+      <c r="F75" s="78">
+        <f>(D65+D53+D37+D27+D24+D7)*C75</f>
         <v>120050</v>
       </c>
-      <c r="F75" s="16">
-        <f>(B45+B39+B23+B15+B16+B14)*B75</f>
+      <c r="G75" s="16">
+        <f>(D45+D39+D23+D15+D16+D14)*C75</f>
         <v>186200</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="67">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B76" s="67">
         <v>7</v>
       </c>
-      <c r="B76" s="16">
+      <c r="C76" s="78">
         <v>0.46</v>
       </c>
-      <c r="D76" s="16">
-        <f>(B67+B61+B55+B47+B41+B30+B29)*B76</f>
+      <c r="D76" s="71"/>
+      <c r="E76" s="16">
+        <f>(D67+D61+D55+D47+D41+D30+D29)*C76</f>
         <v>80500</v>
       </c>
-      <c r="E76" s="16">
-        <f>(B65+B53+B37+B27+B24+B7+B6)*B76</f>
+      <c r="F76" s="78">
+        <f>(D65+D53+D37+D27+D24+D7+D6)*C76</f>
         <v>131100</v>
       </c>
-      <c r="F76" s="16">
-        <f>(B51+B45+B39+B23+B16+B15+B14)*B76</f>
+      <c r="G76" s="16">
+        <f>(D51+D45+D39+D23+D16+D15+D14)*C76</f>
         <v>200100</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="67">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B77" s="67">
         <v>8</v>
       </c>
-      <c r="B77" s="16">
+      <c r="C77" s="78">
         <v>0.44</v>
       </c>
-      <c r="D77" s="16">
-        <f>(B67+B61+B55+B47+B41+B30+B29+B28)*B77</f>
+      <c r="D77" s="71"/>
+      <c r="E77" s="16">
+        <f>(D67+D61+D55+D47+D41+D30+D29+D28)*C77</f>
         <v>88000</v>
       </c>
-      <c r="E77" s="16">
-        <f>(B65+B53+B37+B27+B24+B12+B7+B6)*B77</f>
+      <c r="F77" s="78">
+        <f>(D65+D53+D37+D27+D24+D12+D7+D6)*C77</f>
         <v>140800</v>
       </c>
-      <c r="F77" s="16">
-        <f>(B51+B45+B39+B23+B16+B15+B14+B35)*B77</f>
+      <c r="G77" s="16">
+        <f>(D51+D45+D39+D23+D16+D15+D14+D35)*C77</f>
         <v>215600</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="67">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B78" s="67">
         <v>9</v>
       </c>
-      <c r="B78" s="16">
+      <c r="C78" s="78">
         <v>0.42499999999999999</v>
       </c>
-      <c r="D78" s="16">
-        <f>(B67+B61+B55+B47+B41+B30+B29+B28+B12)*B78</f>
+      <c r="D78" s="71"/>
+      <c r="E78" s="16">
+        <f>(D67+D61+D55+D47+D41+D30+D29+D28+D12)*C78</f>
         <v>99875</v>
       </c>
-      <c r="E78" s="16">
-        <f>(B65+B53+B37+B27+B24+B13+B12+B7+B6)*B78</f>
+      <c r="F78" s="78">
+        <f>(D65+D53+D37+D27+D24+D13+D12+D7+D6)*C78</f>
         <v>155125</v>
       </c>
-      <c r="F78" s="16">
-        <f>(B51+B45+B39+B35+B23+B21+B15+B14+B16)*B78</f>
+      <c r="G78" s="16">
+        <f>(D51+D45+D39+D35+D23+D21+D15+D14+D16)*C78</f>
         <v>231625</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="67">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B79" s="67">
         <v>10</v>
       </c>
-      <c r="B79" s="16">
+      <c r="C79" s="78">
         <v>0.41499999999999998</v>
       </c>
-      <c r="D79" s="16">
-        <f>(B67+B61+B55+B47+B41+B30+B29+B28+B12+B53)*B79</f>
+      <c r="D79" s="71"/>
+      <c r="E79" s="16">
+        <f>(D67+D61+D55+D47+D41+D30+D29+D28+D12+D53)*C79</f>
         <v>114125</v>
       </c>
-      <c r="E79" s="16">
-        <f>(B65+B53+B37+B27+B24+B22+B13+B12+B7+B6)*B79</f>
+      <c r="F79" s="78">
+        <f>(D65+D53+D37+D27+D24+D22+D13+D12+D7+D6)*C79</f>
         <v>170150</v>
       </c>
-      <c r="F79" s="16">
-        <f>(B51+B45+B39+B35+B23+B21+B16+B15+B14+B25)*B79</f>
+      <c r="G79" s="16">
+        <f>(D51+D45+D39+D35+D23+D21+D16+D15+D14+D25)*C79</f>
         <v>246925</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="67">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B80" s="67">
         <v>11</v>
       </c>
-      <c r="B80" s="16">
+      <c r="C80" s="78">
         <v>0.4</v>
       </c>
-      <c r="D80" s="16">
-        <f>(B67+B61+B55+B47+B41+B30+B29+B28+B12+B6+B7)*B80</f>
+      <c r="D80" s="71"/>
+      <c r="E80" s="16">
+        <f>(D67+D61+D55+D47+D41+D30+D29+D28+D12+D6+D7)*C80</f>
         <v>126000</v>
       </c>
-      <c r="E80" s="16">
-        <f>(B65+B53+B37+B27+B24+B22+B25+B12+B13+B7+B6)*B80</f>
+      <c r="F80" s="78">
+        <f>(D65+D53+D37+D27+D24+D22+D25+D12+D13+D7+D6)*C80</f>
         <v>184000</v>
       </c>
-      <c r="F80" s="16">
-        <f>(B51+B45+B39+B35+B25+B23+B16+B15+B14+B21+B65)*B80</f>
+      <c r="G80" s="16">
+        <f>(D51+D45+D39+D35+D25+D23+D16+D15+D14+D21+D65)*C80</f>
         <v>256000</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="67">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B81" s="67">
         <v>12</v>
       </c>
-      <c r="B81" s="16">
+      <c r="C81" s="78">
         <v>0.39500000000000002</v>
       </c>
-      <c r="D81" s="16">
-        <f>(B67+B61+B55+B47+B41+B30+B29+B28+B12+B6+B7+B24)*B81</f>
+      <c r="D81" s="71"/>
+      <c r="E81" s="16">
+        <f>(D67+D61+D55+D47+D41+D30+D29+D28+D12+D6+D7+D24)*C81</f>
         <v>140225</v>
       </c>
-      <c r="E81" s="16">
-        <f>(B65+B53+B51+B37+B35+B27+B24+B22+B13+B7+B6+B12)*B81</f>
+      <c r="F81" s="78">
+        <f>(D65+D53+D51+D37+D35+D27+D24+D22+D13+D7+D6+D12)*C81</f>
         <v>205400</v>
       </c>
-      <c r="F81" s="16">
-        <f>(B51+B45+B39+B35+B25+B23+B21+B16+B15+B14+B65+B22)*B81</f>
+      <c r="G81" s="16">
+        <f>(D51+D45+D39+D35+D25+D23+D21+D16+D15+D14+D65+D22)*C81</f>
         <v>270575</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="67">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B82" s="67">
         <v>13</v>
       </c>
-      <c r="B82" s="16">
+      <c r="C82" s="78">
         <v>0.38800000000000001</v>
       </c>
-      <c r="D82" s="16">
-        <f>(B67+B61+B55+B47+B41+B30+B29+B28+B12+B6+B7+B24+B27)*B82</f>
+      <c r="D82" s="71"/>
+      <c r="E82" s="16">
+        <f>(D67+D61+D55+D47+D41+D30+D29+D28+D12+D6+D7+D24+D27)*C82</f>
         <v>153260</v>
       </c>
-      <c r="E82" s="16">
-        <f>(B65+B53+B51+B37+B35+B27+B25+B24+B22+B13+B7+B6+B21)*B82</f>
+      <c r="F82" s="78">
+        <f>(D65+D53+D51+D37+D35+D27+D25+D24+D22+D13+D7+D6+D21)*C82</f>
         <v>228920</v>
       </c>
-      <c r="F82" s="16">
-        <f>(B51+B45+B39+B35+B25+B23+B21+B16+B15+B14+B13+B22+B27)*B82</f>
+      <c r="G82" s="16">
+        <f>(D51+D45+D39+D35+D25+D23+D21+D16+D15+D14+D13+D22+D27)*C82</f>
         <v>281300</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="67">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B83" s="67">
         <v>14</v>
       </c>
-      <c r="B83" s="16">
+      <c r="C83" s="78">
         <v>0.38700000000000001</v>
       </c>
-      <c r="D83" s="16">
-        <f>(B67+B61+B55+B47+B41+B30+B29+B28+B12+B6+B7+B24+B37+B53)*B83</f>
+      <c r="D83" s="71"/>
+      <c r="E83" s="16">
+        <f>(D67+D61+D55+D47+D41+D30+D29+D28+D12+D6+D7+D24+D37+D53)*C83</f>
         <v>168345</v>
       </c>
-      <c r="E83" s="16">
-        <f>(B65+B53+B51+B37+B35+B27+B24+B22+B25+B13+B7+B6+B39+B45)*B83</f>
+      <c r="F83" s="78">
+        <f>(D65+D53+D51+D37+D35+D27+D24+D22+D25+D13+D7+D6+D39+D45)*C83</f>
         <v>253485</v>
       </c>
-      <c r="F83" s="16">
-        <f>(B51+B45+B39+B35+B23+B16+B15+B14+B21+B13+B25+B53+B27+B6)*B83</f>
+      <c r="G83" s="16">
+        <f>(D51+D45+D39+D35+D23+D16+D15+D14+D21+D13+D25+D53+D27+D6)*C83</f>
         <v>294120</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="67">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B84" s="67">
         <v>15</v>
       </c>
-      <c r="B84" s="16">
+      <c r="C84" s="78">
         <v>0.38600000000000001</v>
       </c>
-      <c r="D84" s="16">
-        <f>(B67+B61+B55+B47+B41+B29+B30+B12+B6+B7+B24+B27+B37+B53+B65)*B84</f>
+      <c r="D84" s="71"/>
+      <c r="E84" s="16">
+        <f>(D67+D61+D55+D47+D41+D29+D30+D12+D6+D7+D24+D27+D37+D53+D65)*C84</f>
         <v>191070</v>
       </c>
-      <c r="E84" s="16">
-        <f>(B65+B51+B53+B37+B35+B27+B24+B22+B25+B13+B12+B7+B6+B21+B39)*B84</f>
+      <c r="F84" s="78">
+        <f>(D65+D51+D53+D37+D35+D27+D24+D22+D25+D13+D12+D7+D6+D21+D39)*C84</f>
         <v>264410</v>
       </c>
-      <c r="F84" s="16">
-        <f>(B51+B45+B39+B35+B25+B23+B21+B16+B15+B14+B65+B13+B6+B7+B22)*B84</f>
+      <c r="G84" s="16">
+        <f>(D51+D45+D39+D35+D25+D23+D21+D16+D15+D14+D65+D13+D6+D7+D22)*C84</f>
         <v>312660</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="67">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B85" s="67">
         <v>16</v>
       </c>
-      <c r="B85" s="16">
+      <c r="C85" s="78">
         <v>0.38500000000000001</v>
       </c>
-      <c r="D85" s="16">
-        <f>(B67+B61+B55+B47+B41+B30+B29+B28+B12+B24+B6+B7+B37+B53+B65+B13)*B85</f>
+      <c r="D85" s="71"/>
+      <c r="E85" s="16">
+        <f>(D67+D61+D55+D47+D41+D30+D29+D28+D12+D24+D6+D7+D37+D53+D65+D13)*C85</f>
         <v>202125</v>
       </c>
-      <c r="E85" s="16">
-        <f>(B65+B53+B51+B37+B35+B27+B24+B25+B22+B13+B12+B7+B6+B21+B39+B45)*B85</f>
+      <c r="F85" s="78">
+        <f>(D65+D53+D51+D37+D35+D27+D24+D25+D22+D13+D12+D7+D6+D21+D39+D45)*C85</f>
         <v>286825</v>
       </c>
-      <c r="F85" s="16">
-        <f>(B51+B45+B39+B35+B25+B23+B21+B16+B15+B14+B13+B65+B53+B37+B27+B22)*B85</f>
+      <c r="G85" s="16">
+        <f>(D51+D45+D39+D35+D25+D23+D21+D16+D15+D14+D13+D65+D53+D37+D27+D22)*C85</f>
         <v>327250</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="67">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B86" s="67">
         <v>17</v>
       </c>
-      <c r="B86" s="16">
+      <c r="C86" s="78">
         <v>0.38400000000000001</v>
       </c>
-      <c r="D86" s="16">
-        <f>(B67+B61+B55+B47+B41+B35+B30+B29+B28+B12+B6+B7+B24+B25+B27+B37+B53)*B86</f>
+      <c r="D86" s="71"/>
+      <c r="E86" s="16">
+        <f>(D67+D61+D55+D47+D41+D35+D30+D29+D28+D12+D6+D7+D24+D25+D27+D37+D53)*C86</f>
         <v>222720</v>
       </c>
-      <c r="E86" s="16">
-        <f>(B65+B53+B51+B37+B35+B27+B25+B24+B22+B21+B13+B7+B6+B12+B39+B45+B14)*B86</f>
+      <c r="F86" s="78">
+        <f>(D65+D53+D51+D37+D35+D27+D25+D24+D22+D21+D13+D7+D6+D12+D39+D45+D14)*C86</f>
         <v>311040</v>
       </c>
-      <c r="F86" s="16">
-        <f>(B51+B45+B39+B35+B25+B23+B21+B16+B15+B14+B22+B13+B53+B37+B27+B7+B6)*B86</f>
+      <c r="G86" s="16">
+        <f>(D51+D45+D39+D35+D25+D23+D21+D16+D15+D14+D22+D13+D53+D37+D27+D7+D6)*C86</f>
         <v>339840</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="67">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B87" s="67">
         <v>18</v>
       </c>
-      <c r="B87" s="16">
+      <c r="C87" s="78">
         <v>0.38300000000000001</v>
       </c>
-      <c r="D87" s="16">
-        <f>(B67+B61+B55+B47+B41+B30+B29+B28+B12+B6+B7+B24+B27+B37+B53+B65+B22+B13)*B87</f>
+      <c r="D87" s="71"/>
+      <c r="E87" s="16">
+        <f>(D67+D61+D55+D47+D41+D30+D29+D28+D12+D6+D7+D24+D27+D37+D53+D65+D22+D13)*C87</f>
         <v>233630</v>
       </c>
-      <c r="E87" s="16">
-        <f>(B65+B53+B51+B37+B35+B27+B24+B22+B25+B21+B13+B12+B6+B7+B39+B45+B14+B15)*B87</f>
+      <c r="F87" s="78">
+        <f>(D65+D53+D51+D37+D35+D27+D24+D22+D25+D21+D13+D12+D6+D7+D39+D45+D14+D15)*C87</f>
         <v>335125</v>
       </c>
-      <c r="F87" s="16">
-        <f>(B51+B45+B39+B35+B25+B23+B21+B16+B15+B14+B6+B7+B13+B22+B27+B37+B53+B65)*B87</f>
+      <c r="G87" s="16">
+        <f>(D51+D45+D39+D35+D25+D23+D21+D16+D15+D14+D6+D7+D13+D22+D27+D37+D53+D65)*C87</f>
         <v>356190</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="67">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B88" s="67">
         <v>19</v>
       </c>
-      <c r="B88" s="16">
+      <c r="C88" s="78">
         <v>0.38200000000000001</v>
       </c>
-      <c r="D88" s="16">
-        <f>(B67+B61+B55+B47+B41+B30+B29+B28+B12+B6+B7+B24+B27+B37+B53+B65+B22+B13+B25)*B88</f>
+      <c r="D88" s="71"/>
+      <c r="E88" s="16">
+        <f>(D67+D61+D55+D47+D41+D30+D29+D28+D12+D6+D7+D24+D27+D37+D53+D65+D22+D13+D25)*C88</f>
         <v>252120</v>
       </c>
-      <c r="E88" s="16">
-        <f>(B65+B53+B51+B45+B37+B39+B35+B27+B25+B24+B22+B21+B13+B12+B7+B6+B47+B41+B23)*B88</f>
+      <c r="F88" s="78">
+        <f>(D65+D53+D51+D45+D37+D39+D35+D27+D25+D24+D22+D21+D13+D12+D7+D6+D47+D41+D23)*C88</f>
         <v>328520</v>
       </c>
-      <c r="F88" s="16">
-        <f>(B65+B51+B45+B39+B35+B25+B23+B22+B21+B16+B15+B14+B13+B6+B7+B24+B27+B37+B53)*B88</f>
+      <c r="G88" s="16">
+        <f>(D65+D51+D45+D39+D35+D25+D23+D22+D21+D16+D15+D14+D13+D6+D7+D24+D27+D37+D53)*C88</f>
         <v>370540</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="67">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B89" s="67">
         <v>20</v>
       </c>
-      <c r="B89" s="16">
+      <c r="C89" s="78">
         <v>0.38100000000000001</v>
       </c>
-      <c r="D89" s="16">
-        <f>(B67+B61+B55+B47+B41+B30+B29+B28+B12+B6+B7+B24+B27+B37+B53+B65+B22+B13+B25+B51)*B89</f>
+      <c r="D89" s="71"/>
+      <c r="E89" s="16">
+        <f>(D67+D61+D55+D47+D41+D30+D29+D28+D12+D6+D7+D24+D27+D37+D53+D65+D22+D13+D25+D51)*C89</f>
         <v>272415</v>
       </c>
-      <c r="E89" s="16">
-        <f>(B65+B53+B51+B37+B35+B27+B25+B24+B22+B21+B13+B12+B7+B6+B39+B45+B67+B61+B14+B15)*B89</f>
+      <c r="F89" s="78">
+        <f>(D65+D53+D51+D37+D35+D27+D25+D24+D22+D21+D13+D12+D7+D6+D39+D45+D67+D61+D14+D15)*C89</f>
         <v>352425</v>
       </c>
-      <c r="F89" s="16">
-        <f>(B51+B45+B39+B35+B25+B23+B22+B21+B16+B15+B14+B13+B6+B7+B27+B37+B53+B65+B12+B28)*B89</f>
+      <c r="G89" s="16">
+        <f>(D51+D45+D39+D35+D25+D23+D22+D21+D16+D15+D14+D13+D6+D7+D27+D37+D53+D65+D12+D28)*C89</f>
         <v>377190</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="67">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B90" s="67">
         <v>21</v>
       </c>
-      <c r="B90" s="16">
+      <c r="C90" s="78">
         <v>0.38</v>
       </c>
-      <c r="D90" s="16">
-        <f>(B67+B61+B55+B47+B41+B30+B29+B28+B12+B6+B7+B24+B27+B37+B53+B65+B51+B35+B25+B22+B13)*B90</f>
+      <c r="D90" s="71"/>
+      <c r="E90" s="16">
+        <f>(D67+D61+D55+D47+D41+D30+D29+D28+D12+D6+D7+D24+D27+D37+D53+D65+D51+D35+D25+D22+D13)*C90</f>
         <v>292600</v>
       </c>
-      <c r="E90" s="16">
-        <f>(B65+B53+B51+B37+B35+B27+B25+B24+B22+B21+B13+B12+B7+B6+B39+B45+B55+B47+B14+B15+B41)*B90</f>
+      <c r="F90" s="78">
+        <f>(D65+D53+D51+D37+D35+D27+D25+D24+D22+D21+D13+D12+D7+D6+D39+D45+D55+D47+D14+D15+D41)*C90</f>
         <v>361000</v>
       </c>
-      <c r="F90" s="16">
-        <f>(B65+B53+B51+B45+B39+B37+B35+B27+B25+B24+B23+B22+B21+B16+B15+B14+B13+B12+B7+B6+B29)*B90</f>
+      <c r="G90" s="16">
+        <f>(D65+D53+D51+D45+D39+D37+D35+D27+D25+D24+D23+D22+D21+D16+D15+D14+D13+D12+D7+D6+D29)*C90</f>
         <v>391400</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="67">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B91" s="67">
         <v>22</v>
       </c>
-      <c r="B91" s="16">
+      <c r="C91" s="78">
         <v>0.379</v>
       </c>
-      <c r="D91" s="16">
-        <f>(B67+B61+B55+B47+B41+B30+B29+B28+B12+B6+B7+B27+B24+B37+B53+B65+B13+B22+B25+B51+B35+B21)*B91</f>
+      <c r="D91" s="71"/>
+      <c r="E91" s="16">
+        <f>(D67+D61+D55+D47+D41+D30+D29+D28+D12+D6+D7+D27+D24+D37+D53+D65+D13+D22+D25+D51+D35+D21)*C91</f>
         <v>312675</v>
       </c>
-      <c r="E91" s="16">
-        <f>(B65+B53+B51+B37+B35+B24+B27+B22+B21+B25+B13+B12+B7+B6+B39+B45+B41+B47+B14+B15+B28+B29)*B91</f>
+      <c r="F91" s="78">
+        <f>(D65+D53+D51+D37+D35+D24+D27+D22+D21+D25+D13+D12+D7+D6+D39+D45+D41+D47+D14+D15+D28+D29)*C91</f>
         <v>369525</v>
       </c>
-      <c r="F91" s="16">
-        <f>(B51+B65+B45+B39+B35+B25+B23+B22+B21+B16+B15+B14+B13+B6+B7+B27+B37+B53+B67+B61+B12+B55)*B91</f>
+      <c r="G91" s="16">
+        <f>(D51+D65+D45+D39+D35+D25+D23+D22+D21+D16+D15+D14+D13+D6+D7+D27+D37+D53+D67+D61+D12+D55)*C91</f>
         <v>394160</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="67">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B92" s="67">
         <v>23</v>
       </c>
-      <c r="B92" s="16">
+      <c r="C92" s="78">
         <v>0.378</v>
       </c>
-      <c r="D92" s="16">
-        <f>(B67+B61+B55+B47+B41+B35+B30+B29+B28+B6+B7+B12+B13+B22+B24+B27+B37+B51+B53+B65+B45+B25+B21)*B92</f>
+      <c r="D92" s="71"/>
+      <c r="E92" s="16">
+        <f>(D67+D61+D55+D47+D41+D35+D30+D29+D28+D6+D7+D12+D13+D22+D24+D27+D37+D51+D53+D65+D45+D25+D21)*C92</f>
         <v>334530</v>
       </c>
-      <c r="E92" s="16">
-        <f>(B65+B53+B51+B37+B35+B27+B25+B24+B22+B21+B13+B12+B7+B6+B39+B45+B61+B67+B14+B15+B16+B28+B29)*B92</f>
+      <c r="F92" s="78">
+        <f>(D65+D53+D51+D37+D35+D27+D25+D24+D22+D21+D13+D12+D7+D6+D39+D45+D61+D67+D14+D15+D16+D28+D29)*C92</f>
         <v>393120</v>
       </c>
-      <c r="F92" s="16">
-        <f>(B65+B53+B51+B45+B39+B35+B25+B23+B22+B21+B16+B15+B14+B13+B7+B6+B27+B37+B61+B67+B55+B47+B41)*B92</f>
+      <c r="G92" s="16">
+        <f>(D65+D53+D51+D45+D39+D35+D25+D23+D22+D21+D16+D15+D14+D13+D7+D6+D27+D37+D61+D67+D55+D47+D41)*C92</f>
         <v>398790</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="67">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B93" s="67">
         <v>24</v>
       </c>
-      <c r="B93" s="16">
+      <c r="C93" s="78">
         <v>0.377</v>
       </c>
-      <c r="D93" s="16">
-        <f>(B67+B61+B55+B47+B41+B30+B29+B28+B12+B6+B7+B24+B27+B37+B53+B22+B13+B21+B25+B51+B65+B35+B45+B39)*B93</f>
+      <c r="D93" s="71"/>
+      <c r="E93" s="16">
+        <f>(D67+D61+D55+D47+D41+D30+D29+D28+D12+D6+D7+D24+D27+D37+D53+D22+D13+D21+D25+D51+D65+D35+D45+D39)*C93</f>
         <v>356265</v>
       </c>
-      <c r="E93" s="16">
-        <f>(B65+B53+B51+B37+B35+B27+B24+B25+B22+B21+B12+B13+B7+B6+B39+B45+B67+B61+B14+B15+B29+B30+B16+B23)*B93</f>
+      <c r="F93" s="78">
+        <f>(D65+D53+D51+D37+D35+D27+D24+D25+D22+D21+D12+D13+D7+D6+D39+D45+D67+D61+D14+D15+D29+D30+D16+D23)*C93</f>
         <v>416585</v>
       </c>
-      <c r="F93" s="16">
-        <f>(B65+B53+B51+B47+B45+B39+B37+B35+B27+B25+B24+B23+B22+B21+B16+B15+B14+B13+B12+B7+B6+B55+B61+B67)*B93</f>
+      <c r="G93" s="16">
+        <f>(D65+D53+D51+D47+D45+D39+D37+D35+D27+D25+D24+D23+D22+D21+D16+D15+D14+D13+D12+D7+D6+D55+D61+D67)*C93</f>
         <v>416585</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="67">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B94" s="67">
         <v>25</v>
       </c>
-      <c r="B94" s="16">
+      <c r="C94" s="78">
         <v>0.376</v>
       </c>
-      <c r="D94" s="16">
-        <f>(B67+B61+B55+B47+B41+B30+B29+B28+B12+B6+B7+B24+B27+B37+B53+B65+B25+B22+B13+B21+B35+B51+B45+B39+B14)*B94</f>
+      <c r="D94" s="71"/>
+      <c r="E94" s="16">
+        <f>(D67+D61+D55+D47+D41+D30+D29+D28+D12+D6+D7+D24+D27+D37+D53+D65+D25+D22+D13+D21+D35+D51+D45+D39+D14)*C94</f>
         <v>379760</v>
       </c>
-      <c r="E94" s="16">
-        <f>(B65+B53+B37+B27+B24+B22+B13+B12+B6+B7+B21+B25+B35+B51+B39+B45+B67+B61+B15+B16+B28+B29+B23+B30+B14)*B94</f>
+      <c r="F94" s="78">
+        <f>(D65+D53+D37+D27+D24+D22+D13+D12+D6+D7+D21+D25+D35+D51+D39+D45+D67+D61+D15+D16+D28+D29+D23+D30+D14)*C94</f>
         <v>424880</v>
       </c>
-      <c r="F94" s="16">
-        <f>+(B65+B53+B51+B45+B39+B37+B35+B27+B25+B24+B23+B22+B21+B16+B15+B14+B13+B12+B7+B6+B67+B61+B55+B47+B41)*B94</f>
+      <c r="G94" s="16">
+        <f>+(D65+D53+D51+D45+D39+D37+D35+D27+D25+D24+D23+D22+D21+D16+D15+D14+D13+D12+D7+D6+D67+D61+D55+D47+D41)*C94</f>
         <v>424880</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="67">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B95" s="67">
         <v>26</v>
       </c>
-      <c r="B95" s="16">
+      <c r="C95" s="78">
         <v>0.375</v>
       </c>
-      <c r="D95" s="16">
-        <f>(B67+B61+B55+B47+B41+B30+B29+B28+B12+B6+B7+B24+B27+B37+B53+B65+B22+B13+B25+B51+B35+B21+B39+B45+B14+B15)*B95</f>
+      <c r="D95" s="71"/>
+      <c r="E95" s="16">
+        <f>(D67+D61+D55+D47+D41+D30+D29+D28+D12+D6+D7+D24+D27+D37+D53+D65+D22+D13+D25+D51+D35+D21+D39+D45+D14+D15)*C95</f>
         <v>403125</v>
       </c>
-      <c r="E95" s="16">
-        <f>(B6+B7+B12+B13+B14+B15+B16+B21+B22+B23+B24+B25+B27+B28+B29+B30+B35+B39+B41+B45+B47+B51+B53+B55+B61+B65+B67)*B95</f>
+      <c r="F95" s="78">
+        <f>(D6+D7+D12+D13+D14+D15+D16+D21+D22+D23+D24+D25+D27+D28+D29+D30+D35+D39+D41+D45+D47+D51+D53+D55+D61+D65+D67)*C95</f>
         <v>436875</v>
       </c>
-      <c r="F95" s="16">
-        <f>(B6+B7+B12+B13+B14+B15+B16+B21+B22+B23+B24+B25+B27+B28+B29+B30+B35+B37+B39+B41+B45+B47+B51+B53+B55+B61+B65)*B95</f>
+      <c r="G95" s="16">
+        <f>(D6+D7+D12+D13+D14+D15+D16+D21+D22+D23+D24+D25+D27+D28+D29+D30+D35+D37+D39+D41+D45+D47+D51+D53+D55+D61+D65)*C95</f>
         <v>442500</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="67">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B96" s="67">
         <v>27</v>
       </c>
-      <c r="B96" s="16">
+      <c r="C96" s="78">
         <v>0.374</v>
       </c>
-      <c r="D96" s="16">
-        <f>(B6+B7+B12+B13+B14+B15+B16+B21+B22+B23+B24+B25+B27+B28+B29+B30+B35+B37+B39+B41+B45+B47+B51+B53+B55+B61+B65+B67)*B96</f>
+      <c r="D96" s="71"/>
+      <c r="E96" s="16">
+        <f>(D6+D7+D12+D13+D14+D15+D16+D21+D22+D23+D24+D25+D27+D28+D29+D30+D35+D37+D39+D41+D45+D47+D51+D53+D55+D61+D65+D67)*C96</f>
         <v>450670</v>
       </c>
-      <c r="E96" s="16">
-        <f>(B6+B7+B12+B13+B14+B15+B16+B21+B22+B23+B24+B25+B27+B28+B29+B30+B35+B37+B39+B41+B45+B47+B51+B53+B55+B61+B65+B67)*B96</f>
+      <c r="F96" s="78">
+        <f>(D6+D7+D12+D13+D14+D15+D16+D21+D22+D23+D24+D25+D27+D28+D29+D30+D35+D37+D39+D41+D45+D47+D51+D53+D55+D61+D65+D67)*C96</f>
         <v>450670</v>
       </c>
-      <c r="F96" s="16">
-        <f>(B6+B7+B12+B13+B14+B15+B16+B21+B22+B23+B24+B25+B27+B28+B29+B30+B35+B37+B39+B41+B45+B47+B51+B53+B55+B61+B65+B67)*B96</f>
+      <c r="G96" s="16">
+        <f>(D6+D7+D12+D13+D14+D15+D16+D21+D22+D23+D24+D25+D27+D28+D29+D30+D35+D37+D39+D41+D45+D47+D51+D53+D55+D61+D65+D67)*C96</f>
         <v>450670</v>
       </c>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A97" s="67"/>
-    </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A98" s="67"/>
-    </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A99" s="67"/>
-    </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A100" s="67"/>
-    </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A101" s="67"/>
-    </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A102" s="67"/>
-      <c r="B102" s="15"/>
-    </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A103" s="67"/>
-      <c r="B103" s="15"/>
-    </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A104" s="67"/>
-    </row>
-    <row r="105" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="67"/>
-      <c r="E105" s="19"/>
-      <c r="F105" s="19"/>
+    <row r="97" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B97" s="67"/>
+    </row>
+    <row r="98" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B98" s="67"/>
+    </row>
+    <row r="99" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B99" s="67"/>
+    </row>
+    <row r="100" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B100" s="67"/>
+    </row>
+    <row r="101" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B101" s="67"/>
+    </row>
+    <row r="102" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B102" s="67"/>
+      <c r="D102" s="15"/>
+    </row>
+    <row r="103" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B103" s="67"/>
+      <c r="D103" s="15"/>
+    </row>
+    <row r="104" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B104" s="67"/>
+    </row>
+    <row r="105" spans="2:33" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B105" s="67"/>
+      <c r="C105" s="78"/>
+      <c r="E105" s="71"/>
+      <c r="F105" s="78"/>
       <c r="G105" s="19"/>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -19176,188 +19685,240 @@
       <c r="K105" s="19"/>
       <c r="L105" s="19"/>
       <c r="M105" s="19"/>
-      <c r="AC105" s="13"/>
-      <c r="AD105" s="13"/>
+      <c r="N105" s="19"/>
+      <c r="O105" s="19"/>
       <c r="AE105" s="13"/>
-    </row>
-    <row r="106" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="63"/>
-      <c r="C106" s="58"/>
-      <c r="E106" s="19"/>
-      <c r="F106" s="19"/>
-      <c r="AC106" s="13"/>
-      <c r="AD106" s="13"/>
+      <c r="AF105" s="13"/>
+      <c r="AG105" s="13"/>
+    </row>
+    <row r="106" spans="2:33" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B106" s="63"/>
+      <c r="C106" s="78"/>
+      <c r="E106" s="71"/>
+      <c r="F106" s="78"/>
+      <c r="G106" s="19"/>
+      <c r="H106" s="19"/>
       <c r="AE106" s="13"/>
-    </row>
-    <row r="107" spans="1:31" s="16" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A107" s="63"/>
-      <c r="B107" s="54"/>
-      <c r="C107" s="54"/>
+      <c r="AF106" s="13"/>
+      <c r="AG106" s="13"/>
+    </row>
+    <row r="107" spans="2:33" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="B107" s="63"/>
+      <c r="C107" s="78"/>
       <c r="D107" s="54"/>
-      <c r="E107" s="54"/>
-      <c r="F107" s="53"/>
-      <c r="G107" s="53"/>
+      <c r="E107" s="73"/>
+      <c r="F107" s="81"/>
+      <c r="G107" s="54"/>
       <c r="H107" s="53"/>
       <c r="I107" s="53"/>
       <c r="J107" s="53"/>
       <c r="K107" s="53"/>
       <c r="L107" s="53"/>
       <c r="M107" s="53"/>
-      <c r="AC107" s="13"/>
-      <c r="AD107" s="13"/>
+      <c r="N107" s="53"/>
+      <c r="O107" s="53"/>
       <c r="AE107" s="13"/>
-    </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A108" s="63"/>
-    </row>
-    <row r="109" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="24"/>
-      <c r="B109" s="18"/>
-    </row>
-    <row r="110" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A110" s="20"/>
-      <c r="B110" s="17"/>
-    </row>
-    <row r="111" spans="1:31" s="16" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A111" s="20"/>
-      <c r="B111" s="17"/>
-      <c r="AC111" s="13"/>
-      <c r="AD111" s="13"/>
+      <c r="AF107" s="13"/>
+      <c r="AG107" s="13"/>
+    </row>
+    <row r="108" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B108" s="63"/>
+    </row>
+    <row r="109" spans="2:33" ht="16" x14ac:dyDescent="0.2">
+      <c r="B109" s="24"/>
+      <c r="D109" s="18"/>
+    </row>
+    <row r="110" spans="2:33" ht="19" x14ac:dyDescent="0.25">
+      <c r="B110" s="20"/>
+      <c r="D110" s="17"/>
+    </row>
+    <row r="111" spans="2:33" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="B111" s="20"/>
+      <c r="C111" s="78"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="71"/>
+      <c r="F111" s="78"/>
       <c r="AE111" s="13"/>
-    </row>
-    <row r="112" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112"/>
-      <c r="AC112" s="13"/>
-      <c r="AD112" s="13"/>
+      <c r="AF111" s="13"/>
+      <c r="AG111" s="13"/>
+    </row>
+    <row r="112" spans="2:33" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B112"/>
+      <c r="C112" s="78"/>
+      <c r="E112" s="71"/>
+      <c r="F112" s="78"/>
       <c r="AE112" s="13"/>
-    </row>
-    <row r="113" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="24"/>
-    </row>
-    <row r="114" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="20"/>
+      <c r="AF112" s="13"/>
+      <c r="AG112" s="13"/>
+    </row>
+    <row r="113" spans="2:33" ht="16" x14ac:dyDescent="0.2">
+      <c r="B113" s="24"/>
+    </row>
+    <row r="114" spans="2:33" ht="16" x14ac:dyDescent="0.2">
       <c r="B114" s="20"/>
-    </row>
-    <row r="115" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="20"/>
+      <c r="D114" s="20"/>
+    </row>
+    <row r="115" spans="2:33" ht="16" x14ac:dyDescent="0.2">
       <c r="B115" s="20"/>
-    </row>
-    <row r="116" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="20"/>
+      <c r="D115" s="20"/>
+    </row>
+    <row r="116" spans="2:33" ht="16" x14ac:dyDescent="0.2">
       <c r="B116" s="20"/>
-    </row>
-    <row r="117" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="20"/>
+      <c r="D116" s="20"/>
+    </row>
+    <row r="117" spans="2:33" ht="16" x14ac:dyDescent="0.2">
       <c r="B117" s="20"/>
-    </row>
-    <row r="118" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="20"/>
+      <c r="D117" s="20"/>
+    </row>
+    <row r="118" spans="2:33" ht="16" x14ac:dyDescent="0.2">
       <c r="B118" s="20"/>
-    </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A122" s="63"/>
-    </row>
-    <row r="123" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A123" s="63"/>
-    </row>
-    <row r="124" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="63"/>
-      <c r="AC124" s="13"/>
-      <c r="AD124" s="13"/>
+      <c r="D118" s="20"/>
+    </row>
+    <row r="122" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B122" s="63"/>
+    </row>
+    <row r="123" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B123" s="63"/>
+    </row>
+    <row r="124" spans="2:33" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B124" s="63"/>
+      <c r="C124" s="78"/>
+      <c r="E124" s="71"/>
+      <c r="F124" s="78"/>
       <c r="AE124" s="13"/>
-    </row>
-    <row r="125" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="63"/>
-      <c r="AC125" s="13"/>
-      <c r="AD125" s="13"/>
+      <c r="AF124" s="13"/>
+      <c r="AG124" s="13"/>
+    </row>
+    <row r="125" spans="2:33" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B125" s="63"/>
+      <c r="C125" s="78"/>
+      <c r="E125" s="71"/>
+      <c r="F125" s="78"/>
       <c r="AE125" s="13"/>
-    </row>
-    <row r="195" spans="1:31" s="16" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A195" s="14"/>
-      <c r="C195" s="19"/>
-      <c r="D195" s="19"/>
-      <c r="AC195" s="13"/>
-      <c r="AD195" s="13"/>
+      <c r="AF125" s="13"/>
+      <c r="AG125" s="13"/>
+    </row>
+    <row r="195" spans="2:33" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="B195" s="14"/>
+      <c r="C195" s="78"/>
+      <c r="E195" s="74"/>
+      <c r="F195" s="82"/>
       <c r="AE195" s="13"/>
-    </row>
-    <row r="196" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A196"/>
-      <c r="C196" s="19"/>
-      <c r="D196" s="19"/>
-      <c r="AC196" s="13"/>
-      <c r="AD196" s="13"/>
+      <c r="AF195" s="13"/>
+      <c r="AG195" s="13"/>
+    </row>
+    <row r="196" spans="2:33" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B196"/>
+      <c r="C196" s="78"/>
+      <c r="E196" s="74"/>
+      <c r="F196" s="82"/>
       <c r="AE196" s="13"/>
-    </row>
-    <row r="197" spans="1:31" s="16" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A197" s="14"/>
-      <c r="C197" s="19"/>
-      <c r="D197" s="19"/>
-      <c r="AC197" s="13"/>
-      <c r="AD197" s="13"/>
+      <c r="AF196" s="13"/>
+      <c r="AG196" s="13"/>
+    </row>
+    <row r="197" spans="2:33" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="B197" s="14"/>
+      <c r="C197" s="78"/>
+      <c r="E197" s="74"/>
+      <c r="F197" s="82"/>
       <c r="AE197" s="13"/>
-    </row>
-    <row r="200" spans="1:31" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A200" s="24"/>
-      <c r="AC200" s="13"/>
-      <c r="AD200" s="13"/>
+      <c r="AF197" s="13"/>
+      <c r="AG197" s="13"/>
+    </row>
+    <row r="200" spans="2:33" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B200" s="24"/>
+      <c r="C200" s="78"/>
+      <c r="E200" s="71"/>
+      <c r="F200" s="78"/>
       <c r="AE200" s="13"/>
-    </row>
-    <row r="201" spans="1:31" s="16" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A201" s="20"/>
-      <c r="B201" s="17"/>
-      <c r="AC201" s="13"/>
-      <c r="AD201" s="13"/>
+      <c r="AF200" s="13"/>
+      <c r="AG200" s="13"/>
+    </row>
+    <row r="201" spans="2:33" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="B201" s="20"/>
+      <c r="C201" s="78"/>
+      <c r="D201" s="17"/>
+      <c r="E201" s="71"/>
+      <c r="F201" s="78"/>
       <c r="AE201" s="13"/>
-    </row>
-    <row r="202" spans="1:31" s="16" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A202" s="20"/>
-      <c r="B202" s="17"/>
-      <c r="AC202" s="13"/>
-      <c r="AD202" s="13"/>
+      <c r="AF201" s="13"/>
+      <c r="AG201" s="13"/>
+    </row>
+    <row r="202" spans="2:33" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="B202" s="20"/>
+      <c r="C202" s="78"/>
+      <c r="D202" s="17"/>
+      <c r="E202" s="71"/>
+      <c r="F202" s="78"/>
       <c r="AE202" s="13"/>
-    </row>
-    <row r="204" spans="1:31" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A204" s="24"/>
-      <c r="AC204" s="13"/>
-      <c r="AD204" s="13"/>
+      <c r="AF202" s="13"/>
+      <c r="AG202" s="13"/>
+    </row>
+    <row r="204" spans="2:33" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B204" s="24"/>
+      <c r="C204" s="78"/>
+      <c r="E204" s="71"/>
+      <c r="F204" s="78"/>
       <c r="AE204" s="13"/>
-    </row>
-    <row r="205" spans="1:31" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A205" s="20"/>
+      <c r="AF204" s="13"/>
+      <c r="AG204" s="13"/>
+    </row>
+    <row r="205" spans="2:33" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B205" s="20"/>
-      <c r="AC205" s="13"/>
-      <c r="AD205" s="13"/>
+      <c r="C205" s="78"/>
+      <c r="D205" s="20"/>
+      <c r="E205" s="71"/>
+      <c r="F205" s="78"/>
       <c r="AE205" s="13"/>
-    </row>
-    <row r="206" spans="1:31" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A206" s="20"/>
+      <c r="AF205" s="13"/>
+      <c r="AG205" s="13"/>
+    </row>
+    <row r="206" spans="2:33" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B206" s="20"/>
-      <c r="AC206" s="13"/>
-      <c r="AD206" s="13"/>
+      <c r="C206" s="78"/>
+      <c r="D206" s="20"/>
+      <c r="E206" s="71"/>
+      <c r="F206" s="78"/>
       <c r="AE206" s="13"/>
-    </row>
-    <row r="207" spans="1:31" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A207" s="20"/>
+      <c r="AF206" s="13"/>
+      <c r="AG206" s="13"/>
+    </row>
+    <row r="207" spans="2:33" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B207" s="20"/>
-      <c r="AC207" s="13"/>
-      <c r="AD207" s="13"/>
+      <c r="C207" s="78"/>
+      <c r="D207" s="20"/>
+      <c r="E207" s="71"/>
+      <c r="F207" s="78"/>
       <c r="AE207" s="13"/>
-    </row>
-    <row r="208" spans="1:31" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A208" s="20"/>
+      <c r="AF207" s="13"/>
+      <c r="AG207" s="13"/>
+    </row>
+    <row r="208" spans="2:33" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B208" s="20"/>
-      <c r="AC208" s="13"/>
-      <c r="AD208" s="13"/>
+      <c r="C208" s="78"/>
+      <c r="D208" s="20"/>
+      <c r="E208" s="71"/>
+      <c r="F208" s="78"/>
       <c r="AE208" s="13"/>
-    </row>
-    <row r="209" spans="1:31" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A209" s="20"/>
+      <c r="AF208" s="13"/>
+      <c r="AG208" s="13"/>
+    </row>
+    <row r="209" spans="2:33" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B209" s="20"/>
-      <c r="AC209" s="13"/>
-      <c r="AD209" s="13"/>
+      <c r="C209" s="78"/>
+      <c r="D209" s="20"/>
+      <c r="E209" s="71"/>
+      <c r="F209" s="78"/>
       <c r="AE209" s="13"/>
+      <c r="AF209" s="13"/>
+      <c r="AG209" s="13"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/public/local/fixtures/calculator/Техническая экспертиза калькуляторы.xlsx
+++ b/public/local/fixtures/calculator/Техническая экспертиза калькуляторы.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="920" yWindow="460" windowWidth="37580" windowHeight="21140" activeTab="1"/>
+    <workbookView xWindow="900" yWindow="460" windowWidth="37580" windowHeight="21140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Экспертиза одного здания" sheetId="4" r:id="rId1"/>
@@ -2544,7 +2544,7 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2716,6 +2716,7 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -18195,8 +18196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AG209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18682,6 +18683,7 @@
       <c r="B28" s="6" t="s">
         <v>456</v>
       </c>
+      <c r="C28" s="83"/>
       <c r="D28" s="68">
         <v>25000</v>
       </c>
@@ -18694,6 +18696,7 @@
       <c r="B29" s="6" t="s">
         <v>457</v>
       </c>
+      <c r="C29" s="83"/>
       <c r="D29" s="68">
         <v>25000</v>
       </c>
@@ -18706,6 +18709,7 @@
       <c r="B30" s="6" t="s">
         <v>458</v>
       </c>
+      <c r="C30" s="83"/>
       <c r="D30" s="68">
         <v>25000</v>
       </c>

--- a/public/local/fixtures/calculator/Техническая экспертиза калькуляторы.xlsx
+++ b/public/local/fixtures/calculator/Техническая экспертиза калькуляторы.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="900" yWindow="460" windowWidth="37580" windowHeight="21140" activeTab="1"/>
+    <workbookView xWindow="960" yWindow="460" windowWidth="37580" windowHeight="21140"/>
   </bookViews>
   <sheets>
     <sheet name="Экспертиза одного здания" sheetId="4" r:id="rId1"/>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>Московская область</t>
-  </si>
-  <si>
-    <t>Санкт-Петерьборг</t>
   </si>
   <si>
     <t>Ленинградская область</t>
@@ -1768,6 +1765,9 @@
   </si>
   <si>
     <t>Не более 10 помещений</t>
+  </si>
+  <si>
+    <t>Санкт-Петербург</t>
   </si>
 </sst>
 </file>
@@ -3056,8 +3056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE614"/>
   <sheetViews>
-    <sheetView topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="B149" sqref="B149"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3087,7 +3087,7 @@
     </row>
     <row r="4" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B4" s="15"/>
     </row>
@@ -3097,7 +3097,7 @@
     </row>
     <row r="6" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B6" s="15">
         <v>1</v>
@@ -3105,7 +3105,7 @@
     </row>
     <row r="7" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B7" s="15">
         <v>1</v>
@@ -3117,7 +3117,7 @@
     </row>
     <row r="9" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B9" s="15"/>
     </row>
@@ -3131,13 +3131,13 @@
     </row>
     <row r="11" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B11" s="15"/>
     </row>
     <row r="12" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B12" s="15">
         <v>1</v>
@@ -3145,7 +3145,7 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B13" s="15">
         <v>0.9</v>
@@ -3191,7 +3191,7 @@
     </row>
     <row r="18" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>9</v>
+        <v>526</v>
       </c>
       <c r="B18" s="15">
         <v>2</v>
@@ -3202,7 +3202,7 @@
     </row>
     <row r="19" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" s="15">
         <v>2</v>
@@ -3213,7 +3213,7 @@
     </row>
     <row r="20" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" s="15">
         <v>2.2000000000000002</v>
@@ -3224,7 +3224,7 @@
     </row>
     <row r="21" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="15">
         <v>2.5</v>
@@ -3235,7 +3235,7 @@
     </row>
     <row r="22" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="15">
         <v>3</v>
@@ -3246,7 +3246,7 @@
     </row>
     <row r="23" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" s="15">
         <v>2</v>
@@ -3257,7 +3257,7 @@
     </row>
     <row r="24" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" s="15">
         <v>2</v>
@@ -3268,7 +3268,7 @@
     </row>
     <row r="25" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" s="15">
         <v>2</v>
@@ -3279,7 +3279,7 @@
     </row>
     <row r="26" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26" s="15">
         <v>2</v>
@@ -3290,7 +3290,7 @@
     </row>
     <row r="27" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27" s="15">
         <v>1.8</v>
@@ -3301,7 +3301,7 @@
     </row>
     <row r="28" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" s="15">
         <v>2.5</v>
@@ -3312,7 +3312,7 @@
     </row>
     <row r="29" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" s="15">
         <v>1.2</v>
@@ -3323,7 +3323,7 @@
     </row>
     <row r="30" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" s="15">
         <v>2.2000000000000002</v>
@@ -3334,7 +3334,7 @@
     </row>
     <row r="31" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" s="15">
         <v>1.5</v>
@@ -3345,7 +3345,7 @@
     </row>
     <row r="32" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" s="15">
         <v>1.8</v>
@@ -3356,7 +3356,7 @@
     </row>
     <row r="33" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" s="15">
         <v>2</v>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="34" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" s="15">
         <v>3</v>
@@ -3378,7 +3378,7 @@
     </row>
     <row r="35" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" s="15">
         <v>3</v>
@@ -3389,7 +3389,7 @@
     </row>
     <row r="36" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" s="15">
         <v>1.5</v>
@@ -3400,7 +3400,7 @@
     </row>
     <row r="37" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" s="15">
         <v>2</v>
@@ -3411,7 +3411,7 @@
     </row>
     <row r="38" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" s="15">
         <v>2.5</v>
@@ -3422,7 +3422,7 @@
     </row>
     <row r="39" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B39" s="15">
         <v>2</v>
@@ -3433,7 +3433,7 @@
     </row>
     <row r="40" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B40" s="15">
         <v>2</v>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="41" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B41" s="15">
         <v>2</v>
@@ -3455,7 +3455,7 @@
     </row>
     <row r="42" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B42" s="15">
         <v>1.5</v>
@@ -3466,7 +3466,7 @@
     </row>
     <row r="43" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B43" s="15">
         <v>3</v>
@@ -3477,7 +3477,7 @@
     </row>
     <row r="44" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B44" s="15">
         <v>2</v>
@@ -3488,7 +3488,7 @@
     </row>
     <row r="45" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B45" s="15">
         <v>2</v>
@@ -3499,7 +3499,7 @@
     </row>
     <row r="46" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B46" s="15">
         <v>2.5</v>
@@ -3510,7 +3510,7 @@
     </row>
     <row r="47" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B47" s="15">
         <v>2</v>
@@ -3521,7 +3521,7 @@
     </row>
     <row r="48" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B48" s="15">
         <v>2.5</v>
@@ -3532,7 +3532,7 @@
     </row>
     <row r="49" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B49" s="15">
         <v>2</v>
@@ -3543,7 +3543,7 @@
     </row>
     <row r="50" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B50" s="15">
         <v>2</v>
@@ -3554,7 +3554,7 @@
     </row>
     <row r="51" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B51" s="15">
         <v>2.5</v>
@@ -3565,7 +3565,7 @@
     </row>
     <row r="52" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B52" s="15">
         <v>2.2000000000000002</v>
@@ -3576,7 +3576,7 @@
     </row>
     <row r="53" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B53" s="15">
         <v>2.5</v>
@@ -3587,7 +3587,7 @@
     </row>
     <row r="54" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B54" s="15">
         <v>2</v>
@@ -3598,7 +3598,7 @@
     </row>
     <row r="55" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B55" s="15">
         <v>2</v>
@@ -3609,7 +3609,7 @@
     </row>
     <row r="56" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B56" s="15">
         <v>3</v>
@@ -3620,7 +3620,7 @@
     </row>
     <row r="57" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B57" s="15">
         <v>3</v>
@@ -3631,7 +3631,7 @@
     </row>
     <row r="58" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B58" s="15">
         <v>2</v>
@@ -3642,7 +3642,7 @@
     </row>
     <row r="59" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B59" s="15">
         <v>2.5</v>
@@ -3653,7 +3653,7 @@
     </row>
     <row r="60" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B60" s="15">
         <v>2.5</v>
@@ -3664,7 +3664,7 @@
     </row>
     <row r="61" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B61" s="15">
         <v>2</v>
@@ -3675,7 +3675,7 @@
     </row>
     <row r="62" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B62" s="15">
         <v>2</v>
@@ -3686,7 +3686,7 @@
     </row>
     <row r="63" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B63" s="15">
         <v>2.5</v>
@@ -3697,7 +3697,7 @@
     </row>
     <row r="64" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B64" s="15">
         <v>2.2999999999999998</v>
@@ -3708,7 +3708,7 @@
     </row>
     <row r="65" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B65" s="15">
         <v>2.2999999999999998</v>
@@ -3719,7 +3719,7 @@
     </row>
     <row r="66" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B66" s="15">
         <v>1.8</v>
@@ -3730,7 +3730,7 @@
     </row>
     <row r="67" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B67" s="15">
         <v>2</v>
@@ -3741,7 +3741,7 @@
     </row>
     <row r="68" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B68" s="15">
         <v>2.5</v>
@@ -3752,7 +3752,7 @@
     </row>
     <row r="69" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B69" s="15">
         <v>3</v>
@@ -3763,7 +3763,7 @@
     </row>
     <row r="70" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B70" s="15">
         <v>2</v>
@@ -3774,7 +3774,7 @@
     </row>
     <row r="71" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B71" s="15">
         <v>2.5</v>
@@ -3785,7 +3785,7 @@
     </row>
     <row r="72" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B72" s="15">
         <v>2</v>
@@ -3796,7 +3796,7 @@
     </row>
     <row r="73" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B73" s="15">
         <v>1.5</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="74" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B74" s="15">
         <v>2</v>
@@ -3818,7 +3818,7 @@
     </row>
     <row r="75" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B75" s="15">
         <v>2</v>
@@ -3829,7 +3829,7 @@
     </row>
     <row r="76" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B76" s="15">
         <v>3</v>
@@ -3840,7 +3840,7 @@
     </row>
     <row r="77" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B77" s="15">
         <v>2.8</v>
@@ -3851,7 +3851,7 @@
     </row>
     <row r="78" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B78" s="15">
         <v>2.5</v>
@@ -3862,7 +3862,7 @@
     </row>
     <row r="79" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B79" s="15">
         <v>2</v>
@@ -3873,7 +3873,7 @@
     </row>
     <row r="80" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B80" s="15">
         <v>1.8</v>
@@ -3884,7 +3884,7 @@
     </row>
     <row r="81" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B81" s="15">
         <v>2</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="82" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B82" s="15">
         <v>1.8</v>
@@ -3906,7 +3906,7 @@
     </row>
     <row r="83" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B83" s="15">
         <v>2.2000000000000002</v>
@@ -3917,7 +3917,7 @@
     </row>
     <row r="84" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B84" s="15">
         <v>1.5</v>
@@ -3928,7 +3928,7 @@
     </row>
     <row r="85" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B85" s="15">
         <v>2.5</v>
@@ -3939,7 +3939,7 @@
     </row>
     <row r="86" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B86" s="15">
         <v>1.8</v>
@@ -3950,7 +3950,7 @@
     </row>
     <row r="87" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B87" s="15">
         <v>2.5</v>
@@ -3961,7 +3961,7 @@
     </row>
     <row r="88" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B88" s="15">
         <v>2.2000000000000002</v>
@@ -3972,7 +3972,7 @@
     </row>
     <row r="89" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B89" s="15">
         <v>2.5</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="90" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B90" s="15">
         <v>2.2000000000000002</v>
@@ -3994,7 +3994,7 @@
     </row>
     <row r="91" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B91" s="15">
         <v>3</v>
@@ -4005,7 +4005,7 @@
     </row>
     <row r="92" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B92" s="15">
         <v>2.8</v>
@@ -4016,7 +4016,7 @@
     </row>
     <row r="93" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B93" s="15">
         <v>2.5</v>
@@ -4027,7 +4027,7 @@
     </row>
     <row r="94" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B94" s="15">
         <v>2.2000000000000002</v>
@@ -4038,7 +4038,7 @@
     </row>
     <row r="95" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B95" s="15">
         <v>2</v>
@@ -4049,7 +4049,7 @@
     </row>
     <row r="96" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B96" s="15">
         <v>2</v>
@@ -4060,7 +4060,7 @@
     </row>
     <row r="97" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B97" s="15">
         <v>3</v>
@@ -4071,7 +4071,7 @@
     </row>
     <row r="98" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B98" s="15">
         <v>2.8</v>
@@ -4082,7 +4082,7 @@
     </row>
     <row r="99" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B99" s="15">
         <v>1.8</v>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="103" spans="1:31" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B103" s="15"/>
       <c r="AC103" s="13"/>
@@ -4125,7 +4125,7 @@
     </row>
     <row r="104" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B104" s="15">
         <v>1</v>
@@ -4136,7 +4136,7 @@
     </row>
     <row r="105" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B105" s="15">
         <v>0.92</v>
@@ -4147,7 +4147,7 @@
     </row>
     <row r="106" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B106" s="15">
         <v>0.95</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="108" spans="1:31" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B108" s="15"/>
       <c r="AC108" s="13"/>
@@ -4174,7 +4174,7 @@
     </row>
     <row r="109" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B109" s="15">
         <v>0.8</v>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="110" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B110" s="15">
         <v>0.8</v>
@@ -4198,7 +4198,7 @@
     </row>
     <row r="111" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B111" s="15">
         <v>0.8</v>
@@ -4210,7 +4210,7 @@
     </row>
     <row r="112" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B112" s="15">
         <v>0.9</v>
@@ -4222,7 +4222,7 @@
     </row>
     <row r="113" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B113" s="15">
         <v>0.8</v>
@@ -4234,7 +4234,7 @@
     </row>
     <row r="114" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B114" s="15">
         <v>0.9</v>
@@ -4246,7 +4246,7 @@
     </row>
     <row r="115" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B115" s="15">
         <v>0.9</v>
@@ -4258,7 +4258,7 @@
     </row>
     <row r="116" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B116" s="15">
         <v>1</v>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="117" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B117" s="15">
         <v>1.1000000000000001</v>
@@ -4282,7 +4282,7 @@
     </row>
     <row r="118" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B118" s="15">
         <v>1.1000000000000001</v>
@@ -4294,7 +4294,7 @@
     </row>
     <row r="119" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B119" s="15">
         <v>1.1000000000000001</v>
@@ -4306,7 +4306,7 @@
     </row>
     <row r="120" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B120" s="15">
         <v>1</v>
@@ -4318,7 +4318,7 @@
     </row>
     <row r="121" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B121" s="15">
         <v>1</v>
@@ -4330,7 +4330,7 @@
     </row>
     <row r="122" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B122" s="15">
         <v>1</v>
@@ -4342,7 +4342,7 @@
     </row>
     <row r="123" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B123" s="15">
         <v>1</v>
@@ -4354,7 +4354,7 @@
     </row>
     <row r="124" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B124" s="15">
         <v>1</v>
@@ -4366,7 +4366,7 @@
     </row>
     <row r="125" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B125" s="15">
         <v>1</v>
@@ -4378,7 +4378,7 @@
     </row>
     <row r="126" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B126" s="15">
         <v>1</v>
@@ -4390,7 +4390,7 @@
     </row>
     <row r="127" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B127" s="15">
         <v>1</v>
@@ -4402,7 +4402,7 @@
     </row>
     <row r="128" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B128" s="15">
         <v>0.8</v>
@@ -4414,7 +4414,7 @@
     </row>
     <row r="129" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B129" s="15">
         <v>0.8</v>
@@ -4426,7 +4426,7 @@
     </row>
     <row r="130" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="61" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B130" s="15"/>
       <c r="D130" s="58"/>
@@ -4443,7 +4443,7 @@
     </row>
     <row r="132" spans="1:31" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B132" s="15"/>
       <c r="AC132" s="13"/>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="133" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B133" s="15"/>
       <c r="AC133" s="13"/>
@@ -4461,7 +4461,7 @@
     </row>
     <row r="134" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B134" s="15"/>
       <c r="AC134" s="13"/>
@@ -4470,7 +4470,7 @@
     </row>
     <row r="135" spans="1:31" s="16" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B135" s="15">
         <v>1.5</v>
@@ -4481,7 +4481,7 @@
     </row>
     <row r="136" spans="1:31" s="16" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B136" s="15">
         <v>1.25</v>
@@ -4492,7 +4492,7 @@
     </row>
     <row r="137" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B137" s="15">
         <v>1.28</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="138" spans="1:31" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B138" s="15">
         <v>1.22</v>
@@ -4514,7 +4514,7 @@
     </row>
     <row r="139" spans="1:31" s="16" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B139" s="15">
         <v>1.2</v>
@@ -4525,7 +4525,7 @@
     </row>
     <row r="140" spans="1:31" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B140" s="15">
         <v>1</v>
@@ -4536,7 +4536,7 @@
     </row>
     <row r="141" spans="1:31" s="16" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B141" s="15">
         <v>1</v>
@@ -4547,7 +4547,7 @@
     </row>
     <row r="142" spans="1:31" s="16" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B142" s="15">
         <v>0.9</v>
@@ -4558,7 +4558,7 @@
     </row>
     <row r="143" spans="1:31" s="16" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B143" s="15">
         <v>0.9</v>
@@ -4569,7 +4569,7 @@
     </row>
     <row r="144" spans="1:31" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B144" s="15">
         <v>0.9</v>
@@ -4580,7 +4580,7 @@
     </row>
     <row r="145" spans="1:31" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B145" s="15">
         <v>1</v>
@@ -4591,7 +4591,7 @@
     </row>
     <row r="146" spans="1:31" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B146" s="15">
         <v>0.9</v>
@@ -4602,7 +4602,7 @@
     </row>
     <row r="147" spans="1:31" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B147" s="15">
         <v>0.8</v>
@@ -4613,7 +4613,7 @@
     </row>
     <row r="148" spans="1:31" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B148" s="15"/>
       <c r="AC148" s="13"/>
@@ -4622,7 +4622,7 @@
     </row>
     <row r="149" spans="1:31" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B149" s="33">
         <v>1</v>
@@ -4643,7 +4643,7 @@
         <v>6</v>
       </c>
       <c r="H149" s="33" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I149" s="33"/>
       <c r="J149" s="33"/>
@@ -4659,7 +4659,7 @@
     </row>
     <row r="150" spans="1:31" s="16" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B150" s="18">
         <v>0.51</v>
@@ -4699,7 +4699,7 @@
     </row>
     <row r="151" spans="1:31" s="16" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B151" s="18">
         <v>0.6</v>
@@ -4739,7 +4739,7 @@
     </row>
     <row r="152" spans="1:31" s="16" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B152" s="18">
         <v>0.41</v>
@@ -4779,7 +4779,7 @@
     </row>
     <row r="153" spans="1:31" s="16" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B153" s="18">
         <v>0.4</v>
@@ -4819,7 +4819,7 @@
     </row>
     <row r="154" spans="1:31" s="16" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B154" s="18">
         <v>0.41</v>
@@ -4859,7 +4859,7 @@
     </row>
     <row r="155" spans="1:31" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B155" s="18">
         <v>0.51</v>
@@ -4899,7 +4899,7 @@
     </row>
     <row r="156" spans="1:31" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B156" s="18">
         <v>0.4</v>
@@ -4939,7 +4939,7 @@
     </row>
     <row r="157" spans="1:31" s="16" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B157" s="18">
         <v>0.7</v>
@@ -4979,7 +4979,7 @@
     </row>
     <row r="158" spans="1:31" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B158" s="18">
         <v>0.41</v>
@@ -5019,7 +5019,7 @@
     </row>
     <row r="159" spans="1:31" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B159" s="18">
         <v>0.4</v>
@@ -5059,7 +5059,7 @@
     </row>
     <row r="160" spans="1:31" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B160" s="18">
         <v>0.51</v>
@@ -5098,7 +5098,7 @@
     </row>
     <row r="161" spans="1:31" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B161" s="18">
         <v>0.4</v>
@@ -5137,7 +5137,7 @@
     </row>
     <row r="162" spans="1:31" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B162" s="18">
         <v>0.6</v>
@@ -5176,7 +5176,7 @@
     </row>
     <row r="163" spans="1:31" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B163" s="18">
         <v>0.4</v>
@@ -5215,7 +5215,7 @@
     </row>
     <row r="164" spans="1:31" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B164" s="18">
         <v>0.6</v>
@@ -5254,7 +5254,7 @@
     </row>
     <row r="165" spans="1:31" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B165" s="18">
         <v>0.41</v>
@@ -5293,7 +5293,7 @@
     </row>
     <row r="166" spans="1:31" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B166" s="18">
         <v>0.6</v>
@@ -5332,7 +5332,7 @@
     </row>
     <row r="167" spans="1:31" s="16" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B167" s="18">
         <v>0.52</v>
@@ -5371,7 +5371,7 @@
     </row>
     <row r="168" spans="1:31" s="16" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B168" s="33">
         <v>1</v>
@@ -5380,19 +5380,19 @@
         <v>2</v>
       </c>
       <c r="D168" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="E168" s="33" t="s">
         <v>405</v>
       </c>
-      <c r="E168" s="33" t="s">
+      <c r="F168" s="33" t="s">
         <v>406</v>
       </c>
-      <c r="F168" s="33" t="s">
+      <c r="G168" s="33" t="s">
         <v>407</v>
       </c>
-      <c r="G168" s="33" t="s">
-        <v>408</v>
-      </c>
       <c r="H168" s="33" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I168" s="31"/>
       <c r="J168" s="31"/>
@@ -5404,7 +5404,7 @@
     </row>
     <row r="169" spans="1:31" s="16" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B169" s="34">
         <v>0.55000000000000004</v>
@@ -5443,7 +5443,7 @@
     </row>
     <row r="170" spans="1:31" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B170" s="37">
         <v>0.4</v>
@@ -5482,7 +5482,7 @@
     </row>
     <row r="171" spans="1:31" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B171" s="37">
         <v>0.45</v>
@@ -5521,7 +5521,7 @@
     </row>
     <row r="172" spans="1:31" s="16" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B172" s="37">
         <v>0.35</v>
@@ -5560,7 +5560,7 @@
     </row>
     <row r="173" spans="1:31" s="16" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B173" s="37">
         <v>0.4</v>
@@ -5599,7 +5599,7 @@
     </row>
     <row r="174" spans="1:31" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B174" s="37">
         <v>0.35</v>
@@ -5638,7 +5638,7 @@
     </row>
     <row r="175" spans="1:31" s="16" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B175" s="37">
         <v>0.41</v>
@@ -5677,7 +5677,7 @@
     </row>
     <row r="176" spans="1:31" s="16" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B176" s="37">
         <v>0.35</v>
@@ -5716,7 +5716,7 @@
     </row>
     <row r="177" spans="1:31" s="16" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B177" s="40">
         <v>0.55000000000000004</v>
@@ -5755,7 +5755,7 @@
     </row>
     <row r="178" spans="1:31" s="16" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B178" s="15"/>
       <c r="AC178" s="13"/>
@@ -5764,7 +5764,7 @@
     </row>
     <row r="179" spans="1:31" s="16" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B179" s="15">
         <v>0.6</v>
@@ -5775,7 +5775,7 @@
     </row>
     <row r="180" spans="1:31" s="16" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B180" s="15">
         <v>0.45</v>
@@ -5793,7 +5793,7 @@
     </row>
     <row r="182" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B182" s="15"/>
       <c r="AC182" s="13"/>
@@ -5802,7 +5802,7 @@
     </row>
     <row r="183" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B183" s="15"/>
       <c r="AC183" s="13"/>
@@ -5811,7 +5811,7 @@
     </row>
     <row r="184" spans="1:31" s="16" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B184" s="15">
         <v>1.4</v>
@@ -5822,7 +5822,7 @@
     </row>
     <row r="185" spans="1:31" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B185" s="15">
         <v>1.2</v>
@@ -5833,7 +5833,7 @@
     </row>
     <row r="186" spans="1:31" s="16" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B186" s="15">
         <v>1.25</v>
@@ -5844,7 +5844,7 @@
     </row>
     <row r="187" spans="1:31" s="16" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B187" s="15">
         <v>1.0900000000000001</v>
@@ -5855,7 +5855,7 @@
     </row>
     <row r="188" spans="1:31" s="16" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B188" s="15">
         <v>1.1000000000000001</v>
@@ -5866,7 +5866,7 @@
     </row>
     <row r="189" spans="1:31" s="16" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B189" s="15">
         <v>0.95</v>
@@ -5877,7 +5877,7 @@
     </row>
     <row r="190" spans="1:31" s="16" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B190" s="15">
         <v>0.95</v>
@@ -5888,7 +5888,7 @@
     </row>
     <row r="191" spans="1:31" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B191" s="15">
         <v>0.85</v>
@@ -5899,7 +5899,7 @@
     </row>
     <row r="192" spans="1:31" s="16" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B192" s="15">
         <v>0.85</v>
@@ -5910,7 +5910,7 @@
     </row>
     <row r="193" spans="1:31" s="16" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B193" s="15">
         <v>0.85</v>
@@ -5921,7 +5921,7 @@
     </row>
     <row r="194" spans="1:31" s="16" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B194" s="15">
         <v>0.75</v>
@@ -5932,7 +5932,7 @@
     </row>
     <row r="195" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B195" s="15"/>
       <c r="AC195" s="13"/>
@@ -5941,7 +5941,7 @@
     </row>
     <row r="196" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B196" s="33">
         <v>1</v>
@@ -5962,7 +5962,7 @@
         <v>6</v>
       </c>
       <c r="H196" s="33" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AC196" s="13"/>
       <c r="AD196" s="13"/>
@@ -5970,7 +5970,7 @@
     </row>
     <row r="197" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A197" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B197" s="18">
         <v>0.49</v>
@@ -6005,7 +6005,7 @@
     </row>
     <row r="198" spans="1:31" s="16" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B198" s="18">
         <v>0.57999999999999996</v>
@@ -6040,7 +6040,7 @@
     </row>
     <row r="199" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B199" s="18">
         <v>0.39</v>
@@ -6075,7 +6075,7 @@
     </row>
     <row r="200" spans="1:31" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A200" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B200" s="18">
         <v>0.38</v>
@@ -6110,7 +6110,7 @@
     </row>
     <row r="201" spans="1:31" s="16" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B201" s="18">
         <v>0.39</v>
@@ -6145,7 +6145,7 @@
     </row>
     <row r="202" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A202" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B202" s="18">
         <v>0.49</v>
@@ -6180,7 +6180,7 @@
     </row>
     <row r="203" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A203" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B203" s="18">
         <v>0.39</v>
@@ -6215,7 +6215,7 @@
     </row>
     <row r="204" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A204" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B204" s="18">
         <v>0.68</v>
@@ -6250,7 +6250,7 @@
     </row>
     <row r="205" spans="1:31" s="16" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B205" s="18">
         <v>0.39</v>
@@ -6285,7 +6285,7 @@
     </row>
     <row r="206" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A206" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B206" s="18">
         <v>0.38</v>
@@ -6320,7 +6320,7 @@
     </row>
     <row r="207" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A207" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B207" s="18">
         <v>0.49</v>
@@ -6355,7 +6355,7 @@
     </row>
     <row r="208" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A208" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B208" s="18">
         <v>0.38</v>
@@ -6390,7 +6390,7 @@
     </row>
     <row r="209" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A209" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B209" s="18">
         <v>0.56999999999999995</v>
@@ -6425,7 +6425,7 @@
     </row>
     <row r="210" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A210" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B210" s="18">
         <v>0.38</v>
@@ -6460,7 +6460,7 @@
     </row>
     <row r="211" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A211" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B211" s="18">
         <v>0.56999999999999995</v>
@@ -6495,7 +6495,7 @@
     </row>
     <row r="212" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A212" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B212" s="18">
         <v>0.39</v>
@@ -6530,7 +6530,7 @@
     </row>
     <row r="213" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A213" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B213" s="18">
         <v>0.56999999999999995</v>
@@ -6565,7 +6565,7 @@
     </row>
     <row r="214" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A214" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B214" s="18">
         <v>0.5</v>
@@ -6600,7 +6600,7 @@
     </row>
     <row r="215" spans="1:31" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A215" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B215" s="33">
         <v>1</v>
@@ -6609,7 +6609,7 @@
         <v>2</v>
       </c>
       <c r="D215" s="33" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E215" s="33">
         <v>4</v>
@@ -6621,7 +6621,7 @@
         <v>6</v>
       </c>
       <c r="H215" s="33" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AC215" s="13"/>
       <c r="AD215" s="13"/>
@@ -6629,7 +6629,7 @@
     </row>
     <row r="216" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A216" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B216" s="34">
         <v>0.53</v>
@@ -6664,7 +6664,7 @@
     </row>
     <row r="217" spans="1:31" s="16" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B217" s="37">
         <v>0.38</v>
@@ -6699,7 +6699,7 @@
     </row>
     <row r="218" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A218" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B218" s="37">
         <v>0.43</v>
@@ -6734,7 +6734,7 @@
     </row>
     <row r="219" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A219" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B219" s="37">
         <v>0.33</v>
@@ -6769,7 +6769,7 @@
     </row>
     <row r="220" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A220" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B220" s="37">
         <v>0.38</v>
@@ -6804,7 +6804,7 @@
     </row>
     <row r="221" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A221" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B221" s="37">
         <v>0.33</v>
@@ -6839,7 +6839,7 @@
     </row>
     <row r="222" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A222" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B222" s="37">
         <v>0.39</v>
@@ -6874,7 +6874,7 @@
     </row>
     <row r="223" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A223" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B223" s="37">
         <v>0.33</v>
@@ -6909,7 +6909,7 @@
     </row>
     <row r="224" spans="1:31" s="16" customFormat="1" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B224" s="40">
         <v>0.53</v>
@@ -6944,7 +6944,7 @@
     </row>
     <row r="225" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A225" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B225" s="15"/>
       <c r="AC225" s="13"/>
@@ -6953,7 +6953,7 @@
     </row>
     <row r="226" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A226" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B226" s="15">
         <v>0.57999999999999996</v>
@@ -6964,7 +6964,7 @@
     </row>
     <row r="227" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B227" s="15">
         <v>0.43</v>
@@ -6982,7 +6982,7 @@
     </row>
     <row r="229" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A229" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B229" s="15"/>
       <c r="AC229" s="13"/>
@@ -6991,7 +6991,7 @@
     </row>
     <row r="230" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A230" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B230" s="15"/>
       <c r="AC230" s="13"/>
@@ -7000,7 +7000,7 @@
     </row>
     <row r="231" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A231" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B231" s="15">
         <v>0.8</v>
@@ -7011,7 +7011,7 @@
     </row>
     <row r="232" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A232" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B232" s="15">
         <v>0.45</v>
@@ -7022,7 +7022,7 @@
     </row>
     <row r="233" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A233" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B233" s="15">
         <v>0.65</v>
@@ -7033,7 +7033,7 @@
     </row>
     <row r="234" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A234" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B234" s="33">
         <v>1</v>
@@ -7057,13 +7057,13 @@
         <v>7</v>
       </c>
       <c r="I234" s="33" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J234" s="33">
         <v>9</v>
       </c>
       <c r="K234" s="33" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L234" s="33"/>
       <c r="M234" s="33"/>
@@ -7078,7 +7078,7 @@
     </row>
     <row r="235" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A235" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B235" s="18">
         <v>0.21</v>
@@ -7132,7 +7132,7 @@
     </row>
     <row r="236" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A236" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B236" s="18">
         <v>0.11</v>
@@ -7186,7 +7186,7 @@
     </row>
     <row r="237" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A237" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B237" s="18">
         <v>0.21</v>
@@ -7240,7 +7240,7 @@
     </row>
     <row r="238" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A238" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B238" s="18">
         <v>0.25</v>
@@ -7294,7 +7294,7 @@
     </row>
     <row r="239" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A239" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B239" s="18">
         <v>0.15</v>
@@ -7348,7 +7348,7 @@
     </row>
     <row r="240" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A240" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B240" s="18">
         <v>0.31</v>
@@ -7402,7 +7402,7 @@
     </row>
     <row r="241" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A241" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B241" s="18">
         <v>0.41</v>
@@ -7456,7 +7456,7 @@
     </row>
     <row r="242" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A242" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B242" s="18">
         <v>0.31</v>
@@ -7510,7 +7510,7 @@
     </row>
     <row r="243" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A243" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B243" s="18">
         <v>0.31</v>
@@ -7564,7 +7564,7 @@
     </row>
     <row r="244" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A244" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B244" s="18">
         <v>0.43</v>
@@ -7618,7 +7618,7 @@
     </row>
     <row r="245" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A245" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B245" s="18">
         <v>0.41</v>
@@ -7672,7 +7672,7 @@
     </row>
     <row r="246" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A246" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B246" s="18">
         <v>0.25</v>
@@ -7726,7 +7726,7 @@
     </row>
     <row r="247" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A247" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B247" s="18">
         <v>0.21</v>
@@ -7780,7 +7780,7 @@
     </row>
     <row r="248" spans="1:31" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B248" s="18">
         <v>0.25</v>
@@ -7834,7 +7834,7 @@
     </row>
     <row r="249" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A249" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B249" s="18">
         <v>0.21</v>
@@ -7888,7 +7888,7 @@
     </row>
     <row r="250" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A250" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B250" s="18">
         <v>0.15</v>
@@ -7942,7 +7942,7 @@
     </row>
     <row r="251" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A251" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B251" s="18">
         <v>0.15</v>
@@ -7996,7 +7996,7 @@
     </row>
     <row r="252" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A252" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B252" s="18">
         <v>0.15</v>
@@ -8050,7 +8050,7 @@
     </row>
     <row r="253" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A253" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B253" s="18">
         <v>0.15</v>
@@ -8104,7 +8104,7 @@
     </row>
     <row r="254" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A254" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B254" s="18">
         <v>0.15</v>
@@ -8161,7 +8161,7 @@
     </row>
     <row r="255" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A255" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B255" s="18">
         <v>0.21</v>
@@ -8215,7 +8215,7 @@
     </row>
     <row r="256" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A256" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B256" s="18">
         <v>0.25</v>
@@ -8269,43 +8269,43 @@
     </row>
     <row r="257" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A257" s="28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B257" s="44" t="s">
+        <v>401</v>
+      </c>
+      <c r="C257" s="44" t="s">
         <v>402</v>
       </c>
-      <c r="C257" s="44" t="s">
+      <c r="D257" s="44" t="s">
         <v>403</v>
       </c>
-      <c r="D257" s="44" t="s">
-        <v>404</v>
-      </c>
       <c r="E257" s="44" t="s">
+        <v>405</v>
+      </c>
+      <c r="F257" s="44" t="s">
         <v>406</v>
       </c>
-      <c r="F257" s="44" t="s">
+      <c r="G257" s="44" t="s">
         <v>407</v>
       </c>
-      <c r="G257" s="44" t="s">
+      <c r="H257" s="44" t="s">
         <v>408</v>
       </c>
-      <c r="H257" s="44" t="s">
+      <c r="I257" s="44" t="s">
         <v>409</v>
       </c>
-      <c r="I257" s="44" t="s">
+      <c r="J257" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="K257" s="44" t="s">
+        <v>412</v>
+      </c>
+      <c r="L257" s="44" t="s">
         <v>410</v>
       </c>
-      <c r="J257" s="44" t="s">
-        <v>412</v>
-      </c>
-      <c r="K257" s="44" t="s">
-        <v>413</v>
-      </c>
-      <c r="L257" s="44" t="s">
-        <v>411</v>
-      </c>
       <c r="M257" s="44" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="N257" s="44"/>
       <c r="O257" s="44"/>
@@ -8317,7 +8317,7 @@
     </row>
     <row r="258" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A258" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B258" s="18">
         <v>0.33</v>
@@ -8372,7 +8372,7 @@
     </row>
     <row r="259" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A259" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B259" s="18">
         <v>0.21</v>
@@ -8427,7 +8427,7 @@
     </row>
     <row r="260" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A260" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B260" s="18">
         <v>0.36</v>
@@ -8482,7 +8482,7 @@
     </row>
     <row r="261" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A261" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B261" s="18">
         <v>0.39</v>
@@ -8537,7 +8537,7 @@
     </row>
     <row r="262" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A262" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B262" s="18">
         <v>0.28999999999999998</v>
@@ -8592,7 +8592,7 @@
     </row>
     <row r="263" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A263" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B263" s="18">
         <v>0.47</v>
@@ -8647,7 +8647,7 @@
     </row>
     <row r="264" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A264" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B264" s="18">
         <v>0.57999999999999996</v>
@@ -8702,7 +8702,7 @@
     </row>
     <row r="265" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A265" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B265" s="18">
         <v>0.47</v>
@@ -8757,7 +8757,7 @@
     </row>
     <row r="266" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A266" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B266" s="18">
         <v>0.47</v>
@@ -8812,7 +8812,7 @@
     </row>
     <row r="267" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A267" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B267" s="18">
         <v>0.61</v>
@@ -8867,7 +8867,7 @@
     </row>
     <row r="268" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A268" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B268" s="18">
         <v>0.56999999999999995</v>
@@ -8922,7 +8922,7 @@
     </row>
     <row r="269" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A269" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B269" s="18">
         <v>0.41</v>
@@ -8977,7 +8977,7 @@
     </row>
     <row r="270" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A270" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B270" s="18">
         <v>0.37</v>
@@ -9032,7 +9032,7 @@
     </row>
     <row r="271" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A271" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B271" s="18">
         <v>0.41</v>
@@ -9087,7 +9087,7 @@
     </row>
     <row r="272" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A272" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B272" s="18">
         <v>0.37</v>
@@ -9142,7 +9142,7 @@
     </row>
     <row r="273" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A273" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B273" s="18">
         <v>0.28999999999999998</v>
@@ -9197,7 +9197,7 @@
     </row>
     <row r="274" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A274" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B274" s="18">
         <v>0.28999999999999998</v>
@@ -9252,7 +9252,7 @@
     </row>
     <row r="275" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A275" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B275" s="18">
         <v>0.28999999999999998</v>
@@ -9307,7 +9307,7 @@
     </row>
     <row r="276" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A276" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B276" s="18">
         <v>0.28999999999999998</v>
@@ -9362,7 +9362,7 @@
     </row>
     <row r="277" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A277" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B277" s="18">
         <v>0.28999999999999998</v>
@@ -9421,7 +9421,7 @@
     </row>
     <row r="278" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A278" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B278" s="18">
         <v>0.37</v>
@@ -9476,7 +9476,7 @@
     </row>
     <row r="279" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A279" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B279" s="18">
         <v>0.41</v>
@@ -9531,7 +9531,7 @@
     </row>
     <row r="280" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" s="28" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B280" s="47"/>
       <c r="C280" s="43"/>
@@ -9555,7 +9555,7 @@
     </row>
     <row r="281" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A281" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B281" s="18">
         <v>0.4</v>
@@ -9590,7 +9590,7 @@
     </row>
     <row r="282" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A282" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B282" s="18">
         <v>0.47</v>
@@ -9625,7 +9625,7 @@
     </row>
     <row r="283" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A283" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B283" s="18">
         <v>0.35</v>
@@ -9660,7 +9660,7 @@
     </row>
     <row r="284" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A284" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B284" s="18">
         <v>0.45</v>
@@ -9695,7 +9695,7 @@
     </row>
     <row r="285" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A285" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B285" s="18">
         <v>0.36</v>
@@ -9730,7 +9730,7 @@
     </row>
     <row r="286" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A286" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B286" s="18">
         <v>0.42</v>
@@ -9765,7 +9765,7 @@
     </row>
     <row r="287" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A287" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B287" s="18">
         <v>0.43</v>
@@ -9800,7 +9800,7 @@
     </row>
     <row r="288" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A288" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B288" s="18">
         <v>0.39</v>
@@ -9835,7 +9835,7 @@
     </row>
     <row r="289" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A289" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B289" s="18">
         <v>0.45</v>
@@ -9870,7 +9870,7 @@
     </row>
     <row r="290" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A290" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B290" s="18">
         <v>0.41</v>
@@ -9905,7 +9905,7 @@
     </row>
     <row r="291" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A291" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B291" s="18">
         <v>0.35</v>
@@ -9940,7 +9940,7 @@
     </row>
     <row r="292" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A292" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B292" s="18">
         <v>0.35</v>
@@ -9975,7 +9975,7 @@
     </row>
     <row r="293" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A293" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B293" s="18">
         <v>0.35</v>
@@ -10010,7 +10010,7 @@
     </row>
     <row r="294" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A294" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B294" s="18">
         <v>0.35</v>
@@ -10045,7 +10045,7 @@
     </row>
     <row r="295" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A295" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B295" s="18">
         <v>0.35</v>
@@ -10080,7 +10080,7 @@
     </row>
     <row r="296" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A296" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B296" s="18">
         <v>0.35</v>
@@ -10115,7 +10115,7 @@
     </row>
     <row r="297" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A297" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B297" s="18">
         <v>0.35</v>
@@ -10150,7 +10150,7 @@
     </row>
     <row r="298" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A298" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B298" s="18">
         <v>0.35</v>
@@ -10185,7 +10185,7 @@
     </row>
     <row r="299" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A299" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B299" s="18">
         <v>0.35</v>
@@ -10243,7 +10243,7 @@
     </row>
     <row r="301" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A301" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B301" s="15"/>
       <c r="AC301" s="13"/>
@@ -10252,7 +10252,7 @@
     </row>
     <row r="302" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A302" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B302" s="15"/>
       <c r="AC302" s="13"/>
@@ -10261,7 +10261,7 @@
     </row>
     <row r="303" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A303" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B303" s="15">
         <v>0.8</v>
@@ -10272,7 +10272,7 @@
     </row>
     <row r="304" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A304" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B304" s="15">
         <v>0.6</v>
@@ -10283,7 +10283,7 @@
     </row>
     <row r="305" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A305" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B305" s="15">
         <v>0.5</v>
@@ -10294,7 +10294,7 @@
     </row>
     <row r="306" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A306" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B306" s="15">
         <v>0.3</v>
@@ -10305,7 +10305,7 @@
     </row>
     <row r="307" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A307" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B307" s="15">
         <v>0.4</v>
@@ -10316,7 +10316,7 @@
     </row>
     <row r="308" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A308" s="28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B308" s="15"/>
       <c r="AC308" s="13"/>
@@ -10325,7 +10325,7 @@
     </row>
     <row r="309" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A309" s="28" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B309" s="33">
         <v>1</v>
@@ -10343,7 +10343,7 @@
         <v>5</v>
       </c>
       <c r="G309" s="33" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H309" s="33"/>
       <c r="I309" s="33"/>
@@ -10365,7 +10365,7 @@
     </row>
     <row r="310" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A310" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B310" s="18">
         <v>0.36</v>
@@ -10398,7 +10398,7 @@
     </row>
     <row r="311" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A311" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B311" s="18">
         <v>0.44</v>
@@ -10431,7 +10431,7 @@
     </row>
     <row r="312" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A312" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B312" s="18">
         <v>0.32</v>
@@ -10464,7 +10464,7 @@
     </row>
     <row r="313" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A313" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B313" s="18">
         <v>0.52</v>
@@ -10497,7 +10497,7 @@
     </row>
     <row r="314" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A314" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B314" s="18">
         <v>0.31</v>
@@ -10530,7 +10530,7 @@
     </row>
     <row r="315" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A315" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B315" s="18">
         <v>0.46</v>
@@ -10563,7 +10563,7 @@
     </row>
     <row r="316" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A316" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B316" s="18">
         <v>0.41</v>
@@ -10596,7 +10596,7 @@
     </row>
     <row r="317" spans="1:31" s="16" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B317" s="18">
         <v>0.42</v>
@@ -10629,7 +10629,7 @@
     </row>
     <row r="318" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A318" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B318" s="18">
         <v>0.48</v>
@@ -10662,7 +10662,7 @@
     </row>
     <row r="319" spans="1:31" s="16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B319" s="18">
         <v>0.44</v>
@@ -10695,7 +10695,7 @@
     </row>
     <row r="320" spans="1:31" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A320" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B320" s="50">
         <v>1</v>
@@ -10704,7 +10704,7 @@
         <v>2</v>
       </c>
       <c r="D320" s="50" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E320" s="50">
         <v>4</v>
@@ -10713,7 +10713,7 @@
         <v>5</v>
       </c>
       <c r="G320" s="50" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H320" s="31"/>
       <c r="AC320" s="13"/>
@@ -10722,7 +10722,7 @@
     </row>
     <row r="321" spans="1:31" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B321" s="34">
         <v>0.35</v>
@@ -10754,7 +10754,7 @@
     </row>
     <row r="322" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A322" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B322" s="37">
         <v>0.35</v>
@@ -10786,7 +10786,7 @@
     </row>
     <row r="323" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A323" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B323" s="37">
         <v>0.35</v>
@@ -10818,7 +10818,7 @@
     </row>
     <row r="324" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A324" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B324" s="37">
         <v>0.35</v>
@@ -10850,7 +10850,7 @@
     </row>
     <row r="325" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A325" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B325" s="37">
         <v>0.32</v>
@@ -10882,7 +10882,7 @@
     </row>
     <row r="326" spans="1:31" s="16" customFormat="1" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A326" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B326" s="40">
         <v>0.35</v>
@@ -10929,7 +10929,7 @@
     </row>
     <row r="328" spans="1:31" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B328" s="15"/>
       <c r="AC328" s="13"/>
@@ -10938,7 +10938,7 @@
     </row>
     <row r="329" spans="1:31" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B329" s="15">
         <v>1</v>
@@ -10949,7 +10949,7 @@
     </row>
     <row r="330" spans="1:31" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B330" s="15">
         <v>0.8</v>
@@ -10960,7 +10960,7 @@
     </row>
     <row r="331" spans="1:31" s="16" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B331" s="15">
         <v>1</v>
@@ -10971,7 +10971,7 @@
     </row>
     <row r="332" spans="1:31" s="16" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B332" s="15">
         <v>0.9</v>
@@ -10982,7 +10982,7 @@
     </row>
     <row r="333" spans="1:31" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B333" s="15">
         <v>1.1000000000000001</v>
@@ -10993,7 +10993,7 @@
     </row>
     <row r="334" spans="1:31" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B334" s="15">
         <v>1</v>
@@ -11011,7 +11011,7 @@
     </row>
     <row r="336" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A336" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B336" s="15"/>
       <c r="AC336" s="13"/>
@@ -11020,7 +11020,7 @@
     </row>
     <row r="337" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A337" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B337" s="15"/>
       <c r="AC337" s="13"/>
@@ -11029,7 +11029,7 @@
     </row>
     <row r="338" spans="1:31" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A338" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B338" s="22">
         <v>1.6</v>
@@ -11040,7 +11040,7 @@
     </row>
     <row r="339" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A339" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B339" s="22">
         <v>1.4</v>
@@ -11051,7 +11051,7 @@
     </row>
     <row r="340" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A340" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B340" s="22">
         <v>1.1000000000000001</v>
@@ -11062,7 +11062,7 @@
     </row>
     <row r="341" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A341" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B341" s="22">
         <v>1.05</v>
@@ -11073,7 +11073,7 @@
     </row>
     <row r="342" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A342" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B342" s="22">
         <v>1</v>
@@ -11084,7 +11084,7 @@
     </row>
     <row r="343" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A343" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B343" s="22">
         <v>0.8</v>
@@ -11095,7 +11095,7 @@
     </row>
     <row r="344" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A344" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B344" s="22">
         <v>0.8</v>
@@ -11106,7 +11106,7 @@
     </row>
     <row r="345" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A345" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B345" s="22">
         <v>0.8</v>
@@ -11117,7 +11117,7 @@
     </row>
     <row r="346" spans="1:31" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A346" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B346" s="22">
         <v>0.6</v>
@@ -11128,7 +11128,7 @@
     </row>
     <row r="347" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A347" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B347" s="22">
         <v>1</v>
@@ -11139,7 +11139,7 @@
     </row>
     <row r="348" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A348" s="28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B348" s="15"/>
       <c r="AC348" s="13"/>
@@ -11148,7 +11148,7 @@
     </row>
     <row r="349" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A349" s="29" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B349" s="15"/>
       <c r="AC349" s="13"/>
@@ -11157,7 +11157,7 @@
     </row>
     <row r="350" spans="1:31" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A350" s="29" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B350" s="33">
         <v>1</v>
@@ -11181,34 +11181,34 @@
         <v>7</v>
       </c>
       <c r="I350" s="33" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J350" s="33">
         <v>9</v>
       </c>
       <c r="K350" s="33" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L350" s="33" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M350" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="N350" s="33" t="s">
         <v>419</v>
       </c>
-      <c r="N350" s="33" t="s">
+      <c r="O350" s="33" t="s">
         <v>420</v>
       </c>
-      <c r="O350" s="33" t="s">
+      <c r="P350" s="33" t="s">
         <v>421</v>
       </c>
-      <c r="P350" s="33" t="s">
+      <c r="Q350" s="33" t="s">
         <v>422</v>
       </c>
-      <c r="Q350" s="33" t="s">
-        <v>423</v>
-      </c>
       <c r="R350" s="33" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="S350" s="33"/>
       <c r="T350" s="33"/>
@@ -11219,7 +11219,7 @@
     </row>
     <row r="351" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A351" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B351" s="34">
         <v>0.61</v>
@@ -11298,7 +11298,7 @@
     </row>
     <row r="352" spans="1:31" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A352" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B352" s="37">
         <v>0.7</v>
@@ -11377,7 +11377,7 @@
     </row>
     <row r="353" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A353" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B353" s="37">
         <v>0.42</v>
@@ -11456,7 +11456,7 @@
     </row>
     <row r="354" spans="1:31" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A354" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B354" s="37">
         <v>0.52</v>
@@ -11535,7 +11535,7 @@
     </row>
     <row r="355" spans="1:31" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A355" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B355" s="37">
         <v>0.53</v>
@@ -11614,7 +11614,7 @@
     </row>
     <row r="356" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A356" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B356" s="37">
         <v>0.48</v>
@@ -11693,7 +11693,7 @@
     </row>
     <row r="357" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A357" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B357" s="37">
         <v>0.35</v>
@@ -11772,7 +11772,7 @@
     </row>
     <row r="358" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A358" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B358" s="37">
         <v>0.8</v>
@@ -11851,7 +11851,7 @@
     </row>
     <row r="359" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A359" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B359" s="37">
         <v>0.65</v>
@@ -11930,7 +11930,7 @@
     </row>
     <row r="360" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A360" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B360" s="37">
         <v>0.63</v>
@@ -12009,7 +12009,7 @@
     </row>
     <row r="361" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A361" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B361" s="37">
         <v>0.35</v>
@@ -12088,7 +12088,7 @@
     </row>
     <row r="362" spans="1:31" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A362" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B362" s="37">
         <v>0.32</v>
@@ -12167,7 +12167,7 @@
     </row>
     <row r="363" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A363" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B363" s="37">
         <v>0.46</v>
@@ -12246,7 +12246,7 @@
     </row>
     <row r="364" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A364" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B364" s="37">
         <v>0.35</v>
@@ -12325,7 +12325,7 @@
     </row>
     <row r="365" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A365" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B365" s="37">
         <v>0.44</v>
@@ -12404,7 +12404,7 @@
     </row>
     <row r="366" spans="1:31" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A366" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B366" s="37">
         <v>0.38</v>
@@ -12483,7 +12483,7 @@
     </row>
     <row r="367" spans="1:31" s="16" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B367" s="37">
         <v>0.48</v>
@@ -12562,7 +12562,7 @@
     </row>
     <row r="368" spans="1:31" s="16" customFormat="1" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A368" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B368" s="40">
         <v>0.34</v>
@@ -12669,7 +12669,7 @@
     </row>
     <row r="370" spans="1:31" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A370" s="29" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B370" s="57">
         <v>1</v>
@@ -12678,7 +12678,7 @@
         <v>2</v>
       </c>
       <c r="D370" s="57" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E370" s="55"/>
       <c r="F370" s="55"/>
@@ -12702,7 +12702,7 @@
     </row>
     <row r="371" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A371" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B371" s="34">
         <v>0.35</v>
@@ -12781,7 +12781,7 @@
     </row>
     <row r="372" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A372" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B372" s="37">
         <v>0.32</v>
@@ -12860,7 +12860,7 @@
     </row>
     <row r="373" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A373" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B373" s="37">
         <v>0.35</v>
@@ -12939,7 +12939,7 @@
     </row>
     <row r="374" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A374" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B374" s="37">
         <v>0.32</v>
@@ -13018,7 +13018,7 @@
     </row>
     <row r="375" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A375" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B375" s="37">
         <v>0.35</v>
@@ -13097,7 +13097,7 @@
     </row>
     <row r="376" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A376" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B376" s="37">
         <v>0.32</v>
@@ -13176,7 +13176,7 @@
     </row>
     <row r="377" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A377" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B377" s="37">
         <v>0.35</v>
@@ -13255,7 +13255,7 @@
     </row>
     <row r="378" spans="1:31" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B378" s="37">
         <v>0.32</v>
@@ -13334,7 +13334,7 @@
     </row>
     <row r="379" spans="1:31" s="16" customFormat="1" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A379" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B379" s="40">
         <v>0.38</v>
@@ -13413,7 +13413,7 @@
     </row>
     <row r="380" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A380" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B380" s="52"/>
       <c r="C380" s="51"/>
@@ -13443,7 +13443,7 @@
     </row>
     <row r="381" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A381" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B381" s="15">
         <v>0.79</v>
@@ -13467,7 +13467,7 @@
     </row>
     <row r="382" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A382" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B382" s="15">
         <v>0.61</v>
@@ -13491,7 +13491,7 @@
     </row>
     <row r="383" spans="1:31" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A383" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B383" s="33">
         <v>1</v>
@@ -13509,7 +13509,7 @@
         <v>5</v>
       </c>
       <c r="G383" s="33" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H383" s="31"/>
       <c r="I383" s="31"/>
@@ -13530,7 +13530,7 @@
     </row>
     <row r="384" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A384" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B384" s="34">
         <v>0.41</v>
@@ -13609,7 +13609,7 @@
     </row>
     <row r="385" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A385" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B385" s="37">
         <v>0.31</v>
@@ -13688,7 +13688,7 @@
     </row>
     <row r="386" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A386" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B386" s="37">
         <v>0.31</v>
@@ -13767,7 +13767,7 @@
     </row>
     <row r="387" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A387" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B387" s="37">
         <v>0.35</v>
@@ -13846,7 +13846,7 @@
     </row>
     <row r="388" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A388" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B388" s="37">
         <v>0.25</v>
@@ -13925,7 +13925,7 @@
     </row>
     <row r="389" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A389" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B389" s="37">
         <v>0.41</v>
@@ -14004,7 +14004,7 @@
     </row>
     <row r="390" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A390" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B390" s="37">
         <v>0.51</v>
@@ -14083,7 +14083,7 @@
     </row>
     <row r="391" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A391" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B391" s="37">
         <v>0.41</v>
@@ -14162,7 +14162,7 @@
     </row>
     <row r="392" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A392" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B392" s="37">
         <v>0.41</v>
@@ -14241,7 +14241,7 @@
     </row>
     <row r="393" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A393" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B393" s="37">
         <v>0.53</v>
@@ -14320,7 +14320,7 @@
     </row>
     <row r="394" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A394" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B394" s="37">
         <v>0.51</v>
@@ -14399,7 +14399,7 @@
     </row>
     <row r="395" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A395" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B395" s="37">
         <v>0.35</v>
@@ -14478,7 +14478,7 @@
     </row>
     <row r="396" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A396" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B396" s="37">
         <v>0.31</v>
@@ -14557,7 +14557,7 @@
     </row>
     <row r="397" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A397" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B397" s="37">
         <v>0.35</v>
@@ -14636,7 +14636,7 @@
     </row>
     <row r="398" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A398" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B398" s="37">
         <v>0.31</v>
@@ -14715,7 +14715,7 @@
     </row>
     <row r="399" spans="1:31" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B399" s="37">
         <v>0.25</v>
@@ -14794,7 +14794,7 @@
     </row>
     <row r="400" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A400" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B400" s="37">
         <v>0.25</v>
@@ -14873,7 +14873,7 @@
     </row>
     <row r="401" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A401" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B401" s="37">
         <v>0.25</v>
@@ -14952,7 +14952,7 @@
     </row>
     <row r="402" spans="1:31" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B402" s="37">
         <v>0.25</v>
@@ -15031,7 +15031,7 @@
     </row>
     <row r="403" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A403" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B403" s="37">
         <v>0.25</v>
@@ -15110,7 +15110,7 @@
     </row>
     <row r="404" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A404" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B404" s="37">
         <v>0.31</v>
@@ -15189,7 +15189,7 @@
     </row>
     <row r="405" spans="1:31" s="16" customFormat="1" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A405" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B405" s="40">
         <v>0.35</v>
@@ -15296,7 +15296,7 @@
     </row>
     <row r="407" spans="1:31" s="16" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A407" s="29" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B407" s="57">
         <v>1</v>
@@ -15323,7 +15323,7 @@
         <v>8</v>
       </c>
       <c r="J407" s="57" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K407" s="51"/>
       <c r="L407" s="51"/>
@@ -15341,7 +15341,7 @@
     </row>
     <row r="408" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A408" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B408" s="34">
         <v>0.43</v>
@@ -15420,7 +15420,7 @@
     </row>
     <row r="409" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A409" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B409" s="37">
         <v>0.31</v>
@@ -15499,7 +15499,7 @@
     </row>
     <row r="410" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A410" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B410" s="37">
         <v>0.46</v>
@@ -15578,7 +15578,7 @@
     </row>
     <row r="411" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A411" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B411" s="37">
         <v>0.49</v>
@@ -15657,7 +15657,7 @@
     </row>
     <row r="412" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A412" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B412" s="37">
         <v>0.39</v>
@@ -15736,7 +15736,7 @@
     </row>
     <row r="413" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A413" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B413" s="37">
         <v>0.56999999999999995</v>
@@ -15815,7 +15815,7 @@
     </row>
     <row r="414" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A414" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B414" s="37">
         <v>0.68</v>
@@ -15894,7 +15894,7 @@
     </row>
     <row r="415" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A415" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B415" s="37">
         <v>0.56999999999999995</v>
@@ -15973,7 +15973,7 @@
     </row>
     <row r="416" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A416" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B416" s="37">
         <v>0.56999999999999995</v>
@@ -16052,7 +16052,7 @@
     </row>
     <row r="417" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A417" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B417" s="37">
         <v>0.61</v>
@@ -16131,7 +16131,7 @@
     </row>
     <row r="418" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A418" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B418" s="37">
         <v>0.67</v>
@@ -16210,7 +16210,7 @@
     </row>
     <row r="419" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A419" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B419" s="37">
         <v>0.51</v>
@@ -16289,7 +16289,7 @@
     </row>
     <row r="420" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A420" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B420" s="37">
         <v>0.47</v>
@@ -16368,7 +16368,7 @@
     </row>
     <row r="421" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A421" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B421" s="37">
         <v>0.51</v>
@@ -16447,7 +16447,7 @@
     </row>
     <row r="422" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A422" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B422" s="37">
         <v>0.47</v>
@@ -16526,7 +16526,7 @@
     </row>
     <row r="423" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A423" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B423" s="37">
         <v>0.39</v>
@@ -16605,7 +16605,7 @@
     </row>
     <row r="424" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A424" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B424" s="37">
         <v>0.39</v>
@@ -16684,7 +16684,7 @@
     </row>
     <row r="425" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A425" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B425" s="37">
         <v>0.39</v>
@@ -16763,7 +16763,7 @@
     </row>
     <row r="426" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A426" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B426" s="37">
         <v>0.39</v>
@@ -16842,7 +16842,7 @@
     </row>
     <row r="427" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A427" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B427" s="37">
         <v>0.39</v>
@@ -16921,7 +16921,7 @@
     </row>
     <row r="428" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A428" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B428" s="37">
         <v>0.47</v>
@@ -17000,7 +17000,7 @@
     </row>
     <row r="429" spans="1:31" s="16" customFormat="1" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A429" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B429" s="40">
         <v>0.51</v>
@@ -17106,7 +17106,7 @@
     </row>
     <row r="431" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A431" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B431" s="15"/>
       <c r="AC431" s="13"/>
@@ -17115,7 +17115,7 @@
     </row>
     <row r="432" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A432" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B432" s="15">
         <v>51000</v>
@@ -17126,7 +17126,7 @@
     </row>
     <row r="433" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A433" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B433" s="15">
         <v>45000</v>
@@ -17137,7 +17137,7 @@
     </row>
     <row r="434" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A434" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B434" s="15">
         <v>55000</v>
@@ -17148,7 +17148,7 @@
     </row>
     <row r="435" spans="1:31" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A435" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B435" s="15">
         <v>58000</v>
@@ -17175,7 +17175,7 @@
     </row>
     <row r="438" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A438" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B438" s="15">
         <v>0.8</v>
@@ -17186,7 +17186,7 @@
     </row>
     <row r="439" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A439" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B439" s="15">
         <v>1</v>
@@ -17197,7 +17197,7 @@
     </row>
     <row r="440" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A440" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B440" s="15">
         <v>1.2</v>
@@ -17208,7 +17208,7 @@
     </row>
     <row r="441" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A441" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B441" s="15">
         <v>1.5</v>
@@ -17219,7 +17219,7 @@
     </row>
     <row r="442" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A442" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B442" s="15">
         <v>2</v>
@@ -17230,7 +17230,7 @@
     </row>
     <row r="443" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A443" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B443" s="15">
         <v>2.2000000000000002</v>
@@ -17241,7 +17241,7 @@
     </row>
     <row r="444" spans="1:31" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A444" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B444" s="15">
         <v>2.5</v>
@@ -17252,7 +17252,7 @@
     </row>
     <row r="445" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A445" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B445" s="15">
         <v>3</v>
@@ -17609,7 +17609,7 @@
     </row>
     <row r="478" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A478" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B478" s="15">
         <v>1.5</v>
@@ -17636,7 +17636,7 @@
     </row>
     <row r="481" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A481" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B481" s="15">
         <v>1</v>
@@ -17647,7 +17647,7 @@
     </row>
     <row r="482" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A482" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B482" s="15">
         <v>0.9</v>
@@ -17707,7 +17707,7 @@
     </row>
     <row r="488" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A488" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B488" s="15">
         <v>1.2</v>
@@ -17725,7 +17725,7 @@
     </row>
     <row r="490" spans="1:31" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A490" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B490" s="15"/>
       <c r="AC490" s="13"/>
@@ -17777,7 +17777,7 @@
     </row>
     <row r="493" spans="1:31" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A493" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B493" s="15"/>
       <c r="AC493" s="13"/>
@@ -17811,7 +17811,7 @@
     </row>
     <row r="497" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A497" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B497" s="18"/>
       <c r="AC497" s="13"/>
@@ -17820,7 +17820,7 @@
     </row>
     <row r="498" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A498" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B498" s="18">
         <v>0.99</v>
@@ -17838,7 +17838,7 @@
     </row>
     <row r="500" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A500" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B500" s="18"/>
       <c r="AC500" s="13"/>
@@ -17847,7 +17847,7 @@
     </row>
     <row r="501" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A501" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B501" s="18">
         <v>0.98</v>
@@ -17865,7 +17865,7 @@
     </row>
     <row r="503" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A503" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B503" s="18"/>
       <c r="AC503" s="13"/>
@@ -17874,7 +17874,7 @@
     </row>
     <row r="504" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A504" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B504" s="18">
         <v>0.98</v>
@@ -17892,7 +17892,7 @@
     </row>
     <row r="506" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A506" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B506" s="18"/>
       <c r="AC506" s="13"/>
@@ -17901,7 +17901,7 @@
     </row>
     <row r="507" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A507" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B507" s="18">
         <v>0.99</v>
@@ -17967,13 +17967,13 @@
     </row>
     <row r="514" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A514" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B514" s="18"/>
     </row>
     <row r="515" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A515" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B515" s="17">
         <v>70</v>
@@ -17981,7 +17981,7 @@
     </row>
     <row r="516" spans="1:31" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A516" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B516" s="17">
         <v>10</v>
@@ -17998,52 +17998,52 @@
     </row>
     <row r="518" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A518" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="519" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A519" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B519" s="20" t="s">
         <v>135</v>
-      </c>
-      <c r="B519" s="20" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="520" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A520" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B520" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="521" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A521" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B521" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="522" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A522" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B522" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="523" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A523" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B523" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="527" spans="1:31" ht="30" x14ac:dyDescent="0.2">
       <c r="A527" s="63" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B527" s="16">
         <f>B6*B13*B106*B432</f>
@@ -18052,7 +18052,7 @@
     </row>
     <row r="528" spans="1:31" ht="30" x14ac:dyDescent="0.2">
       <c r="A528" s="63" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B528" s="16">
         <f>B13*B106*B433</f>
@@ -18061,7 +18061,7 @@
     </row>
     <row r="529" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A529" s="63" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B529" s="16">
         <f>B13*B106*B434</f>
@@ -18070,7 +18070,7 @@
     </row>
     <row r="530" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A530" s="63" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B530" s="16">
         <f>B13*B106*B435</f>
@@ -18196,7 +18196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AG209"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -18219,24 +18219,24 @@
   <sheetData>
     <row r="2" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C2" s="76" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D2" s="69" t="s">
+        <v>490</v>
+      </c>
+      <c r="E2" s="72" t="s">
         <v>491</v>
       </c>
-      <c r="E2" s="72" t="s">
+      <c r="F2" s="79" t="s">
         <v>492</v>
       </c>
-      <c r="F2" s="79" t="s">
-        <v>493</v>
-      </c>
       <c r="G2" s="69" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B3" s="64" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
@@ -18244,10 +18244,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C4" s="77" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D4" s="68">
         <v>1</v>
@@ -18258,10 +18258,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C5" s="77" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D5" s="68">
         <v>1</v>
@@ -18289,10 +18289,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C6" s="77" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D6" s="68">
         <v>40000</v>
@@ -18301,7 +18301,7 @@
         <v>35000</v>
       </c>
       <c r="F6" s="78" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G6" s="16">
         <v>10</v>
@@ -18312,17 +18312,17 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C7" s="77" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D7" s="68">
         <v>40000</v>
       </c>
       <c r="E7" s="70"/>
       <c r="F7" s="78" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G7" s="16">
         <v>10</v>
@@ -18333,10 +18333,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C8" s="77" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D8" s="68">
         <v>1</v>
@@ -18350,7 +18350,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B10" s="65" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D10" s="68"/>
       <c r="E10" s="70"/>
@@ -18360,10 +18360,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C11" s="77" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D11" s="68">
         <v>1</v>
@@ -18375,17 +18375,17 @@
         <v>7</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C12" s="77" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D12" s="68">
         <v>35000</v>
       </c>
       <c r="E12" s="70"/>
       <c r="F12" s="78" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G12" s="16">
         <v>10</v>
@@ -18396,17 +18396,17 @@
         <v>8</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C13" s="77" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D13" s="68">
         <v>45000</v>
       </c>
       <c r="E13" s="70"/>
       <c r="F13" s="78" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G13" s="16">
         <v>10</v>
@@ -18417,17 +18417,17 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C14" s="77" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D14" s="68">
         <v>65000</v>
       </c>
       <c r="E14" s="70"/>
       <c r="F14" s="78" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G14" s="16">
         <v>10</v>
@@ -18438,17 +18438,17 @@
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C15" s="77" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D15" s="68">
         <v>65000</v>
       </c>
       <c r="E15" s="70"/>
       <c r="F15" s="78" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G15" s="16">
         <v>15</v>
@@ -18459,17 +18459,17 @@
         <v>11</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C16" s="77" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D16" s="68">
         <v>65000</v>
       </c>
       <c r="E16" s="70"/>
       <c r="F16" s="78" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G16" s="16">
         <v>15</v>
@@ -18480,10 +18480,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C17" s="77" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D17" s="68">
         <v>1</v>
@@ -18495,10 +18495,10 @@
         <v>13</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C18" s="77" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D18" s="68">
         <v>1</v>
@@ -18510,10 +18510,10 @@
         <v>14</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C19" s="77" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D19" s="68">
         <v>1</v>
@@ -18525,10 +18525,10 @@
         <v>15</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C20" s="77" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D20" s="68">
         <v>1</v>
@@ -18540,17 +18540,17 @@
         <v>16</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C21" s="77" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D21" s="68">
         <v>55000</v>
       </c>
       <c r="E21" s="70"/>
       <c r="F21" s="78" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G21" s="16">
         <v>15</v>
@@ -18561,17 +18561,17 @@
         <v>17</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C22" s="77" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D22" s="68">
         <v>45000</v>
       </c>
       <c r="E22" s="70"/>
       <c r="F22" s="78" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G22" s="16">
         <v>10</v>
@@ -18582,17 +18582,17 @@
         <v>18</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C23" s="77" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D23" s="68">
         <v>65000</v>
       </c>
       <c r="E23" s="70"/>
       <c r="F23" s="78" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G23" s="16">
         <v>10</v>
@@ -18603,17 +18603,17 @@
         <v>19</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C24" s="77" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D24" s="68">
         <v>40000</v>
       </c>
       <c r="E24" s="70"/>
       <c r="F24" s="78" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G24" s="16">
         <v>10</v>
@@ -18624,17 +18624,17 @@
         <v>20</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C25" s="77" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D25" s="68">
         <v>50000</v>
       </c>
       <c r="E25" s="70"/>
       <c r="F25" s="78" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G25" s="16">
         <v>10</v>
@@ -18645,10 +18645,10 @@
         <v>21</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C26" s="77" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D26" s="68">
         <v>1</v>
@@ -18660,17 +18660,17 @@
         <v>22</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C27" s="77" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D27" s="68">
         <v>40000</v>
       </c>
       <c r="E27" s="70"/>
       <c r="F27" s="78" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G27" s="16">
         <v>10</v>
@@ -18681,7 +18681,7 @@
         <v>23</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C28" s="83"/>
       <c r="D28" s="68">
@@ -18694,7 +18694,7 @@
         <v>24</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C29" s="83"/>
       <c r="D29" s="68">
@@ -18707,7 +18707,7 @@
         <v>25</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C30" s="83"/>
       <c r="D30" s="68">
@@ -18722,14 +18722,14 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B32" s="65" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D32" s="68"/>
       <c r="E32" s="70"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B33" s="66" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D33" s="68"/>
       <c r="E33" s="70"/>
@@ -18739,7 +18739,7 @@
         <v>26</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D34" s="68">
         <v>1</v>
@@ -18751,7 +18751,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D35" s="68">
         <v>55000</v>
@@ -18763,7 +18763,7 @@
         <v>28</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D36" s="68">
         <v>1</v>
@@ -18775,7 +18775,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D37" s="68">
         <v>40000</v>
@@ -18787,7 +18787,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D38" s="68">
         <v>1</v>
@@ -18799,7 +18799,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D39" s="68">
         <v>60000</v>
@@ -18811,7 +18811,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D40" s="68">
         <v>1</v>
@@ -18823,7 +18823,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D41" s="68">
         <v>25000</v>
@@ -18837,7 +18837,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B43" s="66" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D43" s="68"/>
       <c r="E43" s="70"/>
@@ -18847,7 +18847,7 @@
         <v>34</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D44" s="68">
         <v>1</v>
@@ -18859,7 +18859,7 @@
         <v>35</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D45" s="68">
         <v>60000</v>
@@ -18871,7 +18871,7 @@
         <v>36</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D46" s="68">
         <v>1</v>
@@ -18883,7 +18883,7 @@
         <v>37</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D47" s="68">
         <v>25000</v>
@@ -18897,7 +18897,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B49" s="65" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D49" s="68"/>
       <c r="E49" s="70"/>
@@ -18907,7 +18907,7 @@
         <v>38</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D50" s="68">
         <v>1</v>
@@ -18919,7 +18919,7 @@
         <v>39</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D51" s="68">
         <v>55000</v>
@@ -18931,7 +18931,7 @@
         <v>40</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D52" s="68">
         <v>1</v>
@@ -18943,7 +18943,7 @@
         <v>41</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D53" s="68">
         <v>40000</v>
@@ -18955,7 +18955,7 @@
         <v>42</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D54" s="68">
         <v>1</v>
@@ -18967,7 +18967,7 @@
         <v>43</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D55" s="68">
         <v>25000</v>
@@ -18981,7 +18981,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B57" s="66" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D57" s="68"/>
       <c r="E57" s="70"/>
@@ -18991,7 +18991,7 @@
         <v>44</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D58" s="68">
         <v>1</v>
@@ -19003,7 +19003,7 @@
         <v>45</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D59" s="68">
         <v>1</v>
@@ -19015,7 +19015,7 @@
         <v>46</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D60" s="68">
         <v>1</v>
@@ -19027,7 +19027,7 @@
         <v>47</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D61" s="68">
         <v>25000</v>
@@ -19041,7 +19041,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B63" s="66" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D63" s="68"/>
       <c r="E63" s="70"/>
@@ -19051,7 +19051,7 @@
         <v>48</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D64" s="68">
         <v>1</v>
@@ -19063,7 +19063,7 @@
         <v>49</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D65" s="68">
         <v>45000</v>
@@ -19075,7 +19075,7 @@
         <v>50</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D66" s="68">
         <v>1</v>
@@ -19087,7 +19087,7 @@
         <v>51</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D67" s="68">
         <v>25000</v>
@@ -19102,7 +19102,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B70" s="75" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
